--- a/formatos_hoja_de_calculo/CE-TABLET-10391-2023.xlsx
+++ b/formatos_hoja_de_calculo/CE-TABLET-10391-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA45B1C-101B-4D5F-B35D-81F66E6CDDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ED12B7-D1D8-4D03-A20A-149AC4AB9E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,12 +29,23 @@
         <x14:slicerCache r:id="rId2"/>
       </x15:slicerCaches>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18140" uniqueCount="2890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18141" uniqueCount="2891">
   <si>
     <t>FECHA DE ENTREGA</t>
   </si>
@@ -8704,6 +8715,9 @@
   </si>
   <si>
     <t>Columna5</t>
+  </si>
+  <si>
+    <t>ENTREGADA</t>
   </si>
 </sst>
 </file>
@@ -8713,7 +8727,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -8724,6 +8738,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -8779,7 +8800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8798,11 +8819,44 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <fill>
@@ -8838,19 +8892,19 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>392</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
       <xdr:row>406</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="codigo_ce">
@@ -8873,7 +8927,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8934,17 +8988,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F85DCD1-1F15-4F8A-BF8E-8398C41C530A}" name="Tabla1" displayName="Tabla1" ref="A1:AF810" totalsRowShown="0">
-  <autoFilter ref="A1:AF810" xr:uid="{8F85DCD1-1F15-4F8A-BF8E-8398C41C530A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F85DCD1-1F15-4F8A-BF8E-8398C41C530A}" name="Tabla1" displayName="Tabla1" ref="A1:AG810" totalsRowShown="0">
+  <autoFilter ref="A1:AG810" xr:uid="{8F85DCD1-1F15-4F8A-BF8E-8398C41C530A}">
     <filterColumn colId="4">
       <filters>
         <filter val="10391"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="32">
-    <tableColumn id="1" xr3:uid="{D4C472F6-6585-4864-8CAF-AE7B827F9D9A}" name="FECHA DE ENTREGA" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{43F5BCA3-912B-4245-95AE-5E38ECE2EE77}" name="HORARIO" dataDxfId="0"/>
+  <tableColumns count="33">
+    <tableColumn id="1" xr3:uid="{D4C472F6-6585-4864-8CAF-AE7B827F9D9A}" name="FECHA DE ENTREGA" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{43F5BCA3-912B-4245-95AE-5E38ECE2EE77}" name="HORARIO" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{4AEEC9B0-CE15-4415-AE19-B94739412851}" name="SEDE DE ENTREGA"/>
     <tableColumn id="4" xr3:uid="{6DFB43CD-FA8A-41EC-B513-57FE464A23A5}" name="CAMIÓN"/>
     <tableColumn id="5" xr3:uid="{11EA6911-0B84-4112-A3D6-DED90D80E910}" name="codigo_ce"/>
@@ -8975,6 +9029,7 @@
     <tableColumn id="30" xr3:uid="{2110D6B3-8E65-48DE-8999-1EF7F870F595}" name="Columna3"/>
     <tableColumn id="31" xr3:uid="{464C7C50-D1AC-4BE5-9712-4383719B7B81}" name="Columna4"/>
     <tableColumn id="32" xr3:uid="{36B61177-A08F-4C33-8FBE-DB7FAA198CAB}" name="Columna5"/>
+    <tableColumn id="33" xr3:uid="{0273BD47-AAF3-403B-8B32-D49D46530996}" name="ENTREGADA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9267,43 +9322,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF810"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:AG810"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J397" sqref="J397"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="56.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="56.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
     <col min="12" max="12" width="27.7109375" customWidth="1"/>
     <col min="13" max="13" width="29.28515625" customWidth="1"/>
     <col min="14" max="14" width="28" customWidth="1"/>
     <col min="15" max="15" width="29.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" customWidth="1"/>
-    <col min="21" max="22" width="10.7109375" customWidth="1"/>
-    <col min="23" max="23" width="21.28515625" customWidth="1"/>
-    <col min="24" max="25" width="14.28515625" customWidth="1"/>
-    <col min="26" max="26" width="13" customWidth="1"/>
-    <col min="27" max="27" width="46.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="21.28515625" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="13" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="46.28515625" hidden="1" customWidth="1"/>
     <col min="28" max="32" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9400,8 +9454,11 @@
       <c r="AF1" t="s">
         <v>2889</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AG1" s="10" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>45005</v>
       </c>
@@ -9484,7 +9541,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>45005</v>
       </c>
@@ -9567,7 +9624,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>45005</v>
       </c>
@@ -9650,7 +9707,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>45005</v>
       </c>
@@ -9733,7 +9790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>45005</v>
       </c>
@@ -9810,7 +9867,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>45005</v>
       </c>
@@ -9893,7 +9950,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>45005</v>
       </c>
@@ -9976,7 +10033,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>45005</v>
       </c>
@@ -10059,7 +10116,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>45005</v>
       </c>
@@ -10142,7 +10199,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>45005</v>
       </c>
@@ -10225,7 +10282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>45005</v>
       </c>
@@ -10308,7 +10365,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>45005</v>
       </c>
@@ -10391,7 +10448,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>45005</v>
       </c>
@@ -10474,7 +10531,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>45005</v>
       </c>
@@ -10557,7 +10614,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>45005</v>
       </c>
@@ -77849,6 +77906,14 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="AG393:AG547">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/formatos_hoja_de_calculo/CE-TABLET-10391-2023.xlsx
+++ b/formatos_hoja_de_calculo/CE-TABLET-10391-2023.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31498CB-AD2E-42B3-9325-71AE6C3F3921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja1'!$A$1:$AA$532</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AA$532</definedName>
   </definedNames>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11856" uniqueCount="1970">
   <si>
     <t>FECHA DE ENTREGA</t>
   </si>
@@ -5932,28 +5938,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -5961,10 +5961,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -5989,7 +5986,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -6003,45 +6006,45 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -6331,35 +6334,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AF533"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AF532"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="0" hidden="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="0" hidden="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="50.42578125" hidden="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="0" hidden="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="0" hidden="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="0" hidden="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="0" hidden="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="0" hidden="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="0" hidden="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="0" hidden="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="0" hidden="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="7.42578125" customWidth="true" style="0"/>
-    <col min="23" max="23" width="0" hidden="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="0" hidden="true" customWidth="true" style="0"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" customWidth="1"/>
+    <col min="16" max="19" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" customWidth="1"/>
+    <col min="23" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" customHeight="1" ht="45">
+    <row r="1" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6444,7 +6437,7 @@
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45033</v>
       </c>
@@ -6517,7 +6510,7 @@
       <c r="X2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="7"/>
+      <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5" t="s">
@@ -6536,7 +6529,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45033</v>
       </c>
@@ -6609,7 +6602,7 @@
       <c r="X3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="5" t="s">
         <v>55</v>
       </c>
       <c r="Z3" s="5" t="s">
@@ -6634,7 +6627,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45033</v>
       </c>
@@ -6707,7 +6700,7 @@
       <c r="X4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y4" s="5" t="s">
         <v>64</v>
       </c>
       <c r="Z4" s="5" t="s">
@@ -6732,7 +6725,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45033</v>
       </c>
@@ -6805,7 +6798,7 @@
       <c r="X5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y5" s="7"/>
+      <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5" t="s">
@@ -6824,7 +6817,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45033</v>
       </c>
@@ -6897,7 +6890,7 @@
       <c r="X6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="Y6" s="5" t="s">
         <v>75</v>
       </c>
       <c r="Z6" s="5" t="s">
@@ -6922,7 +6915,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45033</v>
       </c>
@@ -6995,7 +6988,7 @@
       <c r="X7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Y7" s="5" t="s">
         <v>81</v>
       </c>
       <c r="Z7" s="5" t="s">
@@ -7020,7 +7013,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>45033</v>
       </c>
@@ -7093,7 +7086,7 @@
       <c r="X8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y8" s="7" t="s">
+      <c r="Y8" s="5" t="s">
         <v>86</v>
       </c>
       <c r="Z8" s="5" t="s">
@@ -7118,7 +7111,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45033</v>
       </c>
@@ -7191,7 +7184,7 @@
       <c r="X9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y9" s="7"/>
+      <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5" t="s">
@@ -7210,7 +7203,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>45033</v>
       </c>
@@ -7283,7 +7276,7 @@
       <c r="X10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y10" s="7" t="s">
+      <c r="Y10" s="5" t="s">
         <v>95</v>
       </c>
       <c r="Z10" s="5" t="s">
@@ -7308,7 +7301,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45033</v>
       </c>
@@ -7381,7 +7374,7 @@
       <c r="X11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y11" s="7"/>
+      <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5" t="s">
@@ -7400,7 +7393,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>45033</v>
       </c>
@@ -7473,7 +7466,7 @@
       <c r="X12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y12" s="7" t="s">
+      <c r="Y12" s="5" t="s">
         <v>104</v>
       </c>
       <c r="Z12" s="5" t="s">
@@ -7498,7 +7491,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>45033</v>
       </c>
@@ -7571,7 +7564,7 @@
       <c r="X13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y13" s="7" t="s">
+      <c r="Y13" s="5" t="s">
         <v>110</v>
       </c>
       <c r="Z13" s="5" t="s">
@@ -7596,7 +7589,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>45033</v>
       </c>
@@ -7669,7 +7662,7 @@
       <c r="X14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y14" s="7" t="s">
+      <c r="Y14" s="5" t="s">
         <v>117</v>
       </c>
       <c r="Z14" s="5" t="s">
@@ -7694,7 +7687,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>45033</v>
       </c>
@@ -7767,7 +7760,7 @@
       <c r="X15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y15" s="7" t="s">
+      <c r="Y15" s="5" t="s">
         <v>123</v>
       </c>
       <c r="Z15" s="5" t="s">
@@ -7792,7 +7785,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>45033</v>
       </c>
@@ -7865,7 +7858,7 @@
       <c r="X16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y16" s="7"/>
+      <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5" t="s">
@@ -7884,7 +7877,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>45033</v>
       </c>
@@ -7957,7 +7950,7 @@
       <c r="X17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y17" s="7" t="s">
+      <c r="Y17" s="5" t="s">
         <v>133</v>
       </c>
       <c r="Z17" s="5" t="s">
@@ -7982,7 +7975,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>45033</v>
       </c>
@@ -8055,7 +8048,7 @@
       <c r="X18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y18" s="7" t="s">
+      <c r="Y18" s="5" t="s">
         <v>139</v>
       </c>
       <c r="Z18" s="5" t="s">
@@ -8080,7 +8073,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>45033</v>
       </c>
@@ -8153,7 +8146,7 @@
       <c r="X19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y19" s="7" t="s">
+      <c r="Y19" s="5" t="s">
         <v>144</v>
       </c>
       <c r="Z19" s="5" t="s">
@@ -8178,7 +8171,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>45033</v>
       </c>
@@ -8251,7 +8244,7 @@
       <c r="X20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y20" s="7" t="s">
+      <c r="Y20" s="5" t="s">
         <v>149</v>
       </c>
       <c r="Z20" s="5" t="s">
@@ -8276,7 +8269,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>45033</v>
       </c>
@@ -8349,7 +8342,7 @@
       <c r="X21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y21" s="7" t="s">
+      <c r="Y21" s="5" t="s">
         <v>155</v>
       </c>
       <c r="Z21" s="5" t="s">
@@ -8374,7 +8367,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>45033</v>
       </c>
@@ -8447,7 +8440,7 @@
       <c r="X22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y22" s="7"/>
+      <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5" t="s">
@@ -8466,7 +8459,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>45033</v>
       </c>
@@ -8539,7 +8532,7 @@
       <c r="X23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" s="7"/>
+      <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5" t="s">
@@ -8558,7 +8551,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>45033</v>
       </c>
@@ -8631,7 +8624,7 @@
       <c r="X24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y24" s="7"/>
+      <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5" t="s">
@@ -8650,7 +8643,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>45033</v>
       </c>
@@ -8723,7 +8716,7 @@
       <c r="X25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y25" s="7" t="s">
+      <c r="Y25" s="5" t="s">
         <v>169</v>
       </c>
       <c r="Z25" s="5" t="s">
@@ -8748,7 +8741,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>45033</v>
       </c>
@@ -8821,7 +8814,7 @@
       <c r="X26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y26" s="7" t="s">
+      <c r="Y26" s="5" t="s">
         <v>174</v>
       </c>
       <c r="Z26" s="5" t="s">
@@ -8846,7 +8839,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>45033</v>
       </c>
@@ -8919,7 +8912,7 @@
       <c r="X27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y27" s="7" t="s">
+      <c r="Y27" s="5" t="s">
         <v>180</v>
       </c>
       <c r="Z27" s="5" t="s">
@@ -8944,7 +8937,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>45033</v>
       </c>
@@ -9017,7 +9010,7 @@
       <c r="X28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" s="7" t="s">
+      <c r="Y28" s="5" t="s">
         <v>185</v>
       </c>
       <c r="Z28" s="5" t="s">
@@ -9042,7 +9035,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>45033</v>
       </c>
@@ -9115,7 +9108,7 @@
       <c r="X29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y29" s="7" t="s">
+      <c r="Y29" s="5" t="s">
         <v>191</v>
       </c>
       <c r="Z29" s="5" t="s">
@@ -9140,7 +9133,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>45033</v>
       </c>
@@ -9213,7 +9206,7 @@
       <c r="X30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y30" s="7" t="s">
+      <c r="Y30" s="5" t="s">
         <v>196</v>
       </c>
       <c r="Z30" s="5" t="s">
@@ -9238,7 +9231,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>45033</v>
       </c>
@@ -9311,7 +9304,7 @@
       <c r="X31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y31" s="7" t="s">
+      <c r="Y31" s="5" t="s">
         <v>200</v>
       </c>
       <c r="Z31" s="5" t="s">
@@ -9336,7 +9329,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>45033</v>
       </c>
@@ -9409,7 +9402,7 @@
       <c r="X32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y32" s="7" t="s">
+      <c r="Y32" s="5" t="s">
         <v>205</v>
       </c>
       <c r="Z32" s="5" t="s">
@@ -9434,7 +9427,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>45033</v>
       </c>
@@ -9507,7 +9500,7 @@
       <c r="X33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y33" s="7" t="s">
+      <c r="Y33" s="5" t="s">
         <v>210</v>
       </c>
       <c r="Z33" s="5" t="s">
@@ -9532,7 +9525,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>45033</v>
       </c>
@@ -9605,7 +9598,7 @@
       <c r="X34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y34" s="7" t="s">
+      <c r="Y34" s="5" t="s">
         <v>213</v>
       </c>
       <c r="Z34" s="5" t="s">
@@ -9630,7 +9623,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>45033</v>
       </c>
@@ -9703,7 +9696,7 @@
       <c r="X35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y35" s="7" t="s">
+      <c r="Y35" s="5" t="s">
         <v>218</v>
       </c>
       <c r="Z35" s="5" t="s">
@@ -9728,7 +9721,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>45033</v>
       </c>
@@ -9801,7 +9794,7 @@
       <c r="X36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y36" s="7" t="s">
+      <c r="Y36" s="5" t="s">
         <v>224</v>
       </c>
       <c r="Z36" s="5" t="s">
@@ -9826,7 +9819,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>45033</v>
       </c>
@@ -9899,7 +9892,7 @@
       <c r="X37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y37" s="7" t="s">
+      <c r="Y37" s="5" t="s">
         <v>230</v>
       </c>
       <c r="Z37" s="5" t="s">
@@ -9924,7 +9917,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="38" spans="1:32">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>45033</v>
       </c>
@@ -9997,7 +9990,7 @@
       <c r="X38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y38" s="7" t="s">
+      <c r="Y38" s="5" t="s">
         <v>235</v>
       </c>
       <c r="Z38" s="5" t="s">
@@ -10022,7 +10015,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="39" spans="1:32">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>45033</v>
       </c>
@@ -10095,7 +10088,7 @@
       <c r="X39" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y39" s="7" t="s">
+      <c r="Y39" s="5" t="s">
         <v>240</v>
       </c>
       <c r="Z39" s="5" t="s">
@@ -10120,7 +10113,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>45033</v>
       </c>
@@ -10193,7 +10186,7 @@
       <c r="X40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y40" s="7" t="s">
+      <c r="Y40" s="5" t="s">
         <v>243</v>
       </c>
       <c r="Z40" s="5" t="s">
@@ -10218,7 +10211,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>45033</v>
       </c>
@@ -10291,7 +10284,7 @@
       <c r="X41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y41" s="7" t="s">
+      <c r="Y41" s="5" t="s">
         <v>249</v>
       </c>
       <c r="Z41" s="5" t="s">
@@ -10316,7 +10309,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>45033</v>
       </c>
@@ -10389,7 +10382,7 @@
       <c r="X42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y42" s="7" t="s">
+      <c r="Y42" s="5" t="s">
         <v>255</v>
       </c>
       <c r="Z42" s="5" t="s">
@@ -10414,7 +10407,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>45033</v>
       </c>
@@ -10487,7 +10480,7 @@
       <c r="X43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y43" s="7" t="s">
+      <c r="Y43" s="5" t="s">
         <v>261</v>
       </c>
       <c r="Z43" s="5" t="s">
@@ -10512,7 +10505,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>45033</v>
       </c>
@@ -10585,7 +10578,7 @@
       <c r="X44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y44" s="7" t="s">
+      <c r="Y44" s="5" t="s">
         <v>267</v>
       </c>
       <c r="Z44" s="5" t="s">
@@ -10610,7 +10603,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>45033</v>
       </c>
@@ -10683,7 +10676,7 @@
       <c r="X45" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y45" s="7" t="s">
+      <c r="Y45" s="5" t="s">
         <v>271</v>
       </c>
       <c r="Z45" s="5" t="s">
@@ -10708,7 +10701,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45033</v>
       </c>
@@ -10781,7 +10774,7 @@
       <c r="X46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y46" s="7" t="s">
+      <c r="Y46" s="5" t="s">
         <v>275</v>
       </c>
       <c r="Z46" s="5" t="s">
@@ -10806,7 +10799,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45033</v>
       </c>
@@ -10879,7 +10872,7 @@
       <c r="X47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y47" s="7"/>
+      <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5" t="s">
@@ -10898,7 +10891,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>45033</v>
       </c>
@@ -10971,7 +10964,7 @@
       <c r="X48" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y48" s="7" t="s">
+      <c r="Y48" s="5" t="s">
         <v>285</v>
       </c>
       <c r="Z48" s="5" t="s">
@@ -10996,7 +10989,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="49" spans="1:32">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>45033</v>
       </c>
@@ -11069,7 +11062,7 @@
       <c r="X49" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y49" s="7" t="s">
+      <c r="Y49" s="5" t="s">
         <v>289</v>
       </c>
       <c r="Z49" s="5" t="s">
@@ -11094,7 +11087,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>45033</v>
       </c>
@@ -11167,7 +11160,7 @@
       <c r="X50" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y50" s="7" t="s">
+      <c r="Y50" s="5" t="s">
         <v>293</v>
       </c>
       <c r="Z50" s="5" t="s">
@@ -11192,7 +11185,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>45033</v>
       </c>
@@ -11265,7 +11258,7 @@
       <c r="X51" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y51" s="7" t="s">
+      <c r="Y51" s="5" t="s">
         <v>299</v>
       </c>
       <c r="Z51" s="5" t="s">
@@ -11290,7 +11283,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:32">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>45033</v>
       </c>
@@ -11363,7 +11356,7 @@
       <c r="X52" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y52" s="7" t="s">
+      <c r="Y52" s="5" t="s">
         <v>303</v>
       </c>
       <c r="Z52" s="5" t="s">
@@ -11388,7 +11381,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="53" spans="1:32">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>45033</v>
       </c>
@@ -11461,7 +11454,7 @@
       <c r="X53" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y53" s="7" t="s">
+      <c r="Y53" s="5" t="s">
         <v>309</v>
       </c>
       <c r="Z53" s="5" t="s">
@@ -11486,7 +11479,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="54" spans="1:32">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>45033</v>
       </c>
@@ -11559,7 +11552,7 @@
       <c r="X54" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y54" s="7" t="s">
+      <c r="Y54" s="5" t="s">
         <v>314</v>
       </c>
       <c r="Z54" s="5" t="s">
@@ -11584,7 +11577,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="55" spans="1:32">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>45033</v>
       </c>
@@ -11657,7 +11650,7 @@
       <c r="X55" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y55" s="7" t="s">
+      <c r="Y55" s="5" t="s">
         <v>224</v>
       </c>
       <c r="Z55" s="5" t="s">
@@ -11682,7 +11675,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="56" spans="1:32">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>45033</v>
       </c>
@@ -11755,7 +11748,7 @@
       <c r="X56" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y56" s="7"/>
+      <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5" t="s">
@@ -11774,7 +11767,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="57" spans="1:32">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>45033</v>
       </c>
@@ -11847,7 +11840,7 @@
       <c r="X57" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y57" s="7" t="s">
+      <c r="Y57" s="5" t="s">
         <v>325</v>
       </c>
       <c r="Z57" s="5" t="s">
@@ -11872,7 +11865,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>45033</v>
       </c>
@@ -11945,7 +11938,7 @@
       <c r="X58" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y58" s="7" t="s">
+      <c r="Y58" s="5" t="s">
         <v>329</v>
       </c>
       <c r="Z58" s="5" t="s">
@@ -11970,7 +11963,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="59" spans="1:32">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>45033</v>
       </c>
@@ -12043,7 +12036,7 @@
       <c r="X59" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y59" s="7" t="s">
+      <c r="Y59" s="5" t="s">
         <v>123</v>
       </c>
       <c r="Z59" s="5" t="s">
@@ -12068,7 +12061,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="60" spans="1:32">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>45033</v>
       </c>
@@ -12141,7 +12134,7 @@
       <c r="X60" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y60" s="7" t="s">
+      <c r="Y60" s="5" t="s">
         <v>334</v>
       </c>
       <c r="Z60" s="5" t="s">
@@ -12166,7 +12159,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="61" spans="1:32">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>45033</v>
       </c>
@@ -12239,7 +12232,7 @@
       <c r="X61" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y61" s="7" t="s">
+      <c r="Y61" s="5" t="s">
         <v>339</v>
       </c>
       <c r="Z61" s="5" t="s">
@@ -12264,7 +12257,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="62" spans="1:32">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>45033</v>
       </c>
@@ -12337,7 +12330,7 @@
       <c r="X62" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y62" s="7"/>
+      <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
       <c r="AB62" s="5" t="s">
@@ -12356,7 +12349,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="63" spans="1:32">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>45033</v>
       </c>
@@ -12429,7 +12422,7 @@
       <c r="X63" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y63" s="7" t="s">
+      <c r="Y63" s="5" t="s">
         <v>348</v>
       </c>
       <c r="Z63" s="5" t="s">
@@ -12454,7 +12447,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="64" spans="1:32">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>45033</v>
       </c>
@@ -12527,7 +12520,7 @@
       <c r="X64" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y64" s="7" t="s">
+      <c r="Y64" s="5" t="s">
         <v>353</v>
       </c>
       <c r="Z64" s="5" t="s">
@@ -12552,7 +12545,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="65" spans="1:32">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>45033</v>
       </c>
@@ -12625,7 +12618,7 @@
       <c r="X65" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y65" s="7" t="s">
+      <c r="Y65" s="5" t="s">
         <v>358</v>
       </c>
       <c r="Z65" s="5" t="s">
@@ -12650,7 +12643,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="66" spans="1:32">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>45033</v>
       </c>
@@ -12723,7 +12716,7 @@
       <c r="X66" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y66" s="7" t="s">
+      <c r="Y66" s="5" t="s">
         <v>362</v>
       </c>
       <c r="Z66" s="5" t="s">
@@ -12748,7 +12741,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="67" spans="1:32">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>45033</v>
       </c>
@@ -12821,7 +12814,7 @@
       <c r="X67" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y67" s="7" t="s">
+      <c r="Y67" s="5" t="s">
         <v>366</v>
       </c>
       <c r="Z67" s="5" t="s">
@@ -12846,7 +12839,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="68" spans="1:32">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>45033</v>
       </c>
@@ -12919,7 +12912,7 @@
       <c r="X68" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y68" s="7" t="s">
+      <c r="Y68" s="5" t="s">
         <v>370</v>
       </c>
       <c r="Z68" s="5" t="s">
@@ -12944,7 +12937,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="69" spans="1:32">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>45033</v>
       </c>
@@ -13017,7 +13010,7 @@
       <c r="X69" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y69" s="7" t="s">
+      <c r="Y69" s="5" t="s">
         <v>374</v>
       </c>
       <c r="Z69" s="5" t="s">
@@ -13042,7 +13035,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="70" spans="1:32">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>45033</v>
       </c>
@@ -13115,7 +13108,7 @@
       <c r="X70" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y70" s="7" t="s">
+      <c r="Y70" s="5" t="s">
         <v>377</v>
       </c>
       <c r="Z70" s="5" t="s">
@@ -13140,7 +13133,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="71" spans="1:32">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>45033</v>
       </c>
@@ -13213,7 +13206,7 @@
       <c r="X71" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y71" s="7" t="s">
+      <c r="Y71" s="5" t="s">
         <v>383</v>
       </c>
       <c r="Z71" s="5" t="s">
@@ -13238,7 +13231,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="72" spans="1:32">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>45033</v>
       </c>
@@ -13311,7 +13304,7 @@
       <c r="X72" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y72" s="7"/>
+      <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
       <c r="AB72" s="5" t="s">
@@ -13330,7 +13323,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="73" spans="1:32">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>45033</v>
       </c>
@@ -13403,7 +13396,7 @@
       <c r="X73" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y73" s="7" t="s">
+      <c r="Y73" s="5" t="s">
         <v>388</v>
       </c>
       <c r="Z73" s="5" t="s">
@@ -13428,7 +13421,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="74" spans="1:32">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>45033</v>
       </c>
@@ -13501,7 +13494,7 @@
       <c r="X74" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y74" s="7" t="s">
+      <c r="Y74" s="5" t="s">
         <v>394</v>
       </c>
       <c r="Z74" s="5" t="s">
@@ -13526,7 +13519,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="75" spans="1:32">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>45033</v>
       </c>
@@ -13599,7 +13592,7 @@
       <c r="X75" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y75" s="7" t="s">
+      <c r="Y75" s="5" t="s">
         <v>400</v>
       </c>
       <c r="Z75" s="5" t="s">
@@ -13624,7 +13617,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="76" spans="1:32">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>45033</v>
       </c>
@@ -13697,7 +13690,7 @@
       <c r="X76" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y76" s="7" t="s">
+      <c r="Y76" s="5" t="s">
         <v>404</v>
       </c>
       <c r="Z76" s="5" t="s">
@@ -13722,7 +13715,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="77" spans="1:32">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>45033</v>
       </c>
@@ -13795,7 +13788,7 @@
       <c r="X77" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y77" s="7" t="s">
+      <c r="Y77" s="5" t="s">
         <v>407</v>
       </c>
       <c r="Z77" s="5" t="s">
@@ -13820,7 +13813,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="78" spans="1:32">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>45033</v>
       </c>
@@ -13893,7 +13886,7 @@
       <c r="X78" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y78" s="7" t="s">
+      <c r="Y78" s="5" t="s">
         <v>409</v>
       </c>
       <c r="Z78" s="5" t="s">
@@ -13918,7 +13911,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="79" spans="1:32">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>45033</v>
       </c>
@@ -13991,7 +13984,7 @@
       <c r="X79" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y79" s="7" t="s">
+      <c r="Y79" s="5" t="s">
         <v>413</v>
       </c>
       <c r="Z79" s="5" t="s">
@@ -14016,7 +14009,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="80" spans="1:32">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>45033</v>
       </c>
@@ -14089,7 +14082,7 @@
       <c r="X80" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y80" s="7" t="s">
+      <c r="Y80" s="5" t="s">
         <v>417</v>
       </c>
       <c r="Z80" s="5" t="s">
@@ -14114,7 +14107,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="81" spans="1:32">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>45033</v>
       </c>
@@ -14187,7 +14180,7 @@
       <c r="X81" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y81" s="7" t="s">
+      <c r="Y81" s="5" t="s">
         <v>421</v>
       </c>
       <c r="Z81" s="5" t="s">
@@ -14212,7 +14205,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="82" spans="1:32">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>45033</v>
       </c>
@@ -14285,7 +14278,7 @@
       <c r="X82" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y82" s="7" t="s">
+      <c r="Y82" s="5" t="s">
         <v>425</v>
       </c>
       <c r="Z82" s="5"/>
@@ -14308,7 +14301,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="83" spans="1:32">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>45033</v>
       </c>
@@ -14381,7 +14374,7 @@
       <c r="X83" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y83" s="7" t="s">
+      <c r="Y83" s="5" t="s">
         <v>429</v>
       </c>
       <c r="Z83" s="5" t="s">
@@ -14406,7 +14399,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="84" spans="1:32">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>45033</v>
       </c>
@@ -14479,7 +14472,7 @@
       <c r="X84" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y84" s="7" t="s">
+      <c r="Y84" s="5" t="s">
         <v>435</v>
       </c>
       <c r="Z84" s="5" t="s">
@@ -14504,7 +14497,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="85" spans="1:32" hidden="true">
+    <row r="85" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>45033</v>
       </c>
@@ -14577,7 +14570,7 @@
       <c r="X85" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y85" s="7" t="s">
+      <c r="Y85" s="5" t="s">
         <v>442</v>
       </c>
       <c r="Z85" s="5" t="s">
@@ -14589,7 +14582,7 @@
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
     </row>
-    <row r="86" spans="1:32" hidden="true">
+    <row r="86" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>45033</v>
       </c>
@@ -14662,7 +14655,7 @@
       <c r="X86" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y86" s="7" t="s">
+      <c r="Y86" s="5" t="s">
         <v>448</v>
       </c>
       <c r="Z86" s="5" t="s">
@@ -14674,7 +14667,7 @@
       <c r="AB86" s="5"/>
       <c r="AC86" s="5"/>
     </row>
-    <row r="87" spans="1:32" hidden="true">
+    <row r="87" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>45033</v>
       </c>
@@ -14747,13 +14740,13 @@
       <c r="X87" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y87" s="7"/>
+      <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
     </row>
-    <row r="88" spans="1:32" hidden="true">
+    <row r="88" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>45033</v>
       </c>
@@ -14826,7 +14819,7 @@
       <c r="X88" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y88" s="7" t="s">
+      <c r="Y88" s="5" t="s">
         <v>455</v>
       </c>
       <c r="Z88" s="5" t="s">
@@ -14838,7 +14831,7 @@
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
     </row>
-    <row r="89" spans="1:32" hidden="true">
+    <row r="89" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>45033</v>
       </c>
@@ -14911,7 +14904,7 @@
       <c r="X89" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y89" s="7" t="s">
+      <c r="Y89" s="5" t="s">
         <v>460</v>
       </c>
       <c r="Z89" s="5" t="s">
@@ -14923,7 +14916,7 @@
       <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
     </row>
-    <row r="90" spans="1:32" hidden="true">
+    <row r="90" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>45033</v>
       </c>
@@ -14996,7 +14989,7 @@
       <c r="X90" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y90" s="7" t="s">
+      <c r="Y90" s="5" t="s">
         <v>465</v>
       </c>
       <c r="Z90" s="5" t="s">
@@ -15008,7 +15001,7 @@
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
     </row>
-    <row r="91" spans="1:32" hidden="true">
+    <row r="91" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>45033</v>
       </c>
@@ -15081,7 +15074,7 @@
       <c r="X91" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y91" s="7" t="s">
+      <c r="Y91" s="5" t="s">
         <v>468</v>
       </c>
       <c r="Z91" s="5" t="s">
@@ -15093,7 +15086,7 @@
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
     </row>
-    <row r="92" spans="1:32" hidden="true">
+    <row r="92" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>45033</v>
       </c>
@@ -15166,7 +15159,7 @@
       <c r="X92" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y92" s="7" t="s">
+      <c r="Y92" s="5" t="s">
         <v>473</v>
       </c>
       <c r="Z92" s="5" t="s">
@@ -15178,7 +15171,7 @@
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
     </row>
-    <row r="93" spans="1:32" hidden="true">
+    <row r="93" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>45033</v>
       </c>
@@ -15251,7 +15244,7 @@
       <c r="X93" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y93" s="7" t="s">
+      <c r="Y93" s="5" t="s">
         <v>478</v>
       </c>
       <c r="Z93" s="5" t="s">
@@ -15263,7 +15256,7 @@
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
     </row>
-    <row r="94" spans="1:32" hidden="true">
+    <row r="94" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>45033</v>
       </c>
@@ -15336,7 +15329,7 @@
       <c r="X94" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y94" s="7" t="s">
+      <c r="Y94" s="5" t="s">
         <v>482</v>
       </c>
       <c r="Z94" s="5" t="s">
@@ -15348,7 +15341,7 @@
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
     </row>
-    <row r="95" spans="1:32" hidden="true">
+    <row r="95" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>45033</v>
       </c>
@@ -15421,13 +15414,13 @@
       <c r="X95" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y95" s="7"/>
+      <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
     </row>
-    <row r="96" spans="1:32" hidden="true">
+    <row r="96" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>45033</v>
       </c>
@@ -15500,7 +15493,7 @@
       <c r="X96" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y96" s="7" t="s">
+      <c r="Y96" s="5" t="s">
         <v>491</v>
       </c>
       <c r="Z96" s="5" t="s">
@@ -15512,7 +15505,7 @@
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
     </row>
-    <row r="97" spans="1:32" hidden="true">
+    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>45033</v>
       </c>
@@ -15585,7 +15578,7 @@
       <c r="X97" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y97" s="7" t="s">
+      <c r="Y97" s="5" t="s">
         <v>497</v>
       </c>
       <c r="Z97" s="5" t="s">
@@ -15597,7 +15590,7 @@
       <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
     </row>
-    <row r="98" spans="1:32" hidden="true">
+    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>45033</v>
       </c>
@@ -15670,7 +15663,7 @@
       <c r="X98" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y98" s="7" t="s">
+      <c r="Y98" s="5" t="s">
         <v>501</v>
       </c>
       <c r="Z98" s="5" t="s">
@@ -15682,7 +15675,7 @@
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
     </row>
-    <row r="99" spans="1:32" hidden="true">
+    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>45033</v>
       </c>
@@ -15755,7 +15748,7 @@
       <c r="X99" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y99" s="7" t="s">
+      <c r="Y99" s="5" t="s">
         <v>505</v>
       </c>
       <c r="Z99" s="5" t="s">
@@ -15767,7 +15760,7 @@
       <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
     </row>
-    <row r="100" spans="1:32" hidden="true">
+    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>45033</v>
       </c>
@@ -15840,7 +15833,7 @@
       <c r="X100" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y100" s="7" t="s">
+      <c r="Y100" s="5" t="s">
         <v>509</v>
       </c>
       <c r="Z100" s="5" t="s">
@@ -15852,7 +15845,7 @@
       <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
     </row>
-    <row r="101" spans="1:32" hidden="true">
+    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>45033</v>
       </c>
@@ -15925,7 +15918,7 @@
       <c r="X101" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y101" s="7" t="s">
+      <c r="Y101" s="5" t="s">
         <v>515</v>
       </c>
       <c r="Z101" s="5" t="s">
@@ -15937,7 +15930,7 @@
       <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
     </row>
-    <row r="102" spans="1:32" hidden="true">
+    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>45033</v>
       </c>
@@ -16010,7 +16003,7 @@
       <c r="X102" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y102" s="7" t="s">
+      <c r="Y102" s="5" t="s">
         <v>520</v>
       </c>
       <c r="Z102" s="5" t="s">
@@ -16022,7 +16015,7 @@
       <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
     </row>
-    <row r="103" spans="1:32" hidden="true">
+    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>45033</v>
       </c>
@@ -16095,7 +16088,7 @@
       <c r="X103" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y103" s="7" t="s">
+      <c r="Y103" s="5" t="s">
         <v>525</v>
       </c>
       <c r="Z103" s="5" t="s">
@@ -16107,7 +16100,7 @@
       <c r="AB103" s="5"/>
       <c r="AC103" s="5"/>
     </row>
-    <row r="104" spans="1:32" hidden="true">
+    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>45033</v>
       </c>
@@ -16180,7 +16173,7 @@
       <c r="X104" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y104" s="7" t="s">
+      <c r="Y104" s="5" t="s">
         <v>527</v>
       </c>
       <c r="Z104" s="5" t="s">
@@ -16192,7 +16185,7 @@
       <c r="AB104" s="5"/>
       <c r="AC104" s="5"/>
     </row>
-    <row r="105" spans="1:32" hidden="true">
+    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>45033</v>
       </c>
@@ -16265,7 +16258,7 @@
       <c r="X105" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y105" s="7" t="s">
+      <c r="Y105" s="5" t="s">
         <v>531</v>
       </c>
       <c r="Z105" s="5" t="s">
@@ -16277,7 +16270,7 @@
       <c r="AB105" s="5"/>
       <c r="AC105" s="5"/>
     </row>
-    <row r="106" spans="1:32" hidden="true">
+    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>45033</v>
       </c>
@@ -16350,7 +16343,7 @@
       <c r="X106" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y106" s="7" t="s">
+      <c r="Y106" s="5" t="s">
         <v>536</v>
       </c>
       <c r="Z106" s="5" t="s">
@@ -16362,7 +16355,7 @@
       <c r="AB106" s="5"/>
       <c r="AC106" s="5"/>
     </row>
-    <row r="107" spans="1:32" hidden="true">
+    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>45033</v>
       </c>
@@ -16435,7 +16428,7 @@
       <c r="X107" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y107" s="7" t="s">
+      <c r="Y107" s="5" t="s">
         <v>539</v>
       </c>
       <c r="Z107" s="5" t="s">
@@ -16447,7 +16440,7 @@
       <c r="AB107" s="5"/>
       <c r="AC107" s="5"/>
     </row>
-    <row r="108" spans="1:32" hidden="true">
+    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>45033</v>
       </c>
@@ -16520,7 +16513,7 @@
       <c r="X108" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y108" s="7" t="s">
+      <c r="Y108" s="5" t="s">
         <v>544</v>
       </c>
       <c r="Z108" s="5" t="s">
@@ -16532,7 +16525,7 @@
       <c r="AB108" s="5"/>
       <c r="AC108" s="5"/>
     </row>
-    <row r="109" spans="1:32" hidden="true">
+    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>45033</v>
       </c>
@@ -16605,7 +16598,7 @@
       <c r="X109" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y109" s="7" t="s">
+      <c r="Y109" s="5" t="s">
         <v>550</v>
       </c>
       <c r="Z109" s="5" t="s">
@@ -16617,7 +16610,7 @@
       <c r="AB109" s="5"/>
       <c r="AC109" s="5"/>
     </row>
-    <row r="110" spans="1:32" hidden="true">
+    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>45033</v>
       </c>
@@ -16690,7 +16683,7 @@
       <c r="X110" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y110" s="7" t="s">
+      <c r="Y110" s="5" t="s">
         <v>555</v>
       </c>
       <c r="Z110" s="5" t="s">
@@ -16702,7 +16695,7 @@
       <c r="AB110" s="5"/>
       <c r="AC110" s="5"/>
     </row>
-    <row r="111" spans="1:32" hidden="true">
+    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>45033</v>
       </c>
@@ -16775,7 +16768,7 @@
       <c r="X111" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y111" s="7" t="s">
+      <c r="Y111" s="5" t="s">
         <v>559</v>
       </c>
       <c r="Z111" s="5" t="s">
@@ -16787,7 +16780,7 @@
       <c r="AB111" s="5"/>
       <c r="AC111" s="5"/>
     </row>
-    <row r="112" spans="1:32" hidden="true">
+    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>45033</v>
       </c>
@@ -16860,7 +16853,7 @@
       <c r="X112" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y112" s="7" t="s">
+      <c r="Y112" s="5" t="s">
         <v>563</v>
       </c>
       <c r="Z112" s="5" t="s">
@@ -16872,7 +16865,7 @@
       <c r="AB112" s="5"/>
       <c r="AC112" s="5"/>
     </row>
-    <row r="113" spans="1:32" hidden="true">
+    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>45033</v>
       </c>
@@ -16945,7 +16938,7 @@
       <c r="X113" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y113" s="7" t="s">
+      <c r="Y113" s="5" t="s">
         <v>565</v>
       </c>
       <c r="Z113" s="5" t="s">
@@ -16957,7 +16950,7 @@
       <c r="AB113" s="5"/>
       <c r="AC113" s="5"/>
     </row>
-    <row r="114" spans="1:32" hidden="true">
+    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>45033</v>
       </c>
@@ -17030,7 +17023,7 @@
       <c r="X114" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y114" s="7" t="s">
+      <c r="Y114" s="5" t="s">
         <v>570</v>
       </c>
       <c r="Z114" s="5" t="s">
@@ -17042,7 +17035,7 @@
       <c r="AB114" s="5"/>
       <c r="AC114" s="5"/>
     </row>
-    <row r="115" spans="1:32" hidden="true">
+    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>45033</v>
       </c>
@@ -17115,7 +17108,7 @@
       <c r="X115" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y115" s="7" t="s">
+      <c r="Y115" s="5" t="s">
         <v>575</v>
       </c>
       <c r="Z115" s="5" t="s">
@@ -17127,7 +17120,7 @@
       <c r="AB115" s="5"/>
       <c r="AC115" s="5"/>
     </row>
-    <row r="116" spans="1:32" hidden="true">
+    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>45033</v>
       </c>
@@ -17200,7 +17193,7 @@
       <c r="X116" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y116" s="7" t="s">
+      <c r="Y116" s="5" t="s">
         <v>579</v>
       </c>
       <c r="Z116" s="5" t="s">
@@ -17212,7 +17205,7 @@
       <c r="AB116" s="5"/>
       <c r="AC116" s="5"/>
     </row>
-    <row r="117" spans="1:32" hidden="true">
+    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>45033</v>
       </c>
@@ -17285,7 +17278,7 @@
       <c r="X117" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y117" s="7" t="s">
+      <c r="Y117" s="5" t="s">
         <v>585</v>
       </c>
       <c r="Z117" s="5" t="s">
@@ -17297,7 +17290,7 @@
       <c r="AB117" s="5"/>
       <c r="AC117" s="5"/>
     </row>
-    <row r="118" spans="1:32" hidden="true">
+    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>45033</v>
       </c>
@@ -17370,7 +17363,7 @@
       <c r="X118" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y118" s="7" t="s">
+      <c r="Y118" s="5" t="s">
         <v>590</v>
       </c>
       <c r="Z118" s="5" t="s">
@@ -17382,7 +17375,7 @@
       <c r="AB118" s="5"/>
       <c r="AC118" s="5"/>
     </row>
-    <row r="119" spans="1:32" hidden="true">
+    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>45033</v>
       </c>
@@ -17455,7 +17448,7 @@
       <c r="X119" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y119" s="7" t="s">
+      <c r="Y119" s="5" t="s">
         <v>596</v>
       </c>
       <c r="Z119" s="5" t="s">
@@ -17467,7 +17460,7 @@
       <c r="AB119" s="5"/>
       <c r="AC119" s="5"/>
     </row>
-    <row r="120" spans="1:32" hidden="true">
+    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>45033</v>
       </c>
@@ -17540,7 +17533,7 @@
       <c r="X120" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y120" s="7" t="s">
+      <c r="Y120" s="5" t="s">
         <v>599</v>
       </c>
       <c r="Z120" s="5" t="s">
@@ -17552,7 +17545,7 @@
       <c r="AB120" s="5"/>
       <c r="AC120" s="5"/>
     </row>
-    <row r="121" spans="1:32" hidden="true">
+    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>45033</v>
       </c>
@@ -17625,7 +17618,7 @@
       <c r="X121" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y121" s="7" t="s">
+      <c r="Y121" s="5" t="s">
         <v>604</v>
       </c>
       <c r="Z121" s="5" t="s">
@@ -17637,7 +17630,7 @@
       <c r="AB121" s="5"/>
       <c r="AC121" s="5"/>
     </row>
-    <row r="122" spans="1:32" hidden="true">
+    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>45033</v>
       </c>
@@ -17710,7 +17703,7 @@
       <c r="X122" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y122" s="7" t="s">
+      <c r="Y122" s="5" t="s">
         <v>608</v>
       </c>
       <c r="Z122" s="5" t="s">
@@ -17722,7 +17715,7 @@
       <c r="AB122" s="5"/>
       <c r="AC122" s="5"/>
     </row>
-    <row r="123" spans="1:32" hidden="true">
+    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>45033</v>
       </c>
@@ -17795,7 +17788,7 @@
       <c r="X123" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y123" s="7" t="s">
+      <c r="Y123" s="5" t="s">
         <v>612</v>
       </c>
       <c r="Z123" s="5" t="s">
@@ -17807,7 +17800,7 @@
       <c r="AB123" s="5"/>
       <c r="AC123" s="5"/>
     </row>
-    <row r="124" spans="1:32" hidden="true">
+    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>45033</v>
       </c>
@@ -17880,7 +17873,7 @@
       <c r="X124" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y124" s="7" t="s">
+      <c r="Y124" s="5" t="s">
         <v>615</v>
       </c>
       <c r="Z124" s="5" t="s">
@@ -17892,7 +17885,7 @@
       <c r="AB124" s="5"/>
       <c r="AC124" s="5"/>
     </row>
-    <row r="125" spans="1:32" hidden="true">
+    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>45033</v>
       </c>
@@ -17965,7 +17958,7 @@
       <c r="X125" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y125" s="7" t="s">
+      <c r="Y125" s="5" t="s">
         <v>621</v>
       </c>
       <c r="Z125" s="5" t="s">
@@ -17977,7 +17970,7 @@
       <c r="AB125" s="5"/>
       <c r="AC125" s="5"/>
     </row>
-    <row r="126" spans="1:32" hidden="true">
+    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>45033</v>
       </c>
@@ -18050,7 +18043,7 @@
       <c r="X126" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y126" s="7" t="s">
+      <c r="Y126" s="5" t="s">
         <v>626</v>
       </c>
       <c r="Z126" s="5" t="s">
@@ -18062,7 +18055,7 @@
       <c r="AB126" s="5"/>
       <c r="AC126" s="5"/>
     </row>
-    <row r="127" spans="1:32" hidden="true">
+    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>45033</v>
       </c>
@@ -18135,7 +18128,7 @@
       <c r="X127" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y127" s="7" t="s">
+      <c r="Y127" s="5" t="s">
         <v>631</v>
       </c>
       <c r="Z127" s="5" t="s">
@@ -18147,7 +18140,7 @@
       <c r="AB127" s="5"/>
       <c r="AC127" s="5"/>
     </row>
-    <row r="128" spans="1:32" hidden="true">
+    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>45033</v>
       </c>
@@ -18220,7 +18213,7 @@
       <c r="X128" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y128" s="7" t="s">
+      <c r="Y128" s="5" t="s">
         <v>635</v>
       </c>
       <c r="Z128" s="5" t="s">
@@ -18232,7 +18225,7 @@
       <c r="AB128" s="5"/>
       <c r="AC128" s="5"/>
     </row>
-    <row r="129" spans="1:32" hidden="true">
+    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>45033</v>
       </c>
@@ -18305,7 +18298,7 @@
       <c r="X129" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y129" s="7" t="s">
+      <c r="Y129" s="5" t="s">
         <v>638</v>
       </c>
       <c r="Z129" s="5" t="s">
@@ -18317,7 +18310,7 @@
       <c r="AB129" s="5"/>
       <c r="AC129" s="5"/>
     </row>
-    <row r="130" spans="1:32" hidden="true">
+    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>45033</v>
       </c>
@@ -18390,7 +18383,7 @@
       <c r="X130" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y130" s="7" t="s">
+      <c r="Y130" s="5" t="s">
         <v>642</v>
       </c>
       <c r="Z130" s="5" t="s">
@@ -18402,7 +18395,7 @@
       <c r="AB130" s="5"/>
       <c r="AC130" s="5"/>
     </row>
-    <row r="131" spans="1:32" hidden="true">
+    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>45033</v>
       </c>
@@ -18475,7 +18468,7 @@
       <c r="X131" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y131" s="7" t="s">
+      <c r="Y131" s="5" t="s">
         <v>646</v>
       </c>
       <c r="Z131" s="5" t="s">
@@ -18487,7 +18480,7 @@
       <c r="AB131" s="5"/>
       <c r="AC131" s="5"/>
     </row>
-    <row r="132" spans="1:32" hidden="true">
+    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>45033</v>
       </c>
@@ -18560,7 +18553,7 @@
       <c r="X132" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y132" s="7" t="s">
+      <c r="Y132" s="5" t="s">
         <v>650</v>
       </c>
       <c r="Z132" s="5" t="s">
@@ -18572,7 +18565,7 @@
       <c r="AB132" s="5"/>
       <c r="AC132" s="5"/>
     </row>
-    <row r="133" spans="1:32" hidden="true">
+    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>45033</v>
       </c>
@@ -18645,7 +18638,7 @@
       <c r="X133" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y133" s="7" t="s">
+      <c r="Y133" s="5" t="s">
         <v>656</v>
       </c>
       <c r="Z133" s="5" t="s">
@@ -18657,7 +18650,7 @@
       <c r="AB133" s="5"/>
       <c r="AC133" s="5"/>
     </row>
-    <row r="134" spans="1:32" hidden="true">
+    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>45033</v>
       </c>
@@ -18730,7 +18723,7 @@
       <c r="X134" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y134" s="7" t="s">
+      <c r="Y134" s="5" t="s">
         <v>658</v>
       </c>
       <c r="Z134" s="5" t="s">
@@ -18742,7 +18735,7 @@
       <c r="AB134" s="5"/>
       <c r="AC134" s="5"/>
     </row>
-    <row r="135" spans="1:32" hidden="true">
+    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>45033</v>
       </c>
@@ -18815,7 +18808,7 @@
       <c r="X135" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y135" s="7" t="s">
+      <c r="Y135" s="5" t="s">
         <v>661</v>
       </c>
       <c r="Z135" s="5" t="s">
@@ -18827,7 +18820,7 @@
       <c r="AB135" s="5"/>
       <c r="AC135" s="5"/>
     </row>
-    <row r="136" spans="1:32" hidden="true">
+    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>45033</v>
       </c>
@@ -18900,7 +18893,7 @@
       <c r="X136" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y136" s="7" t="s">
+      <c r="Y136" s="5" t="s">
         <v>668</v>
       </c>
       <c r="Z136" s="5" t="s">
@@ -18912,7 +18905,7 @@
       <c r="AB136" s="5"/>
       <c r="AC136" s="5"/>
     </row>
-    <row r="137" spans="1:32" hidden="true">
+    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>45033</v>
       </c>
@@ -18985,7 +18978,7 @@
       <c r="X137" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="Y137" s="7" t="s">
+      <c r="Y137" s="5" t="s">
         <v>672</v>
       </c>
       <c r="Z137" s="5" t="s">
@@ -18997,7 +18990,7 @@
       <c r="AB137" s="5"/>
       <c r="AC137" s="5"/>
     </row>
-    <row r="138" spans="1:32" hidden="true">
+    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>45033</v>
       </c>
@@ -19070,7 +19063,7 @@
       <c r="X138" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="Y138" s="7" t="s">
+      <c r="Y138" s="5" t="s">
         <v>677</v>
       </c>
       <c r="Z138" s="5" t="s">
@@ -19082,7 +19075,7 @@
       <c r="AB138" s="5"/>
       <c r="AC138" s="5"/>
     </row>
-    <row r="139" spans="1:32" hidden="true">
+    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>45033</v>
       </c>
@@ -19155,7 +19148,7 @@
       <c r="X139" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="Y139" s="7" t="s">
+      <c r="Y139" s="5" t="s">
         <v>680</v>
       </c>
       <c r="Z139" s="5" t="s">
@@ -19167,7 +19160,7 @@
       <c r="AB139" s="5"/>
       <c r="AC139" s="5"/>
     </row>
-    <row r="140" spans="1:32" hidden="true">
+    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>45033</v>
       </c>
@@ -19240,7 +19233,7 @@
       <c r="X140" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="Y140" s="7" t="s">
+      <c r="Y140" s="5" t="s">
         <v>686</v>
       </c>
       <c r="Z140" s="5" t="s">
@@ -19252,7 +19245,7 @@
       <c r="AB140" s="5"/>
       <c r="AC140" s="5"/>
     </row>
-    <row r="141" spans="1:32" hidden="true">
+    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>45033</v>
       </c>
@@ -19325,7 +19318,7 @@
       <c r="X141" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="Y141" s="7" t="s">
+      <c r="Y141" s="5" t="s">
         <v>690</v>
       </c>
       <c r="Z141" s="5" t="s">
@@ -19337,7 +19330,7 @@
       <c r="AB141" s="5"/>
       <c r="AC141" s="5"/>
     </row>
-    <row r="142" spans="1:32" hidden="true">
+    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>45033</v>
       </c>
@@ -19410,7 +19403,7 @@
       <c r="X142" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="Y142" s="7" t="s">
+      <c r="Y142" s="5" t="s">
         <v>696</v>
       </c>
       <c r="Z142" s="5"/>
@@ -19420,7 +19413,7 @@
       <c r="AB142" s="5"/>
       <c r="AC142" s="5"/>
     </row>
-    <row r="143" spans="1:32" hidden="true">
+    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>45033</v>
       </c>
@@ -19493,7 +19486,7 @@
       <c r="X143" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="Y143" s="7" t="s">
+      <c r="Y143" s="5" t="s">
         <v>704</v>
       </c>
       <c r="Z143" s="5" t="s">
@@ -19505,7 +19498,7 @@
       <c r="AB143" s="5"/>
       <c r="AC143" s="5"/>
     </row>
-    <row r="144" spans="1:32" hidden="true">
+    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>45033</v>
       </c>
@@ -19578,7 +19571,7 @@
       <c r="X144" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="Y144" s="7" t="s">
+      <c r="Y144" s="5" t="s">
         <v>706</v>
       </c>
       <c r="Z144" s="5" t="s">
@@ -19590,7 +19583,7 @@
       <c r="AB144" s="5"/>
       <c r="AC144" s="5"/>
     </row>
-    <row r="145" spans="1:32" hidden="true">
+    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>45033</v>
       </c>
@@ -19663,7 +19656,7 @@
       <c r="X145" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="Y145" s="7" t="s">
+      <c r="Y145" s="5" t="s">
         <v>711</v>
       </c>
       <c r="Z145" s="5" t="s">
@@ -19675,7 +19668,7 @@
       <c r="AB145" s="5"/>
       <c r="AC145" s="5"/>
     </row>
-    <row r="146" spans="1:32" hidden="true">
+    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>45033</v>
       </c>
@@ -19748,7 +19741,7 @@
       <c r="X146" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="Y146" s="7" t="s">
+      <c r="Y146" s="5" t="s">
         <v>716</v>
       </c>
       <c r="Z146" s="5" t="s">
@@ -19760,7 +19753,7 @@
       <c r="AB146" s="5"/>
       <c r="AC146" s="5"/>
     </row>
-    <row r="147" spans="1:32" hidden="true">
+    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>45033</v>
       </c>
@@ -19833,7 +19826,7 @@
       <c r="X147" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="Y147" s="7" t="s">
+      <c r="Y147" s="5" t="s">
         <v>722</v>
       </c>
       <c r="Z147" s="5" t="s">
@@ -19845,7 +19838,7 @@
       <c r="AB147" s="5"/>
       <c r="AC147" s="5"/>
     </row>
-    <row r="148" spans="1:32" hidden="true">
+    <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>45033</v>
       </c>
@@ -19918,7 +19911,7 @@
       <c r="X148" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="Y148" s="7" t="s">
+      <c r="Y148" s="5" t="s">
         <v>726</v>
       </c>
       <c r="Z148" s="5" t="s">
@@ -19930,7 +19923,7 @@
       <c r="AB148" s="5"/>
       <c r="AC148" s="5"/>
     </row>
-    <row r="149" spans="1:32" hidden="true">
+    <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>45033</v>
       </c>
@@ -20003,7 +19996,7 @@
       <c r="X149" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="Y149" s="7" t="s">
+      <c r="Y149" s="5" t="s">
         <v>731</v>
       </c>
       <c r="Z149" s="5" t="s">
@@ -20015,7 +20008,7 @@
       <c r="AB149" s="5"/>
       <c r="AC149" s="5"/>
     </row>
-    <row r="150" spans="1:32" hidden="true">
+    <row r="150" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>45033</v>
       </c>
@@ -20088,7 +20081,7 @@
       <c r="X150" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="Y150" s="7" t="s">
+      <c r="Y150" s="5" t="s">
         <v>736</v>
       </c>
       <c r="Z150" s="5" t="s">
@@ -20100,7 +20093,7 @@
       <c r="AB150" s="5"/>
       <c r="AC150" s="5"/>
     </row>
-    <row r="151" spans="1:32" hidden="true">
+    <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>45033</v>
       </c>
@@ -20173,7 +20166,7 @@
       <c r="X151" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="Y151" s="7" t="s">
+      <c r="Y151" s="5" t="s">
         <v>742</v>
       </c>
       <c r="Z151" s="5" t="s">
@@ -20185,7 +20178,7 @@
       <c r="AB151" s="5"/>
       <c r="AC151" s="5"/>
     </row>
-    <row r="152" spans="1:32" hidden="true">
+    <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>45033</v>
       </c>
@@ -20258,7 +20251,7 @@
       <c r="X152" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="Y152" s="7" t="s">
+      <c r="Y152" s="5" t="s">
         <v>747</v>
       </c>
       <c r="Z152" s="5" t="s">
@@ -20270,7 +20263,7 @@
       <c r="AB152" s="5"/>
       <c r="AC152" s="5"/>
     </row>
-    <row r="153" spans="1:32" hidden="true">
+    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>45033</v>
       </c>
@@ -20343,7 +20336,7 @@
       <c r="X153" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="Y153" s="7" t="s">
+      <c r="Y153" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Z153" s="5" t="s">
@@ -20355,7 +20348,7 @@
       <c r="AB153" s="5"/>
       <c r="AC153" s="5"/>
     </row>
-    <row r="154" spans="1:32" hidden="true">
+    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>45033</v>
       </c>
@@ -20428,7 +20421,7 @@
       <c r="X154" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="Y154" s="7" t="s">
+      <c r="Y154" s="5" t="s">
         <v>757</v>
       </c>
       <c r="Z154" s="5" t="s">
@@ -20440,7 +20433,7 @@
       <c r="AB154" s="5"/>
       <c r="AC154" s="5"/>
     </row>
-    <row r="155" spans="1:32" hidden="true">
+    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>45033</v>
       </c>
@@ -20513,7 +20506,7 @@
       <c r="X155" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="Y155" s="7" t="s">
+      <c r="Y155" s="5" t="s">
         <v>761</v>
       </c>
       <c r="Z155" s="5" t="s">
@@ -20525,7 +20518,7 @@
       <c r="AB155" s="5"/>
       <c r="AC155" s="5"/>
     </row>
-    <row r="156" spans="1:32" hidden="true">
+    <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>45033</v>
       </c>
@@ -20598,7 +20591,7 @@
       <c r="X156" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="Y156" s="7" t="s">
+      <c r="Y156" s="5" t="s">
         <v>765</v>
       </c>
       <c r="Z156" s="5" t="s">
@@ -20610,7 +20603,7 @@
       <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
     </row>
-    <row r="157" spans="1:32" hidden="true">
+    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>45033</v>
       </c>
@@ -20683,7 +20676,7 @@
       <c r="X157" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="Y157" s="7" t="s">
+      <c r="Y157" s="5" t="s">
         <v>769</v>
       </c>
       <c r="Z157" s="5" t="s">
@@ -20695,7 +20688,7 @@
       <c r="AB157" s="5"/>
       <c r="AC157" s="5"/>
     </row>
-    <row r="158" spans="1:32" hidden="true">
+    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>45033</v>
       </c>
@@ -20768,7 +20761,7 @@
       <c r="X158" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="Y158" s="7" t="s">
+      <c r="Y158" s="5" t="s">
         <v>774</v>
       </c>
       <c r="Z158" s="5" t="s">
@@ -20780,7 +20773,7 @@
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
     </row>
-    <row r="159" spans="1:32" hidden="true">
+    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>45033</v>
       </c>
@@ -20853,7 +20846,7 @@
       <c r="X159" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="Y159" s="7" t="s">
+      <c r="Y159" s="5" t="s">
         <v>777</v>
       </c>
       <c r="Z159" s="5" t="s">
@@ -20865,7 +20858,7 @@
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
     </row>
-    <row r="160" spans="1:32" hidden="true">
+    <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>45033</v>
       </c>
@@ -20938,7 +20931,7 @@
       <c r="X160" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="Y160" s="7" t="s">
+      <c r="Y160" s="5" t="s">
         <v>782</v>
       </c>
       <c r="Z160" s="5" t="s">
@@ -20950,7 +20943,7 @@
       <c r="AB160" s="5"/>
       <c r="AC160" s="5"/>
     </row>
-    <row r="161" spans="1:32" hidden="true">
+    <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>45033</v>
       </c>
@@ -21023,7 +21016,7 @@
       <c r="X161" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="Y161" s="7" t="s">
+      <c r="Y161" s="5" t="s">
         <v>786</v>
       </c>
       <c r="Z161" s="5" t="s">
@@ -21035,7 +21028,7 @@
       <c r="AB161" s="5"/>
       <c r="AC161" s="5"/>
     </row>
-    <row r="162" spans="1:32" hidden="true">
+    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>45033</v>
       </c>
@@ -21108,7 +21101,7 @@
       <c r="X162" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="Y162" s="7" t="s">
+      <c r="Y162" s="5" t="s">
         <v>789</v>
       </c>
       <c r="Z162" s="5" t="s">
@@ -21120,7 +21113,7 @@
       <c r="AB162" s="5"/>
       <c r="AC162" s="5"/>
     </row>
-    <row r="163" spans="1:32" hidden="true">
+    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>45033</v>
       </c>
@@ -21193,7 +21186,7 @@
       <c r="X163" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="Y163" s="7" t="s">
+      <c r="Y163" s="5" t="s">
         <v>791</v>
       </c>
       <c r="Z163" s="5" t="s">
@@ -21205,7 +21198,7 @@
       <c r="AB163" s="5"/>
       <c r="AC163" s="5"/>
     </row>
-    <row r="164" spans="1:32" hidden="true">
+    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>45033</v>
       </c>
@@ -21278,7 +21271,7 @@
       <c r="X164" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="Y164" s="7" t="s">
+      <c r="Y164" s="5" t="s">
         <v>798</v>
       </c>
       <c r="Z164" s="5" t="s">
@@ -21290,7 +21283,7 @@
       <c r="AB164" s="5"/>
       <c r="AC164" s="5"/>
     </row>
-    <row r="165" spans="1:32" hidden="true">
+    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>45033</v>
       </c>
@@ -21363,7 +21356,7 @@
       <c r="X165" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="Y165" s="7" t="s">
+      <c r="Y165" s="5" t="s">
         <v>801</v>
       </c>
       <c r="Z165" s="5" t="s">
@@ -21375,7 +21368,7 @@
       <c r="AB165" s="5"/>
       <c r="AC165" s="5"/>
     </row>
-    <row r="166" spans="1:32" hidden="true">
+    <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>45033</v>
       </c>
@@ -21448,7 +21441,7 @@
       <c r="X166" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="Y166" s="7" t="s">
+      <c r="Y166" s="5" t="s">
         <v>805</v>
       </c>
       <c r="Z166" s="5" t="s">
@@ -21460,7 +21453,7 @@
       <c r="AB166" s="5"/>
       <c r="AC166" s="5"/>
     </row>
-    <row r="167" spans="1:32" hidden="true">
+    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>45033</v>
       </c>
@@ -21533,7 +21526,7 @@
       <c r="X167" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="Y167" s="7" t="s">
+      <c r="Y167" s="5" t="s">
         <v>811</v>
       </c>
       <c r="Z167" s="5" t="s">
@@ -21545,7 +21538,7 @@
       <c r="AB167" s="5"/>
       <c r="AC167" s="5"/>
     </row>
-    <row r="168" spans="1:32" hidden="true">
+    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>45033</v>
       </c>
@@ -21618,7 +21611,7 @@
       <c r="X168" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="Y168" s="7" t="s">
+      <c r="Y168" s="5" t="s">
         <v>815</v>
       </c>
       <c r="Z168" s="5" t="s">
@@ -21630,7 +21623,7 @@
       <c r="AB168" s="5"/>
       <c r="AC168" s="5"/>
     </row>
-    <row r="169" spans="1:32" hidden="true">
+    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>45033</v>
       </c>
@@ -21703,13 +21696,13 @@
       <c r="X169" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="Y169" s="7"/>
+      <c r="Y169" s="5"/>
       <c r="Z169" s="5"/>
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
       <c r="AC169" s="5"/>
     </row>
-    <row r="170" spans="1:32" hidden="true">
+    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>45033</v>
       </c>
@@ -21782,13 +21775,13 @@
       <c r="X170" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="Y170" s="7"/>
+      <c r="Y170" s="5"/>
       <c r="Z170" s="5"/>
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
       <c r="AC170" s="5"/>
     </row>
-    <row r="171" spans="1:32" hidden="true">
+    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>45033</v>
       </c>
@@ -21861,7 +21854,7 @@
       <c r="X171" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="Y171" s="7" t="s">
+      <c r="Y171" s="5" t="s">
         <v>824</v>
       </c>
       <c r="Z171" s="5"/>
@@ -21871,7 +21864,7 @@
       <c r="AB171" s="5"/>
       <c r="AC171" s="5"/>
     </row>
-    <row r="172" spans="1:32" hidden="true">
+    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>45033</v>
       </c>
@@ -21944,7 +21937,7 @@
       <c r="X172" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="Y172" s="7" t="s">
+      <c r="Y172" s="5" t="s">
         <v>829</v>
       </c>
       <c r="Z172" s="5" t="s">
@@ -21956,7 +21949,7 @@
       <c r="AB172" s="5"/>
       <c r="AC172" s="5"/>
     </row>
-    <row r="173" spans="1:32" hidden="true">
+    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>45033</v>
       </c>
@@ -22029,13 +22022,13 @@
       <c r="X173" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="Y173" s="7"/>
+      <c r="Y173" s="5"/>
       <c r="Z173" s="5"/>
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
       <c r="AC173" s="5"/>
     </row>
-    <row r="174" spans="1:32" hidden="true">
+    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>45033</v>
       </c>
@@ -22108,13 +22101,13 @@
       <c r="X174" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="Y174" s="7"/>
+      <c r="Y174" s="5"/>
       <c r="Z174" s="5"/>
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
       <c r="AC174" s="5"/>
     </row>
-    <row r="175" spans="1:32" hidden="true">
+    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>45033</v>
       </c>
@@ -22187,13 +22180,13 @@
       <c r="X175" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="Y175" s="7"/>
+      <c r="Y175" s="5"/>
       <c r="Z175" s="5"/>
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
       <c r="AC175" s="5"/>
     </row>
-    <row r="176" spans="1:32" hidden="true">
+    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>45033</v>
       </c>
@@ -22266,7 +22259,7 @@
       <c r="X176" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="Y176" s="7" t="s">
+      <c r="Y176" s="5" t="s">
         <v>844</v>
       </c>
       <c r="Z176" s="5" t="s">
@@ -22278,7 +22271,7 @@
       <c r="AB176" s="5"/>
       <c r="AC176" s="5"/>
     </row>
-    <row r="177" spans="1:32" hidden="true">
+    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>45033</v>
       </c>
@@ -22351,7 +22344,7 @@
       <c r="X177" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y177" s="7" t="s">
+      <c r="Y177" s="5" t="s">
         <v>850</v>
       </c>
       <c r="Z177" s="5"/>
@@ -22361,7 +22354,7 @@
       <c r="AB177" s="5"/>
       <c r="AC177" s="5"/>
     </row>
-    <row r="178" spans="1:32" hidden="true">
+    <row r="178" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>45033</v>
       </c>
@@ -22434,7 +22427,7 @@
       <c r="X178" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y178" s="7" t="s">
+      <c r="Y178" s="5" t="s">
         <v>853</v>
       </c>
       <c r="Z178" s="5" t="s">
@@ -22446,7 +22439,7 @@
       <c r="AB178" s="5"/>
       <c r="AC178" s="5"/>
     </row>
-    <row r="179" spans="1:32" hidden="true">
+    <row r="179" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>45033</v>
       </c>
@@ -22519,7 +22512,7 @@
       <c r="X179" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y179" s="7" t="s">
+      <c r="Y179" s="5" t="s">
         <v>857</v>
       </c>
       <c r="Z179" s="5" t="s">
@@ -22531,7 +22524,7 @@
       <c r="AB179" s="5"/>
       <c r="AC179" s="5"/>
     </row>
-    <row r="180" spans="1:32" hidden="true">
+    <row r="180" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>45033</v>
       </c>
@@ -22604,7 +22597,7 @@
       <c r="X180" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y180" s="7" t="s">
+      <c r="Y180" s="5" t="s">
         <v>863</v>
       </c>
       <c r="Z180" s="5" t="s">
@@ -22616,7 +22609,7 @@
       <c r="AB180" s="5"/>
       <c r="AC180" s="5"/>
     </row>
-    <row r="181" spans="1:32" hidden="true">
+    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>45033</v>
       </c>
@@ -22689,7 +22682,7 @@
       <c r="X181" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y181" s="7" t="s">
+      <c r="Y181" s="5" t="s">
         <v>866</v>
       </c>
       <c r="Z181" s="5" t="s">
@@ -22701,7 +22694,7 @@
       <c r="AB181" s="5"/>
       <c r="AC181" s="5"/>
     </row>
-    <row r="182" spans="1:32" hidden="true">
+    <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>45033</v>
       </c>
@@ -22774,7 +22767,7 @@
       <c r="X182" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y182" s="7" t="s">
+      <c r="Y182" s="5" t="s">
         <v>871</v>
       </c>
       <c r="Z182" s="5" t="s">
@@ -22786,7 +22779,7 @@
       <c r="AB182" s="5"/>
       <c r="AC182" s="5"/>
     </row>
-    <row r="183" spans="1:32" hidden="true">
+    <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>45033</v>
       </c>
@@ -22859,7 +22852,7 @@
       <c r="X183" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y183" s="7" t="s">
+      <c r="Y183" s="5" t="s">
         <v>876</v>
       </c>
       <c r="Z183" s="5" t="s">
@@ -22871,7 +22864,7 @@
       <c r="AB183" s="5"/>
       <c r="AC183" s="5"/>
     </row>
-    <row r="184" spans="1:32" hidden="true">
+    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>45033</v>
       </c>
@@ -22944,7 +22937,7 @@
       <c r="X184" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y184" s="7" t="s">
+      <c r="Y184" s="5" t="s">
         <v>878</v>
       </c>
       <c r="Z184" s="5" t="s">
@@ -22956,7 +22949,7 @@
       <c r="AB184" s="5"/>
       <c r="AC184" s="5"/>
     </row>
-    <row r="185" spans="1:32" hidden="true">
+    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>45033</v>
       </c>
@@ -23029,7 +23022,7 @@
       <c r="X185" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y185" s="7" t="s">
+      <c r="Y185" s="5" t="s">
         <v>882</v>
       </c>
       <c r="Z185" s="5" t="s">
@@ -23041,7 +23034,7 @@
       <c r="AB185" s="5"/>
       <c r="AC185" s="5"/>
     </row>
-    <row r="186" spans="1:32" hidden="true">
+    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>45033</v>
       </c>
@@ -23114,7 +23107,7 @@
       <c r="X186" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y186" s="7" t="s">
+      <c r="Y186" s="5" t="s">
         <v>888</v>
       </c>
       <c r="Z186" s="5"/>
@@ -23124,7 +23117,7 @@
       <c r="AB186" s="5"/>
       <c r="AC186" s="5"/>
     </row>
-    <row r="187" spans="1:32" hidden="true">
+    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>45033</v>
       </c>
@@ -23197,7 +23190,7 @@
       <c r="X187" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y187" s="7" t="s">
+      <c r="Y187" s="5" t="s">
         <v>892</v>
       </c>
       <c r="Z187" s="5" t="s">
@@ -23209,7 +23202,7 @@
       <c r="AB187" s="5"/>
       <c r="AC187" s="5"/>
     </row>
-    <row r="188" spans="1:32" hidden="true">
+    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>45033</v>
       </c>
@@ -23282,7 +23275,7 @@
       <c r="X188" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y188" s="7" t="s">
+      <c r="Y188" s="5" t="s">
         <v>897</v>
       </c>
       <c r="Z188" s="5" t="s">
@@ -23294,7 +23287,7 @@
       <c r="AB188" s="5"/>
       <c r="AC188" s="5"/>
     </row>
-    <row r="189" spans="1:32" hidden="true">
+    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>45033</v>
       </c>
@@ -23367,7 +23360,7 @@
       <c r="X189" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y189" s="7" t="s">
+      <c r="Y189" s="5" t="s">
         <v>900</v>
       </c>
       <c r="Z189" s="5" t="s">
@@ -23379,7 +23372,7 @@
       <c r="AB189" s="5"/>
       <c r="AC189" s="5"/>
     </row>
-    <row r="190" spans="1:32" hidden="true">
+    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>45033</v>
       </c>
@@ -23452,7 +23445,7 @@
       <c r="X190" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y190" s="7" t="s">
+      <c r="Y190" s="5" t="s">
         <v>904</v>
       </c>
       <c r="Z190" s="5" t="s">
@@ -23464,7 +23457,7 @@
       <c r="AB190" s="5"/>
       <c r="AC190" s="5"/>
     </row>
-    <row r="191" spans="1:32" hidden="true">
+    <row r="191" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>45033</v>
       </c>
@@ -23537,7 +23530,7 @@
       <c r="X191" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y191" s="7" t="s">
+      <c r="Y191" s="5" t="s">
         <v>908</v>
       </c>
       <c r="Z191" s="5" t="s">
@@ -23549,7 +23542,7 @@
       <c r="AB191" s="5"/>
       <c r="AC191" s="5"/>
     </row>
-    <row r="192" spans="1:32" hidden="true">
+    <row r="192" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>45033</v>
       </c>
@@ -23622,7 +23615,7 @@
       <c r="X192" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y192" s="7" t="s">
+      <c r="Y192" s="5" t="s">
         <v>911</v>
       </c>
       <c r="Z192" s="5" t="s">
@@ -23634,7 +23627,7 @@
       <c r="AB192" s="5"/>
       <c r="AC192" s="5"/>
     </row>
-    <row r="193" spans="1:32" hidden="true">
+    <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>45033</v>
       </c>
@@ -23707,7 +23700,7 @@
       <c r="X193" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y193" s="7" t="s">
+      <c r="Y193" s="5" t="s">
         <v>916</v>
       </c>
       <c r="Z193" s="5" t="s">
@@ -23719,7 +23712,7 @@
       <c r="AB193" s="5"/>
       <c r="AC193" s="5"/>
     </row>
-    <row r="194" spans="1:32" hidden="true">
+    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>45033</v>
       </c>
@@ -23792,7 +23785,7 @@
       <c r="X194" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y194" s="7" t="s">
+      <c r="Y194" s="5" t="s">
         <v>904</v>
       </c>
       <c r="Z194" s="5" t="s">
@@ -23804,7 +23797,7 @@
       <c r="AB194" s="5"/>
       <c r="AC194" s="5"/>
     </row>
-    <row r="195" spans="1:32" hidden="true">
+    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>45033</v>
       </c>
@@ -23877,7 +23870,7 @@
       <c r="X195" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y195" s="7" t="s">
+      <c r="Y195" s="5" t="s">
         <v>922</v>
       </c>
       <c r="Z195" s="5" t="s">
@@ -23889,7 +23882,7 @@
       <c r="AB195" s="5"/>
       <c r="AC195" s="5"/>
     </row>
-    <row r="196" spans="1:32" hidden="true">
+    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>45033</v>
       </c>
@@ -23962,7 +23955,7 @@
       <c r="X196" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y196" s="7" t="s">
+      <c r="Y196" s="5" t="s">
         <v>925</v>
       </c>
       <c r="Z196" s="5" t="s">
@@ -23974,7 +23967,7 @@
       <c r="AB196" s="5"/>
       <c r="AC196" s="5"/>
     </row>
-    <row r="197" spans="1:32" hidden="true">
+    <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>45033</v>
       </c>
@@ -24047,7 +24040,7 @@
       <c r="X197" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y197" s="7" t="s">
+      <c r="Y197" s="5" t="s">
         <v>927</v>
       </c>
       <c r="Z197" s="5" t="s">
@@ -24059,7 +24052,7 @@
       <c r="AB197" s="5"/>
       <c r="AC197" s="5"/>
     </row>
-    <row r="198" spans="1:32" hidden="true">
+    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>45033</v>
       </c>
@@ -24132,13 +24125,13 @@
       <c r="X198" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y198" s="7"/>
+      <c r="Y198" s="5"/>
       <c r="Z198" s="5"/>
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
       <c r="AC198" s="5"/>
     </row>
-    <row r="199" spans="1:32" hidden="true">
+    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>45033</v>
       </c>
@@ -24211,7 +24204,7 @@
       <c r="X199" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y199" s="7" t="s">
+      <c r="Y199" s="5" t="s">
         <v>933</v>
       </c>
       <c r="Z199" s="5" t="s">
@@ -24223,7 +24216,7 @@
       <c r="AB199" s="5"/>
       <c r="AC199" s="5"/>
     </row>
-    <row r="200" spans="1:32" hidden="true">
+    <row r="200" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>45033</v>
       </c>
@@ -24296,13 +24289,13 @@
       <c r="X200" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y200" s="7"/>
+      <c r="Y200" s="5"/>
       <c r="Z200" s="5"/>
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
       <c r="AC200" s="5"/>
     </row>
-    <row r="201" spans="1:32" hidden="true">
+    <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>45033</v>
       </c>
@@ -24375,7 +24368,7 @@
       <c r="X201" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y201" s="7" t="s">
+      <c r="Y201" s="5" t="s">
         <v>941</v>
       </c>
       <c r="Z201" s="5" t="s">
@@ -24387,7 +24380,7 @@
       <c r="AB201" s="5"/>
       <c r="AC201" s="5"/>
     </row>
-    <row r="202" spans="1:32" hidden="true">
+    <row r="202" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>45033</v>
       </c>
@@ -24460,7 +24453,7 @@
       <c r="X202" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y202" s="7" t="s">
+      <c r="Y202" s="5" t="s">
         <v>943</v>
       </c>
       <c r="Z202" s="5" t="s">
@@ -24472,7 +24465,7 @@
       <c r="AB202" s="5"/>
       <c r="AC202" s="5"/>
     </row>
-    <row r="203" spans="1:32" hidden="true">
+    <row r="203" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>45033</v>
       </c>
@@ -24545,7 +24538,7 @@
       <c r="X203" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y203" s="7" t="s">
+      <c r="Y203" s="5" t="s">
         <v>947</v>
       </c>
       <c r="Z203" s="5" t="s">
@@ -24557,7 +24550,7 @@
       <c r="AB203" s="5"/>
       <c r="AC203" s="5"/>
     </row>
-    <row r="204" spans="1:32" hidden="true">
+    <row r="204" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>45033</v>
       </c>
@@ -24630,7 +24623,7 @@
       <c r="X204" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y204" s="7" t="s">
+      <c r="Y204" s="5" t="s">
         <v>951</v>
       </c>
       <c r="Z204" s="5" t="s">
@@ -24642,7 +24635,7 @@
       <c r="AB204" s="5"/>
       <c r="AC204" s="5"/>
     </row>
-    <row r="205" spans="1:32" hidden="true">
+    <row r="205" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>45033</v>
       </c>
@@ -24715,7 +24708,7 @@
       <c r="X205" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y205" s="7" t="s">
+      <c r="Y205" s="5" t="s">
         <v>956</v>
       </c>
       <c r="Z205" s="5" t="s">
@@ -24727,7 +24720,7 @@
       <c r="AB205" s="5"/>
       <c r="AC205" s="5"/>
     </row>
-    <row r="206" spans="1:32" hidden="true">
+    <row r="206" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>45033</v>
       </c>
@@ -24800,7 +24793,7 @@
       <c r="X206" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y206" s="7" t="s">
+      <c r="Y206" s="5" t="s">
         <v>958</v>
       </c>
       <c r="Z206" s="5"/>
@@ -24810,7 +24803,7 @@
       <c r="AB206" s="5"/>
       <c r="AC206" s="5"/>
     </row>
-    <row r="207" spans="1:32" hidden="true">
+    <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>45033</v>
       </c>
@@ -24883,7 +24876,7 @@
       <c r="X207" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y207" s="7" t="s">
+      <c r="Y207" s="5" t="s">
         <v>963</v>
       </c>
       <c r="Z207" s="5" t="s">
@@ -24895,7 +24888,7 @@
       <c r="AB207" s="5"/>
       <c r="AC207" s="5"/>
     </row>
-    <row r="208" spans="1:32" hidden="true">
+    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>45033</v>
       </c>
@@ -24968,7 +24961,7 @@
       <c r="X208" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y208" s="7" t="s">
+      <c r="Y208" s="5" t="s">
         <v>967</v>
       </c>
       <c r="Z208" s="5" t="s">
@@ -24980,7 +24973,7 @@
       <c r="AB208" s="5"/>
       <c r="AC208" s="5"/>
     </row>
-    <row r="209" spans="1:32" hidden="true">
+    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>45033</v>
       </c>
@@ -25053,7 +25046,7 @@
       <c r="X209" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y209" s="7" t="s">
+      <c r="Y209" s="5" t="s">
         <v>971</v>
       </c>
       <c r="Z209" s="5" t="s">
@@ -25065,7 +25058,7 @@
       <c r="AB209" s="5"/>
       <c r="AC209" s="5"/>
     </row>
-    <row r="210" spans="1:32" hidden="true">
+    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>45033</v>
       </c>
@@ -25138,7 +25131,7 @@
       <c r="X210" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y210" s="7" t="s">
+      <c r="Y210" s="5" t="s">
         <v>973</v>
       </c>
       <c r="Z210" s="5" t="s">
@@ -25150,7 +25143,7 @@
       <c r="AB210" s="5"/>
       <c r="AC210" s="5"/>
     </row>
-    <row r="211" spans="1:32" hidden="true">
+    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>45033</v>
       </c>
@@ -25223,7 +25216,7 @@
       <c r="X211" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y211" s="7" t="s">
+      <c r="Y211" s="5" t="s">
         <v>977</v>
       </c>
       <c r="Z211" s="5" t="s">
@@ -25235,7 +25228,7 @@
       <c r="AB211" s="5"/>
       <c r="AC211" s="5"/>
     </row>
-    <row r="212" spans="1:32" hidden="true">
+    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>45033</v>
       </c>
@@ -25308,7 +25301,7 @@
       <c r="X212" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="Y212" s="7" t="s">
+      <c r="Y212" s="5" t="s">
         <v>984</v>
       </c>
       <c r="Z212" s="5" t="s">
@@ -25320,7 +25313,7 @@
       <c r="AB212" s="5"/>
       <c r="AC212" s="5"/>
     </row>
-    <row r="213" spans="1:32" hidden="true">
+    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>45033</v>
       </c>
@@ -25393,7 +25386,7 @@
       <c r="X213" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="Y213" s="7" t="s">
+      <c r="Y213" s="5" t="s">
         <v>988</v>
       </c>
       <c r="Z213" s="5" t="s">
@@ -25405,7 +25398,7 @@
       <c r="AB213" s="5"/>
       <c r="AC213" s="5"/>
     </row>
-    <row r="214" spans="1:32" hidden="true">
+    <row r="214" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>45033</v>
       </c>
@@ -25478,13 +25471,13 @@
       <c r="X214" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="Y214" s="7"/>
+      <c r="Y214" s="5"/>
       <c r="Z214" s="5"/>
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
       <c r="AC214" s="5"/>
     </row>
-    <row r="215" spans="1:32" hidden="true">
+    <row r="215" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>45033</v>
       </c>
@@ -25557,13 +25550,13 @@
       <c r="X215" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="Y215" s="7"/>
+      <c r="Y215" s="5"/>
       <c r="Z215" s="5"/>
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
       <c r="AC215" s="5"/>
     </row>
-    <row r="216" spans="1:32" hidden="true">
+    <row r="216" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>45033</v>
       </c>
@@ -25636,7 +25629,7 @@
       <c r="X216" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="Y216" s="7" t="s">
+      <c r="Y216" s="5" t="s">
         <v>998</v>
       </c>
       <c r="Z216" s="5" t="s">
@@ -25648,7 +25641,7 @@
       <c r="AB216" s="5"/>
       <c r="AC216" s="5"/>
     </row>
-    <row r="217" spans="1:32" hidden="true">
+    <row r="217" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>45033</v>
       </c>
@@ -25721,7 +25714,7 @@
       <c r="X217" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="Y217" s="7" t="s">
+      <c r="Y217" s="5" t="s">
         <v>1001</v>
       </c>
       <c r="Z217" s="5" t="s">
@@ -25733,7 +25726,7 @@
       <c r="AB217" s="5"/>
       <c r="AC217" s="5"/>
     </row>
-    <row r="218" spans="1:32" hidden="true">
+    <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>45033</v>
       </c>
@@ -25806,7 +25799,7 @@
       <c r="X218" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="Y218" s="7" t="s">
+      <c r="Y218" s="5" t="s">
         <v>1004</v>
       </c>
       <c r="Z218" s="5" t="s">
@@ -25818,7 +25811,7 @@
       <c r="AB218" s="5"/>
       <c r="AC218" s="5"/>
     </row>
-    <row r="219" spans="1:32" hidden="true">
+    <row r="219" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>45033</v>
       </c>
@@ -25891,7 +25884,7 @@
       <c r="X219" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="Y219" s="7" t="s">
+      <c r="Y219" s="5" t="s">
         <v>1007</v>
       </c>
       <c r="Z219" s="5" t="s">
@@ -25903,7 +25896,7 @@
       <c r="AB219" s="5"/>
       <c r="AC219" s="5"/>
     </row>
-    <row r="220" spans="1:32" hidden="true">
+    <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>45033</v>
       </c>
@@ -25976,7 +25969,7 @@
       <c r="X220" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="Y220" s="7" t="s">
+      <c r="Y220" s="5" t="s">
         <v>1010</v>
       </c>
       <c r="Z220" s="5" t="s">
@@ -25988,7 +25981,7 @@
       <c r="AB220" s="5"/>
       <c r="AC220" s="5"/>
     </row>
-    <row r="221" spans="1:32" hidden="true">
+    <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>45033</v>
       </c>
@@ -26061,7 +26054,7 @@
       <c r="X221" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="Y221" s="7" t="s">
+      <c r="Y221" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="Z221" s="5" t="s">
@@ -26073,7 +26066,7 @@
       <c r="AB221" s="5"/>
       <c r="AC221" s="5"/>
     </row>
-    <row r="222" spans="1:32" hidden="true">
+    <row r="222" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>45033</v>
       </c>
@@ -26146,13 +26139,13 @@
       <c r="X222" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="Y222" s="7"/>
+      <c r="Y222" s="5"/>
       <c r="Z222" s="5"/>
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
       <c r="AC222" s="5"/>
     </row>
-    <row r="223" spans="1:32" hidden="true">
+    <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>45033</v>
       </c>
@@ -26225,7 +26218,7 @@
       <c r="X223" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="Y223" s="7" t="s">
+      <c r="Y223" s="5" t="s">
         <v>1018</v>
       </c>
       <c r="Z223" s="5" t="s">
@@ -26237,7 +26230,7 @@
       <c r="AB223" s="5"/>
       <c r="AC223" s="5"/>
     </row>
-    <row r="224" spans="1:32" hidden="true">
+    <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>45033</v>
       </c>
@@ -26310,13 +26303,13 @@
       <c r="X224" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="Y224" s="7"/>
+      <c r="Y224" s="5"/>
       <c r="Z224" s="5"/>
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
       <c r="AC224" s="5"/>
     </row>
-    <row r="225" spans="1:32" hidden="true">
+    <row r="225" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>45033</v>
       </c>
@@ -26389,13 +26382,13 @@
       <c r="X225" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="Y225" s="7"/>
+      <c r="Y225" s="5"/>
       <c r="Z225" s="5"/>
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
       <c r="AC225" s="5"/>
     </row>
-    <row r="226" spans="1:32" hidden="true">
+    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>45033</v>
       </c>
@@ -26468,7 +26461,7 @@
       <c r="X226" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="Y226" s="7" t="s">
+      <c r="Y226" s="5" t="s">
         <v>1026</v>
       </c>
       <c r="Z226" s="5" t="s">
@@ -26480,7 +26473,7 @@
       <c r="AB226" s="5"/>
       <c r="AC226" s="5"/>
     </row>
-    <row r="227" spans="1:32" hidden="true">
+    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>45033</v>
       </c>
@@ -26553,13 +26546,13 @@
       <c r="X227" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y227" s="7"/>
+      <c r="Y227" s="5"/>
       <c r="Z227" s="5"/>
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
       <c r="AC227" s="5"/>
     </row>
-    <row r="228" spans="1:32" hidden="true">
+    <row r="228" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>45033</v>
       </c>
@@ -26632,7 +26625,7 @@
       <c r="X228" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y228" s="7" t="s">
+      <c r="Y228" s="5" t="s">
         <v>1034</v>
       </c>
       <c r="Z228" s="5" t="s">
@@ -26644,7 +26637,7 @@
       <c r="AB228" s="5"/>
       <c r="AC228" s="5"/>
     </row>
-    <row r="229" spans="1:32" hidden="true">
+    <row r="229" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>45033</v>
       </c>
@@ -26717,7 +26710,7 @@
       <c r="X229" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y229" s="7" t="s">
+      <c r="Y229" s="5" t="s">
         <v>1036</v>
       </c>
       <c r="Z229" s="5" t="s">
@@ -26729,7 +26722,7 @@
       <c r="AB229" s="5"/>
       <c r="AC229" s="5"/>
     </row>
-    <row r="230" spans="1:32" hidden="true">
+    <row r="230" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>45033</v>
       </c>
@@ -26802,7 +26795,7 @@
       <c r="X230" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y230" s="7" t="s">
+      <c r="Y230" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="Z230" s="5" t="s">
@@ -26814,7 +26807,7 @@
       <c r="AB230" s="5"/>
       <c r="AC230" s="5"/>
     </row>
-    <row r="231" spans="1:32" hidden="true">
+    <row r="231" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>45033</v>
       </c>
@@ -26887,13 +26880,13 @@
       <c r="X231" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y231" s="7"/>
+      <c r="Y231" s="5"/>
       <c r="Z231" s="5"/>
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
       <c r="AC231" s="5"/>
     </row>
-    <row r="232" spans="1:32" hidden="true">
+    <row r="232" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>45033</v>
       </c>
@@ -26966,7 +26959,7 @@
       <c r="X232" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y232" s="7" t="s">
+      <c r="Y232" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="Z232" s="5"/>
@@ -26976,7 +26969,7 @@
       <c r="AB232" s="5"/>
       <c r="AC232" s="5"/>
     </row>
-    <row r="233" spans="1:32" hidden="true">
+    <row r="233" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>45033</v>
       </c>
@@ -27049,13 +27042,13 @@
       <c r="X233" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y233" s="7"/>
+      <c r="Y233" s="5"/>
       <c r="Z233" s="5"/>
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
       <c r="AC233" s="5"/>
     </row>
-    <row r="234" spans="1:32" hidden="true">
+    <row r="234" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>45033</v>
       </c>
@@ -27128,7 +27121,7 @@
       <c r="X234" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y234" s="7" t="s">
+      <c r="Y234" s="5" t="s">
         <v>1057</v>
       </c>
       <c r="Z234" s="5" t="s">
@@ -27140,7 +27133,7 @@
       <c r="AB234" s="5"/>
       <c r="AC234" s="5"/>
     </row>
-    <row r="235" spans="1:32" hidden="true">
+    <row r="235" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>45033</v>
       </c>
@@ -27213,7 +27206,7 @@
       <c r="X235" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y235" s="7" t="s">
+      <c r="Y235" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="Z235" s="5"/>
@@ -27223,7 +27216,7 @@
       <c r="AB235" s="5"/>
       <c r="AC235" s="5"/>
     </row>
-    <row r="236" spans="1:32" hidden="true">
+    <row r="236" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>45033</v>
       </c>
@@ -27296,7 +27289,7 @@
       <c r="X236" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y236" s="7" t="s">
+      <c r="Y236" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="Z236" s="5" t="s">
@@ -27308,7 +27301,7 @@
       <c r="AB236" s="5"/>
       <c r="AC236" s="5"/>
     </row>
-    <row r="237" spans="1:32" hidden="true">
+    <row r="237" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>45033</v>
       </c>
@@ -27381,7 +27374,7 @@
       <c r="X237" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y237" s="7" t="s">
+      <c r="Y237" s="5" t="s">
         <v>1066</v>
       </c>
       <c r="Z237" s="5" t="s">
@@ -27393,7 +27386,7 @@
       <c r="AB237" s="5"/>
       <c r="AC237" s="5"/>
     </row>
-    <row r="238" spans="1:32" hidden="true">
+    <row r="238" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>45033</v>
       </c>
@@ -27466,7 +27459,7 @@
       <c r="X238" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y238" s="7" t="s">
+      <c r="Y238" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="Z238" s="5"/>
@@ -27476,7 +27469,7 @@
       <c r="AB238" s="5"/>
       <c r="AC238" s="5"/>
     </row>
-    <row r="239" spans="1:32" hidden="true">
+    <row r="239" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>45033</v>
       </c>
@@ -27549,7 +27542,7 @@
       <c r="X239" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y239" s="7" t="s">
+      <c r="Y239" s="5" t="s">
         <v>1070</v>
       </c>
       <c r="Z239" s="5" t="s">
@@ -27561,7 +27554,7 @@
       <c r="AB239" s="5"/>
       <c r="AC239" s="5"/>
     </row>
-    <row r="240" spans="1:32" hidden="true">
+    <row r="240" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>45033</v>
       </c>
@@ -27634,7 +27627,7 @@
       <c r="X240" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y240" s="7" t="s">
+      <c r="Y240" s="5" t="s">
         <v>1076</v>
       </c>
       <c r="Z240" s="5" t="s">
@@ -27646,7 +27639,7 @@
       <c r="AB240" s="5"/>
       <c r="AC240" s="5"/>
     </row>
-    <row r="241" spans="1:32" hidden="true">
+    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>45033</v>
       </c>
@@ -27719,7 +27712,7 @@
       <c r="X241" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y241" s="7" t="s">
+      <c r="Y241" s="5" t="s">
         <v>1082</v>
       </c>
       <c r="Z241" s="5" t="s">
@@ -27731,7 +27724,7 @@
       <c r="AB241" s="5"/>
       <c r="AC241" s="5"/>
     </row>
-    <row r="242" spans="1:32" hidden="true">
+    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>45033</v>
       </c>
@@ -27804,7 +27797,7 @@
       <c r="X242" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y242" s="7" t="s">
+      <c r="Y242" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="Z242" s="5"/>
@@ -27814,7 +27807,7 @@
       <c r="AB242" s="5"/>
       <c r="AC242" s="5"/>
     </row>
-    <row r="243" spans="1:32" hidden="true">
+    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>45033</v>
       </c>
@@ -27887,7 +27880,7 @@
       <c r="X243" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y243" s="7" t="s">
+      <c r="Y243" s="5" t="s">
         <v>1087</v>
       </c>
       <c r="Z243" s="5" t="s">
@@ -27899,7 +27892,7 @@
       <c r="AB243" s="5"/>
       <c r="AC243" s="5"/>
     </row>
-    <row r="244" spans="1:32" hidden="true">
+    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>45033</v>
       </c>
@@ -27972,7 +27965,7 @@
       <c r="X244" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y244" s="7" t="s">
+      <c r="Y244" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="Z244" s="5"/>
@@ -27982,7 +27975,7 @@
       <c r="AB244" s="5"/>
       <c r="AC244" s="5"/>
     </row>
-    <row r="245" spans="1:32" hidden="true">
+    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>45033</v>
       </c>
@@ -28055,13 +28048,13 @@
       <c r="X245" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y245" s="7"/>
+      <c r="Y245" s="5"/>
       <c r="Z245" s="5"/>
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
       <c r="AC245" s="5"/>
     </row>
-    <row r="246" spans="1:32" hidden="true">
+    <row r="246" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>45033</v>
       </c>
@@ -28134,7 +28127,7 @@
       <c r="X246" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y246" s="7" t="s">
+      <c r="Y246" s="5" t="s">
         <v>1094</v>
       </c>
       <c r="Z246" s="5" t="s">
@@ -28146,7 +28139,7 @@
       <c r="AB246" s="5"/>
       <c r="AC246" s="5"/>
     </row>
-    <row r="247" spans="1:32" hidden="true">
+    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>45033</v>
       </c>
@@ -28219,7 +28212,7 @@
       <c r="X247" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y247" s="7" t="s">
+      <c r="Y247" s="5" t="s">
         <v>1099</v>
       </c>
       <c r="Z247" s="5" t="s">
@@ -28231,7 +28224,7 @@
       <c r="AB247" s="5"/>
       <c r="AC247" s="5"/>
     </row>
-    <row r="248" spans="1:32" hidden="true">
+    <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>45033</v>
       </c>
@@ -28304,7 +28297,7 @@
       <c r="X248" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="Y248" s="7" t="s">
+      <c r="Y248" s="5" t="s">
         <v>1102</v>
       </c>
       <c r="Z248" s="5"/>
@@ -28314,7 +28307,7 @@
       <c r="AB248" s="5"/>
       <c r="AC248" s="5"/>
     </row>
-    <row r="249" spans="1:32" hidden="true">
+    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>45033</v>
       </c>
@@ -28387,7 +28380,7 @@
       <c r="X249" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="Y249" s="7" t="s">
+      <c r="Y249" s="5" t="s">
         <v>1109</v>
       </c>
       <c r="Z249" s="5" t="s">
@@ -28399,7 +28392,7 @@
       <c r="AB249" s="5"/>
       <c r="AC249" s="5"/>
     </row>
-    <row r="250" spans="1:32" hidden="true">
+    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
         <v>45033</v>
       </c>
@@ -28472,7 +28465,7 @@
       <c r="X250" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="Y250" s="7" t="s">
+      <c r="Y250" s="5" t="s">
         <v>1115</v>
       </c>
       <c r="Z250" s="5" t="s">
@@ -28484,7 +28477,7 @@
       <c r="AB250" s="5"/>
       <c r="AC250" s="5"/>
     </row>
-    <row r="251" spans="1:32" hidden="true">
+    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>45033</v>
       </c>
@@ -28557,7 +28550,7 @@
       <c r="X251" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="Y251" s="7" t="s">
+      <c r="Y251" s="5" t="s">
         <v>1120</v>
       </c>
       <c r="Z251" s="5" t="s">
@@ -28569,7 +28562,7 @@
       <c r="AB251" s="5"/>
       <c r="AC251" s="5"/>
     </row>
-    <row r="252" spans="1:32" hidden="true">
+    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>45033</v>
       </c>
@@ -28642,7 +28635,7 @@
       <c r="X252" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="Y252" s="7" t="s">
+      <c r="Y252" s="5" t="s">
         <v>1126</v>
       </c>
       <c r="Z252" s="5" t="s">
@@ -28654,7 +28647,7 @@
       <c r="AB252" s="5"/>
       <c r="AC252" s="5"/>
     </row>
-    <row r="253" spans="1:32" hidden="true">
+    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>45033</v>
       </c>
@@ -28727,7 +28720,7 @@
       <c r="X253" s="5" t="s">
         <v>1132</v>
       </c>
-      <c r="Y253" s="7" t="s">
+      <c r="Y253" s="5" t="s">
         <v>1133</v>
       </c>
       <c r="Z253" s="5" t="s">
@@ -28739,7 +28732,7 @@
       <c r="AB253" s="5"/>
       <c r="AC253" s="5"/>
     </row>
-    <row r="254" spans="1:32" hidden="true">
+    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>45033</v>
       </c>
@@ -28812,7 +28805,7 @@
       <c r="X254" s="5" t="s">
         <v>1132</v>
       </c>
-      <c r="Y254" s="7" t="s">
+      <c r="Y254" s="5" t="s">
         <v>1136</v>
       </c>
       <c r="Z254" s="5" t="s">
@@ -28824,7 +28817,7 @@
       <c r="AB254" s="5"/>
       <c r="AC254" s="5"/>
     </row>
-    <row r="255" spans="1:32" hidden="true">
+    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>45033</v>
       </c>
@@ -28897,7 +28890,7 @@
       <c r="X255" s="5" t="s">
         <v>1132</v>
       </c>
-      <c r="Y255" s="7" t="s">
+      <c r="Y255" s="5" t="s">
         <v>1139</v>
       </c>
       <c r="Z255" s="5" t="s">
@@ -28909,7 +28902,7 @@
       <c r="AB255" s="5"/>
       <c r="AC255" s="5"/>
     </row>
-    <row r="256" spans="1:32" hidden="true">
+    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>45033</v>
       </c>
@@ -28982,7 +28975,7 @@
       <c r="X256" s="5" t="s">
         <v>1132</v>
       </c>
-      <c r="Y256" s="7" t="s">
+      <c r="Y256" s="5" t="s">
         <v>1139</v>
       </c>
       <c r="Z256" s="5" t="s">
@@ -28994,7 +28987,7 @@
       <c r="AB256" s="5"/>
       <c r="AC256" s="5"/>
     </row>
-    <row r="257" spans="1:32" hidden="true">
+    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>45033</v>
       </c>
@@ -29067,7 +29060,7 @@
       <c r="X257" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="Y257" s="7" t="s">
+      <c r="Y257" s="5" t="s">
         <v>1145</v>
       </c>
       <c r="Z257" s="5" t="s">
@@ -29079,7 +29072,7 @@
       <c r="AB257" s="5"/>
       <c r="AC257" s="5"/>
     </row>
-    <row r="258" spans="1:32" hidden="true">
+    <row r="258" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
         <v>45033</v>
       </c>
@@ -29152,7 +29145,7 @@
       <c r="X258" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="Y258" s="7" t="s">
+      <c r="Y258" s="5" t="s">
         <v>1149</v>
       </c>
       <c r="Z258" s="5" t="s">
@@ -29164,7 +29157,7 @@
       <c r="AB258" s="5"/>
       <c r="AC258" s="5"/>
     </row>
-    <row r="259" spans="1:32" hidden="true">
+    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>45033</v>
       </c>
@@ -29237,7 +29230,7 @@
       <c r="X259" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="Y259" s="7" t="s">
+      <c r="Y259" s="5" t="s">
         <v>1151</v>
       </c>
       <c r="Z259" s="5" t="s">
@@ -29249,7 +29242,7 @@
       <c r="AB259" s="5"/>
       <c r="AC259" s="5"/>
     </row>
-    <row r="260" spans="1:32" hidden="true">
+    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
         <v>45033</v>
       </c>
@@ -29322,7 +29315,7 @@
       <c r="X260" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="Y260" s="7" t="s">
+      <c r="Y260" s="5" t="s">
         <v>1154</v>
       </c>
       <c r="Z260" s="5" t="s">
@@ -29334,7 +29327,7 @@
       <c r="AB260" s="5"/>
       <c r="AC260" s="5"/>
     </row>
-    <row r="261" spans="1:32" hidden="true">
+    <row r="261" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
         <v>45033</v>
       </c>
@@ -29407,7 +29400,7 @@
       <c r="X261" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="Y261" s="7" t="s">
+      <c r="Y261" s="5" t="s">
         <v>1157</v>
       </c>
       <c r="Z261" s="5" t="s">
@@ -29419,7 +29412,7 @@
       <c r="AB261" s="5"/>
       <c r="AC261" s="5"/>
     </row>
-    <row r="262" spans="1:32" hidden="true">
+    <row r="262" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>45033</v>
       </c>
@@ -29492,13 +29485,13 @@
       <c r="X262" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="Y262" s="7"/>
+      <c r="Y262" s="5"/>
       <c r="Z262" s="5"/>
       <c r="AA262" s="5"/>
       <c r="AB262" s="5"/>
       <c r="AC262" s="5"/>
     </row>
-    <row r="263" spans="1:32" hidden="true">
+    <row r="263" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>45033</v>
       </c>
@@ -29571,7 +29564,7 @@
       <c r="X263" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="Y263" s="7" t="s">
+      <c r="Y263" s="5" t="s">
         <v>1162</v>
       </c>
       <c r="Z263" s="5" t="s">
@@ -29583,7 +29576,7 @@
       <c r="AB263" s="5"/>
       <c r="AC263" s="5"/>
     </row>
-    <row r="264" spans="1:32" hidden="true">
+    <row r="264" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>45033</v>
       </c>
@@ -29656,13 +29649,13 @@
       <c r="X264" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="Y264" s="7"/>
+      <c r="Y264" s="5"/>
       <c r="Z264" s="5"/>
       <c r="AA264" s="5"/>
       <c r="AB264" s="5"/>
       <c r="AC264" s="5"/>
     </row>
-    <row r="265" spans="1:32" hidden="true">
+    <row r="265" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>45033</v>
       </c>
@@ -29735,7 +29728,7 @@
       <c r="X265" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="Y265" s="7" t="s">
+      <c r="Y265" s="5" t="s">
         <v>1169</v>
       </c>
       <c r="Z265" s="5" t="s">
@@ -29747,7 +29740,7 @@
       <c r="AB265" s="5"/>
       <c r="AC265" s="5"/>
     </row>
-    <row r="266" spans="1:32" hidden="true">
+    <row r="266" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>45033</v>
       </c>
@@ -29820,7 +29813,7 @@
       <c r="X266" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="Y266" s="7" t="s">
+      <c r="Y266" s="5" t="s">
         <v>1173</v>
       </c>
       <c r="Z266" s="5" t="s">
@@ -29832,7 +29825,7 @@
       <c r="AB266" s="5"/>
       <c r="AC266" s="5"/>
     </row>
-    <row r="267" spans="1:32" hidden="true">
+    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>45033</v>
       </c>
@@ -29905,7 +29898,7 @@
       <c r="X267" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="Y267" s="7" t="s">
+      <c r="Y267" s="5" t="s">
         <v>1176</v>
       </c>
       <c r="Z267" s="5" t="s">
@@ -29917,7 +29910,7 @@
       <c r="AB267" s="5"/>
       <c r="AC267" s="5"/>
     </row>
-    <row r="268" spans="1:32" hidden="true">
+    <row r="268" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>45033</v>
       </c>
@@ -29990,7 +29983,7 @@
       <c r="X268" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="Y268" s="7" t="s">
+      <c r="Y268" s="5" t="s">
         <v>1178</v>
       </c>
       <c r="Z268" s="5" t="s">
@@ -30002,7 +29995,7 @@
       <c r="AB268" s="5"/>
       <c r="AC268" s="5"/>
     </row>
-    <row r="269" spans="1:32" hidden="true">
+    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>45033</v>
       </c>
@@ -30075,7 +30068,7 @@
       <c r="X269" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="Y269" s="7" t="s">
+      <c r="Y269" s="5" t="s">
         <v>1180</v>
       </c>
       <c r="Z269" s="5" t="s">
@@ -30087,7 +30080,7 @@
       <c r="AB269" s="5"/>
       <c r="AC269" s="5"/>
     </row>
-    <row r="270" spans="1:32" hidden="true">
+    <row r="270" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>45033</v>
       </c>
@@ -30160,7 +30153,7 @@
       <c r="X270" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="Y270" s="7" t="s">
+      <c r="Y270" s="5" t="s">
         <v>1183</v>
       </c>
       <c r="Z270" s="5" t="s">
@@ -30172,7 +30165,7 @@
       <c r="AB270" s="5"/>
       <c r="AC270" s="5"/>
     </row>
-    <row r="271" spans="1:32" hidden="true">
+    <row r="271" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>45033</v>
       </c>
@@ -30245,7 +30238,7 @@
       <c r="X271" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="Y271" s="7" t="s">
+      <c r="Y271" s="5" t="s">
         <v>1187</v>
       </c>
       <c r="Z271" s="5" t="s">
@@ -30257,7 +30250,7 @@
       <c r="AB271" s="5"/>
       <c r="AC271" s="5"/>
     </row>
-    <row r="272" spans="1:32" hidden="true">
+    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>45033</v>
       </c>
@@ -30330,7 +30323,7 @@
       <c r="X272" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="Y272" s="7" t="s">
+      <c r="Y272" s="5" t="s">
         <v>1193</v>
       </c>
       <c r="Z272" s="5" t="s">
@@ -30342,7 +30335,7 @@
       <c r="AB272" s="5"/>
       <c r="AC272" s="5"/>
     </row>
-    <row r="273" spans="1:32" hidden="true">
+    <row r="273" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>45033</v>
       </c>
@@ -30415,13 +30408,13 @@
       <c r="X273" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="Y273" s="7"/>
+      <c r="Y273" s="5"/>
       <c r="Z273" s="5"/>
       <c r="AA273" s="5"/>
       <c r="AB273" s="5"/>
       <c r="AC273" s="5"/>
     </row>
-    <row r="274" spans="1:32" hidden="true">
+    <row r="274" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>45033</v>
       </c>
@@ -30494,7 +30487,7 @@
       <c r="X274" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="Y274" s="7" t="s">
+      <c r="Y274" s="5" t="s">
         <v>1187</v>
       </c>
       <c r="Z274" s="5" t="s">
@@ -30506,7 +30499,7 @@
       <c r="AB274" s="5"/>
       <c r="AC274" s="5"/>
     </row>
-    <row r="275" spans="1:32" hidden="true">
+    <row r="275" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>45033</v>
       </c>
@@ -30579,7 +30572,7 @@
       <c r="X275" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="Y275" s="7" t="s">
+      <c r="Y275" s="5" t="s">
         <v>1187</v>
       </c>
       <c r="Z275" s="5" t="s">
@@ -30591,7 +30584,7 @@
       <c r="AB275" s="5"/>
       <c r="AC275" s="5"/>
     </row>
-    <row r="276" spans="1:32" hidden="true">
+    <row r="276" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
         <v>45033</v>
       </c>
@@ -30664,7 +30657,7 @@
       <c r="X276" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="Y276" s="7" t="s">
+      <c r="Y276" s="5" t="s">
         <v>1197</v>
       </c>
       <c r="Z276" s="5" t="s">
@@ -30676,7 +30669,7 @@
       <c r="AB276" s="5"/>
       <c r="AC276" s="5"/>
     </row>
-    <row r="277" spans="1:32" hidden="true">
+    <row r="277" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
         <v>45033</v>
       </c>
@@ -30749,7 +30742,7 @@
       <c r="X277" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="Y277" s="7" t="s">
+      <c r="Y277" s="5" t="s">
         <v>1200</v>
       </c>
       <c r="Z277" s="5" t="s">
@@ -30761,7 +30754,7 @@
       <c r="AB277" s="5"/>
       <c r="AC277" s="5"/>
     </row>
-    <row r="278" spans="1:32" hidden="true">
+    <row r="278" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>45033</v>
       </c>
@@ -30834,7 +30827,7 @@
       <c r="X278" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="Y278" s="7" t="s">
+      <c r="Y278" s="5" t="s">
         <v>1203</v>
       </c>
       <c r="Z278" s="5" t="s">
@@ -30846,7 +30839,7 @@
       <c r="AB278" s="5"/>
       <c r="AC278" s="5"/>
     </row>
-    <row r="279" spans="1:32" hidden="true">
+    <row r="279" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>45033</v>
       </c>
@@ -30919,7 +30912,7 @@
       <c r="X279" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="Y279" s="7" t="s">
+      <c r="Y279" s="5" t="s">
         <v>1207</v>
       </c>
       <c r="Z279" s="5" t="s">
@@ -30931,7 +30924,7 @@
       <c r="AB279" s="5"/>
       <c r="AC279" s="5"/>
     </row>
-    <row r="280" spans="1:32" hidden="true">
+    <row r="280" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>45033</v>
       </c>
@@ -31004,7 +30997,7 @@
       <c r="X280" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="Y280" s="7" t="s">
+      <c r="Y280" s="5" t="s">
         <v>1210</v>
       </c>
       <c r="Z280" s="5" t="s">
@@ -31016,7 +31009,7 @@
       <c r="AB280" s="5"/>
       <c r="AC280" s="5"/>
     </row>
-    <row r="281" spans="1:32" hidden="true">
+    <row r="281" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>45033</v>
       </c>
@@ -31089,7 +31082,7 @@
       <c r="X281" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="Y281" s="7" t="s">
+      <c r="Y281" s="5" t="s">
         <v>1215</v>
       </c>
       <c r="Z281" s="5" t="s">
@@ -31101,7 +31094,7 @@
       <c r="AB281" s="5"/>
       <c r="AC281" s="5"/>
     </row>
-    <row r="282" spans="1:32" hidden="true">
+    <row r="282" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>45033</v>
       </c>
@@ -31174,7 +31167,7 @@
       <c r="X282" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="Y282" s="7" t="s">
+      <c r="Y282" s="5" t="s">
         <v>1220</v>
       </c>
       <c r="Z282" s="5" t="s">
@@ -31186,7 +31179,7 @@
       <c r="AB282" s="5"/>
       <c r="AC282" s="5"/>
     </row>
-    <row r="283" spans="1:32" hidden="true">
+    <row r="283" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>45033</v>
       </c>
@@ -31259,7 +31252,7 @@
       <c r="X283" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="Y283" s="7" t="s">
+      <c r="Y283" s="5" t="s">
         <v>1225</v>
       </c>
       <c r="Z283" s="5" t="s">
@@ -31271,7 +31264,7 @@
       <c r="AB283" s="5"/>
       <c r="AC283" s="5"/>
     </row>
-    <row r="284" spans="1:32" hidden="true">
+    <row r="284" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>45033</v>
       </c>
@@ -31344,7 +31337,7 @@
       <c r="X284" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="Y284" s="7" t="s">
+      <c r="Y284" s="5" t="s">
         <v>1228</v>
       </c>
       <c r="Z284" s="5" t="s">
@@ -31356,7 +31349,7 @@
       <c r="AB284" s="5"/>
       <c r="AC284" s="5"/>
     </row>
-    <row r="285" spans="1:32" hidden="true">
+    <row r="285" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>45033</v>
       </c>
@@ -31429,7 +31422,7 @@
       <c r="X285" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="Y285" s="7" t="s">
+      <c r="Y285" s="5" t="s">
         <v>1231</v>
       </c>
       <c r="Z285" s="5" t="s">
@@ -31454,7 +31447,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="286" spans="1:32" hidden="true">
+    <row r="286" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>45033</v>
       </c>
@@ -31527,7 +31520,7 @@
       <c r="X286" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="Y286" s="7" t="s">
+      <c r="Y286" s="5" t="s">
         <v>1233</v>
       </c>
       <c r="Z286" s="5" t="s">
@@ -31539,7 +31532,7 @@
       <c r="AB286" s="5"/>
       <c r="AC286" s="5"/>
     </row>
-    <row r="287" spans="1:32" hidden="true">
+    <row r="287" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>45033</v>
       </c>
@@ -31612,7 +31605,7 @@
       <c r="X287" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="Y287" s="7" t="s">
+      <c r="Y287" s="5" t="s">
         <v>1236</v>
       </c>
       <c r="Z287" s="5" t="s">
@@ -31624,7 +31617,7 @@
       <c r="AB287" s="5"/>
       <c r="AC287" s="5"/>
     </row>
-    <row r="288" spans="1:32" hidden="true">
+    <row r="288" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>45033</v>
       </c>
@@ -31697,7 +31690,7 @@
       <c r="X288" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="Y288" s="7" t="s">
+      <c r="Y288" s="5" t="s">
         <v>1239</v>
       </c>
       <c r="Z288" s="5" t="s">
@@ -31709,7 +31702,7 @@
       <c r="AB288" s="5"/>
       <c r="AC288" s="5"/>
     </row>
-    <row r="289" spans="1:32" hidden="true">
+    <row r="289" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>45033</v>
       </c>
@@ -31782,7 +31775,7 @@
       <c r="X289" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="Y289" s="7" t="s">
+      <c r="Y289" s="5" t="s">
         <v>1242</v>
       </c>
       <c r="Z289" s="5"/>
@@ -31792,7 +31785,7 @@
       <c r="AB289" s="5"/>
       <c r="AC289" s="5"/>
     </row>
-    <row r="290" spans="1:32" hidden="true">
+    <row r="290" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>45033</v>
       </c>
@@ -31865,7 +31858,7 @@
       <c r="X290" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="Y290" s="7" t="s">
+      <c r="Y290" s="5" t="s">
         <v>1245</v>
       </c>
       <c r="Z290" s="5"/>
@@ -31875,7 +31868,7 @@
       <c r="AB290" s="5"/>
       <c r="AC290" s="5"/>
     </row>
-    <row r="291" spans="1:32" hidden="true">
+    <row r="291" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>45033</v>
       </c>
@@ -31948,13 +31941,13 @@
       <c r="X291" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="Y291" s="7"/>
+      <c r="Y291" s="5"/>
       <c r="Z291" s="5"/>
       <c r="AA291" s="5"/>
       <c r="AB291" s="5"/>
       <c r="AC291" s="5"/>
     </row>
-    <row r="292" spans="1:32" hidden="true">
+    <row r="292" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>45033</v>
       </c>
@@ -32027,13 +32020,13 @@
       <c r="X292" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="Y292" s="7"/>
+      <c r="Y292" s="5"/>
       <c r="Z292" s="5"/>
       <c r="AA292" s="5"/>
       <c r="AB292" s="5"/>
       <c r="AC292" s="5"/>
     </row>
-    <row r="293" spans="1:32" hidden="true">
+    <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>45033</v>
       </c>
@@ -32106,7 +32099,7 @@
       <c r="X293" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y293" s="7" t="s">
+      <c r="Y293" s="5" t="s">
         <v>1253</v>
       </c>
       <c r="Z293" s="5"/>
@@ -32116,7 +32109,7 @@
       <c r="AB293" s="5"/>
       <c r="AC293" s="5"/>
     </row>
-    <row r="294" spans="1:32" hidden="true">
+    <row r="294" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>45033</v>
       </c>
@@ -32189,7 +32182,7 @@
       <c r="X294" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y294" s="7" t="s">
+      <c r="Y294" s="5" t="s">
         <v>1257</v>
       </c>
       <c r="Z294" s="5" t="s">
@@ -32201,7 +32194,7 @@
       <c r="AB294" s="5"/>
       <c r="AC294" s="5"/>
     </row>
-    <row r="295" spans="1:32" hidden="true">
+    <row r="295" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>45033</v>
       </c>
@@ -32274,7 +32267,7 @@
       <c r="X295" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y295" s="7" t="s">
+      <c r="Y295" s="5" t="s">
         <v>1260</v>
       </c>
       <c r="Z295" s="5" t="s">
@@ -32286,7 +32279,7 @@
       <c r="AB295" s="5"/>
       <c r="AC295" s="5"/>
     </row>
-    <row r="296" spans="1:32" hidden="true">
+    <row r="296" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>45033</v>
       </c>
@@ -32359,7 +32352,7 @@
       <c r="X296" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y296" s="7" t="s">
+      <c r="Y296" s="5" t="s">
         <v>1263</v>
       </c>
       <c r="Z296" s="5" t="s">
@@ -32371,7 +32364,7 @@
       <c r="AB296" s="5"/>
       <c r="AC296" s="5"/>
     </row>
-    <row r="297" spans="1:32" hidden="true">
+    <row r="297" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>45033</v>
       </c>
@@ -32444,13 +32437,13 @@
       <c r="X297" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y297" s="7"/>
+      <c r="Y297" s="5"/>
       <c r="Z297" s="5"/>
       <c r="AA297" s="5"/>
       <c r="AB297" s="5"/>
       <c r="AC297" s="5"/>
     </row>
-    <row r="298" spans="1:32" hidden="true">
+    <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
         <v>45033</v>
       </c>
@@ -32523,7 +32516,7 @@
       <c r="X298" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y298" s="7" t="s">
+      <c r="Y298" s="5" t="s">
         <v>1269</v>
       </c>
       <c r="Z298" s="5" t="s">
@@ -32535,7 +32528,7 @@
       <c r="AB298" s="5"/>
       <c r="AC298" s="5"/>
     </row>
-    <row r="299" spans="1:32" hidden="true">
+    <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>45033</v>
       </c>
@@ -32608,13 +32601,13 @@
       <c r="X299" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y299" s="7"/>
+      <c r="Y299" s="5"/>
       <c r="Z299" s="5"/>
       <c r="AA299" s="5"/>
       <c r="AB299" s="5"/>
       <c r="AC299" s="5"/>
     </row>
-    <row r="300" spans="1:32" hidden="true">
+    <row r="300" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>45033</v>
       </c>
@@ -32687,7 +32680,7 @@
       <c r="X300" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y300" s="7" t="s">
+      <c r="Y300" s="5" t="s">
         <v>1274</v>
       </c>
       <c r="Z300" s="5" t="s">
@@ -32699,7 +32692,7 @@
       <c r="AB300" s="5"/>
       <c r="AC300" s="5"/>
     </row>
-    <row r="301" spans="1:32" hidden="true">
+    <row r="301" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
         <v>45033</v>
       </c>
@@ -32772,7 +32765,7 @@
       <c r="X301" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y301" s="7" t="s">
+      <c r="Y301" s="5" t="s">
         <v>1279</v>
       </c>
       <c r="Z301" s="5" t="s">
@@ -32784,7 +32777,7 @@
       <c r="AB301" s="5"/>
       <c r="AC301" s="5"/>
     </row>
-    <row r="302" spans="1:32" hidden="true">
+    <row r="302" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>45033</v>
       </c>
@@ -32857,7 +32850,7 @@
       <c r="X302" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y302" s="7" t="s">
+      <c r="Y302" s="5" t="s">
         <v>1281</v>
       </c>
       <c r="Z302" s="5" t="s">
@@ -32869,7 +32862,7 @@
       <c r="AB302" s="5"/>
       <c r="AC302" s="5"/>
     </row>
-    <row r="303" spans="1:32" hidden="true">
+    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
         <v>45033</v>
       </c>
@@ -32942,7 +32935,7 @@
       <c r="X303" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y303" s="7" t="s">
+      <c r="Y303" s="5" t="s">
         <v>1285</v>
       </c>
       <c r="Z303" s="5" t="s">
@@ -32954,7 +32947,7 @@
       <c r="AB303" s="5"/>
       <c r="AC303" s="5"/>
     </row>
-    <row r="304" spans="1:32" hidden="true">
+    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
         <v>45033</v>
       </c>
@@ -33027,7 +33020,7 @@
       <c r="X304" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y304" s="7" t="s">
+      <c r="Y304" s="5" t="s">
         <v>1290</v>
       </c>
       <c r="Z304" s="5" t="s">
@@ -33039,7 +33032,7 @@
       <c r="AB304" s="5"/>
       <c r="AC304" s="5"/>
     </row>
-    <row r="305" spans="1:32" hidden="true">
+    <row r="305" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
         <v>45033</v>
       </c>
@@ -33112,7 +33105,7 @@
       <c r="X305" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y305" s="7" t="s">
+      <c r="Y305" s="5" t="s">
         <v>1292</v>
       </c>
       <c r="Z305" s="5" t="s">
@@ -33124,7 +33117,7 @@
       <c r="AB305" s="5"/>
       <c r="AC305" s="5"/>
     </row>
-    <row r="306" spans="1:32" hidden="true">
+    <row r="306" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
         <v>45033</v>
       </c>
@@ -33197,7 +33190,7 @@
       <c r="X306" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y306" s="7" t="s">
+      <c r="Y306" s="5" t="s">
         <v>1295</v>
       </c>
       <c r="Z306" s="5" t="s">
@@ -33209,7 +33202,7 @@
       <c r="AB306" s="5"/>
       <c r="AC306" s="5"/>
     </row>
-    <row r="307" spans="1:32" hidden="true">
+    <row r="307" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
         <v>45033</v>
       </c>
@@ -33282,7 +33275,7 @@
       <c r="X307" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y307" s="7" t="s">
+      <c r="Y307" s="5" t="s">
         <v>1298</v>
       </c>
       <c r="Z307" s="5"/>
@@ -33292,7 +33285,7 @@
       <c r="AB307" s="5"/>
       <c r="AC307" s="5"/>
     </row>
-    <row r="308" spans="1:32" hidden="true">
+    <row r="308" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
         <v>45033</v>
       </c>
@@ -33365,7 +33358,7 @@
       <c r="X308" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y308" s="7" t="s">
+      <c r="Y308" s="5" t="s">
         <v>1300</v>
       </c>
       <c r="Z308" s="5" t="s">
@@ -33377,7 +33370,7 @@
       <c r="AB308" s="5"/>
       <c r="AC308" s="5"/>
     </row>
-    <row r="309" spans="1:32" hidden="true">
+    <row r="309" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
         <v>45033</v>
       </c>
@@ -33450,7 +33443,7 @@
       <c r="X309" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y309" s="7" t="s">
+      <c r="Y309" s="5" t="s">
         <v>1304</v>
       </c>
       <c r="Z309" s="5" t="s">
@@ -33462,7 +33455,7 @@
       <c r="AB309" s="5"/>
       <c r="AC309" s="5"/>
     </row>
-    <row r="310" spans="1:32" hidden="true">
+    <row r="310" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
         <v>45033</v>
       </c>
@@ -33535,7 +33528,7 @@
       <c r="X310" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y310" s="7" t="s">
+      <c r="Y310" s="5" t="s">
         <v>1307</v>
       </c>
       <c r="Z310" s="5" t="s">
@@ -33547,7 +33540,7 @@
       <c r="AB310" s="5"/>
       <c r="AC310" s="5"/>
     </row>
-    <row r="311" spans="1:32" hidden="true">
+    <row r="311" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
         <v>45033</v>
       </c>
@@ -33620,7 +33613,7 @@
       <c r="X311" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y311" s="7" t="s">
+      <c r="Y311" s="5" t="s">
         <v>1310</v>
       </c>
       <c r="Z311" s="5" t="s">
@@ -33632,7 +33625,7 @@
       <c r="AB311" s="5"/>
       <c r="AC311" s="5"/>
     </row>
-    <row r="312" spans="1:32" hidden="true">
+    <row r="312" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
         <v>45033</v>
       </c>
@@ -33705,7 +33698,7 @@
       <c r="X312" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y312" s="7" t="s">
+      <c r="Y312" s="5" t="s">
         <v>1312</v>
       </c>
       <c r="Z312" s="5" t="s">
@@ -33717,7 +33710,7 @@
       <c r="AB312" s="5"/>
       <c r="AC312" s="5"/>
     </row>
-    <row r="313" spans="1:32" hidden="true">
+    <row r="313" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
         <v>45033</v>
       </c>
@@ -33790,7 +33783,7 @@
       <c r="X313" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y313" s="7" t="s">
+      <c r="Y313" s="5" t="s">
         <v>1314</v>
       </c>
       <c r="Z313" s="5" t="s">
@@ -33802,7 +33795,7 @@
       <c r="AB313" s="5"/>
       <c r="AC313" s="5"/>
     </row>
-    <row r="314" spans="1:32" hidden="true">
+    <row r="314" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
         <v>45033</v>
       </c>
@@ -33875,7 +33868,7 @@
       <c r="X314" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y314" s="7" t="s">
+      <c r="Y314" s="5" t="s">
         <v>1317</v>
       </c>
       <c r="Z314" s="5" t="s">
@@ -33887,7 +33880,7 @@
       <c r="AB314" s="5"/>
       <c r="AC314" s="5"/>
     </row>
-    <row r="315" spans="1:32" hidden="true">
+    <row r="315" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
         <v>45033</v>
       </c>
@@ -33960,7 +33953,7 @@
       <c r="X315" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y315" s="7" t="s">
+      <c r="Y315" s="5" t="s">
         <v>1321</v>
       </c>
       <c r="Z315" s="5" t="s">
@@ -33972,7 +33965,7 @@
       <c r="AB315" s="5"/>
       <c r="AC315" s="5"/>
     </row>
-    <row r="316" spans="1:32" hidden="true">
+    <row r="316" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
         <v>45033</v>
       </c>
@@ -34045,7 +34038,7 @@
       <c r="X316" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y316" s="7" t="s">
+      <c r="Y316" s="5" t="s">
         <v>1325</v>
       </c>
       <c r="Z316" s="5" t="s">
@@ -34057,7 +34050,7 @@
       <c r="AB316" s="5"/>
       <c r="AC316" s="5"/>
     </row>
-    <row r="317" spans="1:32" hidden="true">
+    <row r="317" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
         <v>45033</v>
       </c>
@@ -34130,7 +34123,7 @@
       <c r="X317" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y317" s="7" t="s">
+      <c r="Y317" s="5" t="s">
         <v>1325</v>
       </c>
       <c r="Z317" s="5" t="s">
@@ -34142,7 +34135,7 @@
       <c r="AB317" s="5"/>
       <c r="AC317" s="5"/>
     </row>
-    <row r="318" spans="1:32" hidden="true">
+    <row r="318" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
         <v>45033</v>
       </c>
@@ -34215,7 +34208,7 @@
       <c r="X318" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="Y318" s="7" t="s">
+      <c r="Y318" s="5" t="s">
         <v>1331</v>
       </c>
       <c r="Z318" s="5"/>
@@ -34225,7 +34218,7 @@
       <c r="AB318" s="5"/>
       <c r="AC318" s="5"/>
     </row>
-    <row r="319" spans="1:32" hidden="true">
+    <row r="319" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
         <v>45033</v>
       </c>
@@ -34298,7 +34291,7 @@
       <c r="X319" s="5" t="s">
         <v>1334</v>
       </c>
-      <c r="Y319" s="7" t="s">
+      <c r="Y319" s="5" t="s">
         <v>1335</v>
       </c>
       <c r="Z319" s="5" t="s">
@@ -34310,7 +34303,7 @@
       <c r="AB319" s="5"/>
       <c r="AC319" s="5"/>
     </row>
-    <row r="320" spans="1:32" hidden="true">
+    <row r="320" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
         <v>45033</v>
       </c>
@@ -34383,7 +34376,7 @@
       <c r="X320" s="5" t="s">
         <v>1334</v>
       </c>
-      <c r="Y320" s="7" t="s">
+      <c r="Y320" s="5" t="s">
         <v>1339</v>
       </c>
       <c r="Z320" s="5" t="s">
@@ -34395,7 +34388,7 @@
       <c r="AB320" s="5"/>
       <c r="AC320" s="5"/>
     </row>
-    <row r="321" spans="1:32" hidden="true">
+    <row r="321" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
         <v>45033</v>
       </c>
@@ -34468,7 +34461,7 @@
       <c r="X321" s="5" t="s">
         <v>1334</v>
       </c>
-      <c r="Y321" s="7" t="s">
+      <c r="Y321" s="5" t="s">
         <v>1343</v>
       </c>
       <c r="Z321" s="5" t="s">
@@ -34480,7 +34473,7 @@
       <c r="AB321" s="5"/>
       <c r="AC321" s="5"/>
     </row>
-    <row r="322" spans="1:32" hidden="true">
+    <row r="322" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
         <v>45033</v>
       </c>
@@ -34553,7 +34546,7 @@
       <c r="X322" s="5" t="s">
         <v>1334</v>
       </c>
-      <c r="Y322" s="7" t="s">
+      <c r="Y322" s="5" t="s">
         <v>1349</v>
       </c>
       <c r="Z322" s="5" t="s">
@@ -34565,7 +34558,7 @@
       <c r="AB322" s="5"/>
       <c r="AC322" s="5"/>
     </row>
-    <row r="323" spans="1:32" hidden="true">
+    <row r="323" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
         <v>45033</v>
       </c>
@@ -34638,7 +34631,7 @@
       <c r="X323" s="5" t="s">
         <v>1334</v>
       </c>
-      <c r="Y323" s="7" t="s">
+      <c r="Y323" s="5" t="s">
         <v>1352</v>
       </c>
       <c r="Z323" s="5" t="s">
@@ -34650,7 +34643,7 @@
       <c r="AB323" s="5"/>
       <c r="AC323" s="5"/>
     </row>
-    <row r="324" spans="1:32" hidden="true">
+    <row r="324" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
         <v>45033</v>
       </c>
@@ -34723,7 +34716,7 @@
       <c r="X324" s="5" t="s">
         <v>1334</v>
       </c>
-      <c r="Y324" s="7" t="s">
+      <c r="Y324" s="5" t="s">
         <v>1354</v>
       </c>
       <c r="Z324" s="5" t="s">
@@ -34735,7 +34728,7 @@
       <c r="AB324" s="5"/>
       <c r="AC324" s="5"/>
     </row>
-    <row r="325" spans="1:32" hidden="true">
+    <row r="325" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
         <v>45033</v>
       </c>
@@ -34808,7 +34801,7 @@
       <c r="X325" s="5" t="s">
         <v>1334</v>
       </c>
-      <c r="Y325" s="7" t="s">
+      <c r="Y325" s="5" t="s">
         <v>1356</v>
       </c>
       <c r="Z325" s="5" t="s">
@@ -34820,7 +34813,7 @@
       <c r="AB325" s="5"/>
       <c r="AC325" s="5"/>
     </row>
-    <row r="326" spans="1:32" hidden="true">
+    <row r="326" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
         <v>45033</v>
       </c>
@@ -34893,13 +34886,13 @@
       <c r="X326" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y326" s="7"/>
+      <c r="Y326" s="5"/>
       <c r="Z326" s="5"/>
       <c r="AA326" s="5"/>
       <c r="AB326" s="5"/>
       <c r="AC326" s="5"/>
     </row>
-    <row r="327" spans="1:32" hidden="true">
+    <row r="327" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
         <v>45033</v>
       </c>
@@ -34972,13 +34965,13 @@
       <c r="X327" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y327" s="7"/>
+      <c r="Y327" s="5"/>
       <c r="Z327" s="5"/>
       <c r="AA327" s="5"/>
       <c r="AB327" s="5"/>
       <c r="AC327" s="5"/>
     </row>
-    <row r="328" spans="1:32" hidden="true">
+    <row r="328" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
         <v>45033</v>
       </c>
@@ -35051,13 +35044,13 @@
       <c r="X328" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y328" s="7"/>
+      <c r="Y328" s="5"/>
       <c r="Z328" s="5"/>
       <c r="AA328" s="5"/>
       <c r="AB328" s="5"/>
       <c r="AC328" s="5"/>
     </row>
-    <row r="329" spans="1:32" hidden="true">
+    <row r="329" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>45033</v>
       </c>
@@ -35130,13 +35123,13 @@
       <c r="X329" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y329" s="7"/>
+      <c r="Y329" s="5"/>
       <c r="Z329" s="5"/>
       <c r="AA329" s="5"/>
       <c r="AB329" s="5"/>
       <c r="AC329" s="5"/>
     </row>
-    <row r="330" spans="1:32" hidden="true">
+    <row r="330" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
         <v>45033</v>
       </c>
@@ -35209,13 +35202,13 @@
       <c r="X330" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y330" s="7"/>
+      <c r="Y330" s="5"/>
       <c r="Z330" s="5"/>
       <c r="AA330" s="5"/>
       <c r="AB330" s="5"/>
       <c r="AC330" s="5"/>
     </row>
-    <row r="331" spans="1:32" hidden="true">
+    <row r="331" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
         <v>45033</v>
       </c>
@@ -35288,13 +35281,13 @@
       <c r="X331" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y331" s="7"/>
+      <c r="Y331" s="5"/>
       <c r="Z331" s="5"/>
       <c r="AA331" s="5"/>
       <c r="AB331" s="5"/>
       <c r="AC331" s="5"/>
     </row>
-    <row r="332" spans="1:32" hidden="true">
+    <row r="332" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>45033</v>
       </c>
@@ -35367,13 +35360,13 @@
       <c r="X332" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y332" s="7"/>
+      <c r="Y332" s="5"/>
       <c r="Z332" s="5"/>
       <c r="AA332" s="5"/>
       <c r="AB332" s="5"/>
       <c r="AC332" s="5"/>
     </row>
-    <row r="333" spans="1:32" hidden="true">
+    <row r="333" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
         <v>45033</v>
       </c>
@@ -35446,13 +35439,13 @@
       <c r="X333" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y333" s="7"/>
+      <c r="Y333" s="5"/>
       <c r="Z333" s="5"/>
       <c r="AA333" s="5"/>
       <c r="AB333" s="5"/>
       <c r="AC333" s="5"/>
     </row>
-    <row r="334" spans="1:32" hidden="true">
+    <row r="334" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
         <v>45033</v>
       </c>
@@ -35525,13 +35518,13 @@
       <c r="X334" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y334" s="7"/>
+      <c r="Y334" s="5"/>
       <c r="Z334" s="5"/>
       <c r="AA334" s="5"/>
       <c r="AB334" s="5"/>
       <c r="AC334" s="5"/>
     </row>
-    <row r="335" spans="1:32" hidden="true">
+    <row r="335" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
         <v>45033</v>
       </c>
@@ -35604,13 +35597,13 @@
       <c r="X335" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y335" s="7"/>
+      <c r="Y335" s="5"/>
       <c r="Z335" s="5"/>
       <c r="AA335" s="5"/>
       <c r="AB335" s="5"/>
       <c r="AC335" s="5"/>
     </row>
-    <row r="336" spans="1:32" hidden="true">
+    <row r="336" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
         <v>45033</v>
       </c>
@@ -35683,7 +35676,7 @@
       <c r="X336" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y336" s="7" t="s">
+      <c r="Y336" s="5" t="s">
         <v>1373</v>
       </c>
       <c r="Z336" s="5" t="s">
@@ -35695,7 +35688,7 @@
       <c r="AB336" s="5"/>
       <c r="AC336" s="5"/>
     </row>
-    <row r="337" spans="1:32" hidden="true">
+    <row r="337" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
         <v>45033</v>
       </c>
@@ -35768,13 +35761,13 @@
       <c r="X337" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y337" s="7"/>
+      <c r="Y337" s="5"/>
       <c r="Z337" s="5"/>
       <c r="AA337" s="5"/>
       <c r="AB337" s="5"/>
       <c r="AC337" s="5"/>
     </row>
-    <row r="338" spans="1:32" hidden="true">
+    <row r="338" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
         <v>45033</v>
       </c>
@@ -35847,7 +35840,7 @@
       <c r="X338" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y338" s="7" t="s">
+      <c r="Y338" s="5" t="s">
         <v>1375</v>
       </c>
       <c r="Z338" s="5" t="s">
@@ -35859,7 +35852,7 @@
       <c r="AB338" s="5"/>
       <c r="AC338" s="5"/>
     </row>
-    <row r="339" spans="1:32" hidden="true">
+    <row r="339" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
         <v>45033</v>
       </c>
@@ -35932,13 +35925,13 @@
       <c r="X339" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y339" s="7"/>
+      <c r="Y339" s="5"/>
       <c r="Z339" s="5"/>
       <c r="AA339" s="5"/>
       <c r="AB339" s="5"/>
       <c r="AC339" s="5"/>
     </row>
-    <row r="340" spans="1:32" hidden="true">
+    <row r="340" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
         <v>45033</v>
       </c>
@@ -36011,13 +36004,13 @@
       <c r="X340" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y340" s="7"/>
+      <c r="Y340" s="5"/>
       <c r="Z340" s="5"/>
       <c r="AA340" s="5"/>
       <c r="AB340" s="5"/>
       <c r="AC340" s="5"/>
     </row>
-    <row r="341" spans="1:32" hidden="true">
+    <row r="341" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
         <v>45033</v>
       </c>
@@ -36090,7 +36083,7 @@
       <c r="X341" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y341" s="7" t="s">
+      <c r="Y341" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="Z341" s="5" t="s">
@@ -36102,7 +36095,7 @@
       <c r="AB341" s="5"/>
       <c r="AC341" s="5"/>
     </row>
-    <row r="342" spans="1:32" hidden="true">
+    <row r="342" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
         <v>45033</v>
       </c>
@@ -36175,7 +36168,7 @@
       <c r="X342" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y342" s="7" t="s">
+      <c r="Y342" s="5" t="s">
         <v>1385</v>
       </c>
       <c r="Z342" s="5" t="s">
@@ -36187,7 +36180,7 @@
       <c r="AB342" s="5"/>
       <c r="AC342" s="5"/>
     </row>
-    <row r="343" spans="1:32" hidden="true">
+    <row r="343" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
         <v>45033</v>
       </c>
@@ -36260,13 +36253,13 @@
       <c r="X343" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y343" s="7"/>
+      <c r="Y343" s="5"/>
       <c r="Z343" s="5"/>
       <c r="AA343" s="5"/>
       <c r="AB343" s="5"/>
       <c r="AC343" s="5"/>
     </row>
-    <row r="344" spans="1:32" hidden="true">
+    <row r="344" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
         <v>45033</v>
       </c>
@@ -36339,13 +36332,13 @@
       <c r="X344" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y344" s="7"/>
+      <c r="Y344" s="5"/>
       <c r="Z344" s="5"/>
       <c r="AA344" s="5"/>
       <c r="AB344" s="5"/>
       <c r="AC344" s="5"/>
     </row>
-    <row r="345" spans="1:32" hidden="true">
+    <row r="345" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
         <v>45033</v>
       </c>
@@ -36418,13 +36411,13 @@
       <c r="X345" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y345" s="7"/>
+      <c r="Y345" s="5"/>
       <c r="Z345" s="5"/>
       <c r="AA345" s="5"/>
       <c r="AB345" s="5"/>
       <c r="AC345" s="5"/>
     </row>
-    <row r="346" spans="1:32" hidden="true">
+    <row r="346" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
         <v>45033</v>
       </c>
@@ -36497,7 +36490,7 @@
       <c r="X346" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y346" s="7" t="s">
+      <c r="Y346" s="5" t="s">
         <v>1396</v>
       </c>
       <c r="Z346" s="5" t="s">
@@ -36509,7 +36502,7 @@
       <c r="AB346" s="5"/>
       <c r="AC346" s="5"/>
     </row>
-    <row r="347" spans="1:32" hidden="true">
+    <row r="347" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
         <v>45033</v>
       </c>
@@ -36582,7 +36575,7 @@
       <c r="X347" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y347" s="7" t="s">
+      <c r="Y347" s="5" t="s">
         <v>1401</v>
       </c>
       <c r="Z347" s="5" t="s">
@@ -36594,7 +36587,7 @@
       <c r="AB347" s="5"/>
       <c r="AC347" s="5"/>
     </row>
-    <row r="348" spans="1:32" hidden="true">
+    <row r="348" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
         <v>45033</v>
       </c>
@@ -36667,13 +36660,13 @@
       <c r="X348" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y348" s="7"/>
+      <c r="Y348" s="5"/>
       <c r="Z348" s="5"/>
       <c r="AA348" s="5"/>
       <c r="AB348" s="5"/>
       <c r="AC348" s="5"/>
     </row>
-    <row r="349" spans="1:32" hidden="true">
+    <row r="349" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
         <v>45033</v>
       </c>
@@ -36746,13 +36739,13 @@
       <c r="X349" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Y349" s="7"/>
+      <c r="Y349" s="5"/>
       <c r="Z349" s="5"/>
       <c r="AA349" s="5"/>
       <c r="AB349" s="5"/>
       <c r="AC349" s="5"/>
     </row>
-    <row r="350" spans="1:32" hidden="true">
+    <row r="350" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
         <v>45033</v>
       </c>
@@ -36825,7 +36818,7 @@
       <c r="X350" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y350" s="7" t="s">
+      <c r="Y350" s="5" t="s">
         <v>1413</v>
       </c>
       <c r="Z350" s="5" t="s">
@@ -36837,7 +36830,7 @@
       <c r="AB350" s="5"/>
       <c r="AC350" s="5"/>
     </row>
-    <row r="351" spans="1:32" hidden="true">
+    <row r="351" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
         <v>45033</v>
       </c>
@@ -36910,7 +36903,7 @@
       <c r="X351" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y351" s="7" t="s">
+      <c r="Y351" s="5" t="s">
         <v>1416</v>
       </c>
       <c r="Z351" s="5" t="s">
@@ -36922,7 +36915,7 @@
       <c r="AB351" s="5"/>
       <c r="AC351" s="5"/>
     </row>
-    <row r="352" spans="1:32" hidden="true">
+    <row r="352" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
         <v>45033</v>
       </c>
@@ -36995,7 +36988,7 @@
       <c r="X352" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y352" s="7" t="s">
+      <c r="Y352" s="5" t="s">
         <v>1419</v>
       </c>
       <c r="Z352" s="5" t="s">
@@ -37007,7 +37000,7 @@
       <c r="AB352" s="5"/>
       <c r="AC352" s="5"/>
     </row>
-    <row r="353" spans="1:32" hidden="true">
+    <row r="353" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
         <v>45033</v>
       </c>
@@ -37080,7 +37073,7 @@
       <c r="X353" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y353" s="7" t="s">
+      <c r="Y353" s="5" t="s">
         <v>1422</v>
       </c>
       <c r="Z353" s="5" t="s">
@@ -37092,7 +37085,7 @@
       <c r="AB353" s="5"/>
       <c r="AC353" s="5"/>
     </row>
-    <row r="354" spans="1:32" hidden="true">
+    <row r="354" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
         <v>45033</v>
       </c>
@@ -37165,7 +37158,7 @@
       <c r="X354" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y354" s="7" t="s">
+      <c r="Y354" s="5" t="s">
         <v>1426</v>
       </c>
       <c r="Z354" s="5" t="s">
@@ -37177,7 +37170,7 @@
       <c r="AB354" s="5"/>
       <c r="AC354" s="5"/>
     </row>
-    <row r="355" spans="1:32" hidden="true">
+    <row r="355" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
         <v>45033</v>
       </c>
@@ -37250,7 +37243,7 @@
       <c r="X355" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y355" s="7" t="s">
+      <c r="Y355" s="5" t="s">
         <v>1431</v>
       </c>
       <c r="Z355" s="5" t="s">
@@ -37262,7 +37255,7 @@
       <c r="AB355" s="5"/>
       <c r="AC355" s="5"/>
     </row>
-    <row r="356" spans="1:32" hidden="true">
+    <row r="356" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
         <v>45033</v>
       </c>
@@ -37335,7 +37328,7 @@
       <c r="X356" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y356" s="7" t="s">
+      <c r="Y356" s="5" t="s">
         <v>1434</v>
       </c>
       <c r="Z356" s="5" t="s">
@@ -37347,7 +37340,7 @@
       <c r="AB356" s="5"/>
       <c r="AC356" s="5"/>
     </row>
-    <row r="357" spans="1:32" hidden="true">
+    <row r="357" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
         <v>45033</v>
       </c>
@@ -37420,7 +37413,7 @@
       <c r="X357" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y357" s="7" t="s">
+      <c r="Y357" s="5" t="s">
         <v>1439</v>
       </c>
       <c r="Z357" s="5" t="s">
@@ -37432,7 +37425,7 @@
       <c r="AB357" s="5"/>
       <c r="AC357" s="5"/>
     </row>
-    <row r="358" spans="1:32" hidden="true">
+    <row r="358" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
         <v>45033</v>
       </c>
@@ -37505,7 +37498,7 @@
       <c r="X358" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y358" s="7" t="s">
+      <c r="Y358" s="5" t="s">
         <v>1442</v>
       </c>
       <c r="Z358" s="5" t="s">
@@ -37517,7 +37510,7 @@
       <c r="AB358" s="5"/>
       <c r="AC358" s="5"/>
     </row>
-    <row r="359" spans="1:32" hidden="true">
+    <row r="359" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
         <v>45033</v>
       </c>
@@ -37590,7 +37583,7 @@
       <c r="X359" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y359" s="7" t="s">
+      <c r="Y359" s="5" t="s">
         <v>1444</v>
       </c>
       <c r="Z359" s="5" t="s">
@@ -37602,7 +37595,7 @@
       <c r="AB359" s="5"/>
       <c r="AC359" s="5"/>
     </row>
-    <row r="360" spans="1:32" hidden="true">
+    <row r="360" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
         <v>45033</v>
       </c>
@@ -37675,7 +37668,7 @@
       <c r="X360" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y360" s="7" t="s">
+      <c r="Y360" s="5" t="s">
         <v>1446</v>
       </c>
       <c r="Z360" s="5" t="s">
@@ -37687,7 +37680,7 @@
       <c r="AB360" s="5"/>
       <c r="AC360" s="5"/>
     </row>
-    <row r="361" spans="1:32" hidden="true">
+    <row r="361" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
         <v>45033</v>
       </c>
@@ -37760,7 +37753,7 @@
       <c r="X361" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y361" s="7" t="s">
+      <c r="Y361" s="5" t="s">
         <v>1450</v>
       </c>
       <c r="Z361" s="5" t="s">
@@ -37772,7 +37765,7 @@
       <c r="AB361" s="5"/>
       <c r="AC361" s="5"/>
     </row>
-    <row r="362" spans="1:32" hidden="true">
+    <row r="362" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
         <v>45033</v>
       </c>
@@ -37845,7 +37838,7 @@
       <c r="X362" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y362" s="7" t="s">
+      <c r="Y362" s="5" t="s">
         <v>1454</v>
       </c>
       <c r="Z362" s="5" t="s">
@@ -37857,7 +37850,7 @@
       <c r="AB362" s="5"/>
       <c r="AC362" s="5"/>
     </row>
-    <row r="363" spans="1:32" hidden="true">
+    <row r="363" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
         <v>45033</v>
       </c>
@@ -37930,13 +37923,13 @@
       <c r="X363" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y363" s="7"/>
+      <c r="Y363" s="5"/>
       <c r="Z363" s="5"/>
       <c r="AA363" s="5"/>
       <c r="AB363" s="5"/>
       <c r="AC363" s="5"/>
     </row>
-    <row r="364" spans="1:32" hidden="true">
+    <row r="364" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
         <v>45033</v>
       </c>
@@ -38009,7 +38002,7 @@
       <c r="X364" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y364" s="7" t="s">
+      <c r="Y364" s="5" t="s">
         <v>1457</v>
       </c>
       <c r="Z364" s="5" t="s">
@@ -38021,7 +38014,7 @@
       <c r="AB364" s="5"/>
       <c r="AC364" s="5"/>
     </row>
-    <row r="365" spans="1:32" hidden="true">
+    <row r="365" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
         <v>45033</v>
       </c>
@@ -38094,7 +38087,7 @@
       <c r="X365" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y365" s="7" t="s">
+      <c r="Y365" s="5" t="s">
         <v>1461</v>
       </c>
       <c r="Z365" s="5" t="s">
@@ -38106,7 +38099,7 @@
       <c r="AB365" s="5"/>
       <c r="AC365" s="5"/>
     </row>
-    <row r="366" spans="1:32" hidden="true">
+    <row r="366" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
         <v>45033</v>
       </c>
@@ -38179,7 +38172,7 @@
       <c r="X366" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y366" s="7" t="s">
+      <c r="Y366" s="5" t="s">
         <v>1464</v>
       </c>
       <c r="Z366" s="5" t="s">
@@ -38191,7 +38184,7 @@
       <c r="AB366" s="5"/>
       <c r="AC366" s="5"/>
     </row>
-    <row r="367" spans="1:32" hidden="true">
+    <row r="367" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
         <v>45033</v>
       </c>
@@ -38264,7 +38257,7 @@
       <c r="X367" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y367" s="7" t="s">
+      <c r="Y367" s="5" t="s">
         <v>1468</v>
       </c>
       <c r="Z367" s="5" t="s">
@@ -38276,7 +38269,7 @@
       <c r="AB367" s="5"/>
       <c r="AC367" s="5"/>
     </row>
-    <row r="368" spans="1:32" hidden="true">
+    <row r="368" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
         <v>45033</v>
       </c>
@@ -38349,13 +38342,13 @@
       <c r="X368" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y368" s="7"/>
+      <c r="Y368" s="5"/>
       <c r="Z368" s="5"/>
       <c r="AA368" s="5"/>
       <c r="AB368" s="5"/>
       <c r="AC368" s="5"/>
     </row>
-    <row r="369" spans="1:32" hidden="true">
+    <row r="369" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
         <v>45033</v>
       </c>
@@ -38428,13 +38421,13 @@
       <c r="X369" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y369" s="7"/>
+      <c r="Y369" s="5"/>
       <c r="Z369" s="5"/>
       <c r="AA369" s="5"/>
       <c r="AB369" s="5"/>
       <c r="AC369" s="5"/>
     </row>
-    <row r="370" spans="1:32" hidden="true">
+    <row r="370" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
         <v>45033</v>
       </c>
@@ -38507,7 +38500,7 @@
       <c r="X370" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y370" s="7" t="s">
+      <c r="Y370" s="5" t="s">
         <v>1474</v>
       </c>
       <c r="Z370" s="5" t="s">
@@ -38519,7 +38512,7 @@
       <c r="AB370" s="5"/>
       <c r="AC370" s="5"/>
     </row>
-    <row r="371" spans="1:32" hidden="true">
+    <row r="371" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
         <v>45033</v>
       </c>
@@ -38592,7 +38585,7 @@
       <c r="X371" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y371" s="7" t="s">
+      <c r="Y371" s="5" t="s">
         <v>1478</v>
       </c>
       <c r="Z371" s="5" t="s">
@@ -38604,7 +38597,7 @@
       <c r="AB371" s="5"/>
       <c r="AC371" s="5"/>
     </row>
-    <row r="372" spans="1:32" hidden="true">
+    <row r="372" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
         <v>45033</v>
       </c>
@@ -38677,7 +38670,7 @@
       <c r="X372" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Y372" s="7" t="s">
+      <c r="Y372" s="5" t="s">
         <v>1482</v>
       </c>
       <c r="Z372" s="5"/>
@@ -38687,7 +38680,7 @@
       <c r="AB372" s="5"/>
       <c r="AC372" s="5"/>
     </row>
-    <row r="373" spans="1:32" hidden="true">
+    <row r="373" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
         <v>45033</v>
       </c>
@@ -38760,7 +38753,7 @@
       <c r="X373" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y373" s="7" t="s">
+      <c r="Y373" s="5" t="s">
         <v>1486</v>
       </c>
       <c r="Z373" s="5" t="s">
@@ -38772,7 +38765,7 @@
       <c r="AB373" s="5"/>
       <c r="AC373" s="5"/>
     </row>
-    <row r="374" spans="1:32" hidden="true">
+    <row r="374" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="6">
         <v>45033</v>
       </c>
@@ -38845,7 +38838,7 @@
       <c r="X374" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y374" s="7" t="s">
+      <c r="Y374" s="5" t="s">
         <v>1490</v>
       </c>
       <c r="Z374" s="5" t="s">
@@ -38857,7 +38850,7 @@
       <c r="AB374" s="5"/>
       <c r="AC374" s="5"/>
     </row>
-    <row r="375" spans="1:32" hidden="true">
+    <row r="375" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="6">
         <v>45033</v>
       </c>
@@ -38930,7 +38923,7 @@
       <c r="X375" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y375" s="7" t="s">
+      <c r="Y375" s="5" t="s">
         <v>1493</v>
       </c>
       <c r="Z375" s="5" t="s">
@@ -38942,7 +38935,7 @@
       <c r="AB375" s="5"/>
       <c r="AC375" s="5"/>
     </row>
-    <row r="376" spans="1:32" hidden="true">
+    <row r="376" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
         <v>45033</v>
       </c>
@@ -39015,7 +39008,7 @@
       <c r="X376" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y376" s="7" t="s">
+      <c r="Y376" s="5" t="s">
         <v>1496</v>
       </c>
       <c r="Z376" s="5" t="s">
@@ -39027,7 +39020,7 @@
       <c r="AB376" s="5"/>
       <c r="AC376" s="5"/>
     </row>
-    <row r="377" spans="1:32" hidden="true">
+    <row r="377" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="6">
         <v>45033</v>
       </c>
@@ -39100,7 +39093,7 @@
       <c r="X377" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y377" s="7" t="s">
+      <c r="Y377" s="5" t="s">
         <v>1500</v>
       </c>
       <c r="Z377" s="5" t="s">
@@ -39112,7 +39105,7 @@
       <c r="AB377" s="5"/>
       <c r="AC377" s="5"/>
     </row>
-    <row r="378" spans="1:32" hidden="true">
+    <row r="378" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
         <v>45033</v>
       </c>
@@ -39185,7 +39178,7 @@
       <c r="X378" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y378" s="7" t="s">
+      <c r="Y378" s="5" t="s">
         <v>1504</v>
       </c>
       <c r="Z378" s="5" t="s">
@@ -39197,7 +39190,7 @@
       <c r="AB378" s="5"/>
       <c r="AC378" s="5"/>
     </row>
-    <row r="379" spans="1:32" hidden="true">
+    <row r="379" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
         <v>45033</v>
       </c>
@@ -39270,7 +39263,7 @@
       <c r="X379" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y379" s="7" t="s">
+      <c r="Y379" s="5" t="s">
         <v>1506</v>
       </c>
       <c r="Z379" s="5" t="s">
@@ -39282,7 +39275,7 @@
       <c r="AB379" s="5"/>
       <c r="AC379" s="5"/>
     </row>
-    <row r="380" spans="1:32" hidden="true">
+    <row r="380" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="6">
         <v>45033</v>
       </c>
@@ -39355,7 +39348,7 @@
       <c r="X380" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y380" s="7" t="s">
+      <c r="Y380" s="5" t="s">
         <v>1510</v>
       </c>
       <c r="Z380" s="5" t="s">
@@ -39367,7 +39360,7 @@
       <c r="AB380" s="5"/>
       <c r="AC380" s="5"/>
     </row>
-    <row r="381" spans="1:32" hidden="true">
+    <row r="381" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="6">
         <v>45033</v>
       </c>
@@ -39440,7 +39433,7 @@
       <c r="X381" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y381" s="7" t="s">
+      <c r="Y381" s="5" t="s">
         <v>1513</v>
       </c>
       <c r="Z381" s="5" t="s">
@@ -39452,7 +39445,7 @@
       <c r="AB381" s="5"/>
       <c r="AC381" s="5"/>
     </row>
-    <row r="382" spans="1:32" hidden="true">
+    <row r="382" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="6">
         <v>45033</v>
       </c>
@@ -39525,7 +39518,7 @@
       <c r="X382" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y382" s="7" t="s">
+      <c r="Y382" s="5" t="s">
         <v>1518</v>
       </c>
       <c r="Z382" s="5" t="s">
@@ -39537,7 +39530,7 @@
       <c r="AB382" s="5"/>
       <c r="AC382" s="5"/>
     </row>
-    <row r="383" spans="1:32" hidden="true">
+    <row r="383" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6">
         <v>45033</v>
       </c>
@@ -39610,7 +39603,7 @@
       <c r="X383" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y383" s="7" t="s">
+      <c r="Y383" s="5" t="s">
         <v>1521</v>
       </c>
       <c r="Z383" s="5" t="s">
@@ -39622,7 +39615,7 @@
       <c r="AB383" s="5"/>
       <c r="AC383" s="5"/>
     </row>
-    <row r="384" spans="1:32" hidden="true">
+    <row r="384" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6">
         <v>45033</v>
       </c>
@@ -39695,7 +39688,7 @@
       <c r="X384" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y384" s="7" t="s">
+      <c r="Y384" s="5" t="s">
         <v>1524</v>
       </c>
       <c r="Z384" s="5" t="s">
@@ -39707,7 +39700,7 @@
       <c r="AB384" s="5"/>
       <c r="AC384" s="5"/>
     </row>
-    <row r="385" spans="1:32" hidden="true">
+    <row r="385" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="6">
         <v>45033</v>
       </c>
@@ -39780,7 +39773,7 @@
       <c r="X385" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y385" s="7" t="s">
+      <c r="Y385" s="5" t="s">
         <v>1529</v>
       </c>
       <c r="Z385" s="5" t="s">
@@ -39792,7 +39785,7 @@
       <c r="AB385" s="5"/>
       <c r="AC385" s="5"/>
     </row>
-    <row r="386" spans="1:32" hidden="true">
+    <row r="386" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="6">
         <v>45033</v>
       </c>
@@ -39865,7 +39858,7 @@
       <c r="X386" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y386" s="7" t="s">
+      <c r="Y386" s="5" t="s">
         <v>1532</v>
       </c>
       <c r="Z386" s="5" t="s">
@@ -39877,7 +39870,7 @@
       <c r="AB386" s="5"/>
       <c r="AC386" s="5"/>
     </row>
-    <row r="387" spans="1:32" hidden="true">
+    <row r="387" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="6">
         <v>45033</v>
       </c>
@@ -39950,7 +39943,7 @@
       <c r="X387" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y387" s="7" t="s">
+      <c r="Y387" s="5" t="s">
         <v>1534</v>
       </c>
       <c r="Z387" s="5" t="s">
@@ -39962,7 +39955,7 @@
       <c r="AB387" s="5"/>
       <c r="AC387" s="5"/>
     </row>
-    <row r="388" spans="1:32" hidden="true">
+    <row r="388" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="6">
         <v>45033</v>
       </c>
@@ -40035,7 +40028,7 @@
       <c r="X388" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y388" s="7" t="s">
+      <c r="Y388" s="5" t="s">
         <v>1538</v>
       </c>
       <c r="Z388" s="5" t="s">
@@ -40047,7 +40040,7 @@
       <c r="AB388" s="5"/>
       <c r="AC388" s="5"/>
     </row>
-    <row r="389" spans="1:32" hidden="true">
+    <row r="389" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="6">
         <v>45033</v>
       </c>
@@ -40120,7 +40113,7 @@
       <c r="X389" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y389" s="7" t="s">
+      <c r="Y389" s="5" t="s">
         <v>1541</v>
       </c>
       <c r="Z389" s="5" t="s">
@@ -40132,7 +40125,7 @@
       <c r="AB389" s="5"/>
       <c r="AC389" s="5"/>
     </row>
-    <row r="390" spans="1:32" hidden="true">
+    <row r="390" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="6">
         <v>45033</v>
       </c>
@@ -40205,7 +40198,7 @@
       <c r="X390" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y390" s="7" t="s">
+      <c r="Y390" s="5" t="s">
         <v>1544</v>
       </c>
       <c r="Z390" s="5" t="s">
@@ -40217,7 +40210,7 @@
       <c r="AB390" s="5"/>
       <c r="AC390" s="5"/>
     </row>
-    <row r="391" spans="1:32" hidden="true">
+    <row r="391" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="6">
         <v>45033</v>
       </c>
@@ -40290,7 +40283,7 @@
       <c r="X391" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y391" s="7" t="s">
+      <c r="Y391" s="5" t="s">
         <v>1546</v>
       </c>
       <c r="Z391" s="5" t="s">
@@ -40302,7 +40295,7 @@
       <c r="AB391" s="5"/>
       <c r="AC391" s="5"/>
     </row>
-    <row r="392" spans="1:32" hidden="true">
+    <row r="392" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="6">
         <v>45033</v>
       </c>
@@ -40375,7 +40368,7 @@
       <c r="X392" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y392" s="7" t="s">
+      <c r="Y392" s="5" t="s">
         <v>1550</v>
       </c>
       <c r="Z392" s="5" t="s">
@@ -40387,7 +40380,7 @@
       <c r="AB392" s="5"/>
       <c r="AC392" s="5"/>
     </row>
-    <row r="393" spans="1:32" hidden="true">
+    <row r="393" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="6">
         <v>45033</v>
       </c>
@@ -40460,7 +40453,7 @@
       <c r="X393" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y393" s="7" t="s">
+      <c r="Y393" s="5" t="s">
         <v>1552</v>
       </c>
       <c r="Z393" s="5" t="s">
@@ -40472,7 +40465,7 @@
       <c r="AB393" s="5"/>
       <c r="AC393" s="5"/>
     </row>
-    <row r="394" spans="1:32" hidden="true">
+    <row r="394" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="6">
         <v>45033</v>
       </c>
@@ -40545,7 +40538,7 @@
       <c r="X394" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y394" s="7" t="s">
+      <c r="Y394" s="5" t="s">
         <v>1557</v>
       </c>
       <c r="Z394" s="5" t="s">
@@ -40557,7 +40550,7 @@
       <c r="AB394" s="5"/>
       <c r="AC394" s="5"/>
     </row>
-    <row r="395" spans="1:32" hidden="true">
+    <row r="395" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="6">
         <v>45033</v>
       </c>
@@ -40630,7 +40623,7 @@
       <c r="X395" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y395" s="7" t="s">
+      <c r="Y395" s="5" t="s">
         <v>1560</v>
       </c>
       <c r="Z395" s="5" t="s">
@@ -40642,7 +40635,7 @@
       <c r="AB395" s="5"/>
       <c r="AC395" s="5"/>
     </row>
-    <row r="396" spans="1:32" hidden="true">
+    <row r="396" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="6">
         <v>45033</v>
       </c>
@@ -40715,7 +40708,7 @@
       <c r="X396" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y396" s="7" t="s">
+      <c r="Y396" s="5" t="s">
         <v>1563</v>
       </c>
       <c r="Z396" s="5" t="s">
@@ -40727,7 +40720,7 @@
       <c r="AB396" s="5"/>
       <c r="AC396" s="5"/>
     </row>
-    <row r="397" spans="1:32" hidden="true">
+    <row r="397" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="6">
         <v>45033</v>
       </c>
@@ -40800,7 +40793,7 @@
       <c r="X397" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y397" s="7" t="s">
+      <c r="Y397" s="5" t="s">
         <v>1566</v>
       </c>
       <c r="Z397" s="5" t="s">
@@ -40812,7 +40805,7 @@
       <c r="AB397" s="5"/>
       <c r="AC397" s="5"/>
     </row>
-    <row r="398" spans="1:32" hidden="true">
+    <row r="398" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="6">
         <v>45033</v>
       </c>
@@ -40885,7 +40878,7 @@
       <c r="X398" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y398" s="7" t="s">
+      <c r="Y398" s="5" t="s">
         <v>1568</v>
       </c>
       <c r="Z398" s="5" t="s">
@@ -40897,7 +40890,7 @@
       <c r="AB398" s="5"/>
       <c r="AC398" s="5"/>
     </row>
-    <row r="399" spans="1:32" hidden="true">
+    <row r="399" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="6">
         <v>45033</v>
       </c>
@@ -40970,7 +40963,7 @@
       <c r="X399" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y399" s="7" t="s">
+      <c r="Y399" s="5" t="s">
         <v>1571</v>
       </c>
       <c r="Z399" s="5" t="s">
@@ -40982,7 +40975,7 @@
       <c r="AB399" s="5"/>
       <c r="AC399" s="5"/>
     </row>
-    <row r="400" spans="1:32" hidden="true">
+    <row r="400" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="6">
         <v>45033</v>
       </c>
@@ -41055,7 +41048,7 @@
       <c r="X400" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y400" s="7" t="s">
+      <c r="Y400" s="5" t="s">
         <v>1573</v>
       </c>
       <c r="Z400" s="5" t="s">
@@ -41067,7 +41060,7 @@
       <c r="AB400" s="5"/>
       <c r="AC400" s="5"/>
     </row>
-    <row r="401" spans="1:32" hidden="true">
+    <row r="401" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="6">
         <v>45033</v>
       </c>
@@ -41140,7 +41133,7 @@
       <c r="X401" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y401" s="7" t="s">
+      <c r="Y401" s="5" t="s">
         <v>1578</v>
       </c>
       <c r="Z401" s="5" t="s">
@@ -41152,7 +41145,7 @@
       <c r="AB401" s="5"/>
       <c r="AC401" s="5"/>
     </row>
-    <row r="402" spans="1:32" hidden="true">
+    <row r="402" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="6">
         <v>45033</v>
       </c>
@@ -41225,7 +41218,7 @@
       <c r="X402" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y402" s="7" t="s">
+      <c r="Y402" s="5" t="s">
         <v>1582</v>
       </c>
       <c r="Z402" s="5" t="s">
@@ -41237,7 +41230,7 @@
       <c r="AB402" s="5"/>
       <c r="AC402" s="5"/>
     </row>
-    <row r="403" spans="1:32" hidden="true">
+    <row r="403" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="6">
         <v>45033</v>
       </c>
@@ -41310,7 +41303,7 @@
       <c r="X403" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y403" s="7" t="s">
+      <c r="Y403" s="5" t="s">
         <v>1584</v>
       </c>
       <c r="Z403" s="5" t="s">
@@ -41322,7 +41315,7 @@
       <c r="AB403" s="5"/>
       <c r="AC403" s="5"/>
     </row>
-    <row r="404" spans="1:32" hidden="true">
+    <row r="404" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="6">
         <v>45033</v>
       </c>
@@ -41395,7 +41388,7 @@
       <c r="X404" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y404" s="7" t="s">
+      <c r="Y404" s="5" t="s">
         <v>1586</v>
       </c>
       <c r="Z404" s="5" t="s">
@@ -41407,7 +41400,7 @@
       <c r="AB404" s="5"/>
       <c r="AC404" s="5"/>
     </row>
-    <row r="405" spans="1:32" hidden="true">
+    <row r="405" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="6">
         <v>45033</v>
       </c>
@@ -41480,13 +41473,13 @@
       <c r="X405" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y405" s="7"/>
+      <c r="Y405" s="5"/>
       <c r="Z405" s="5"/>
       <c r="AA405" s="5"/>
       <c r="AB405" s="5"/>
       <c r="AC405" s="5"/>
     </row>
-    <row r="406" spans="1:32" hidden="true">
+    <row r="406" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="6">
         <v>45033</v>
       </c>
@@ -41559,7 +41552,7 @@
       <c r="X406" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y406" s="7" t="s">
+      <c r="Y406" s="5" t="s">
         <v>1588</v>
       </c>
       <c r="Z406" s="5" t="s">
@@ -41571,7 +41564,7 @@
       <c r="AB406" s="5"/>
       <c r="AC406" s="5"/>
     </row>
-    <row r="407" spans="1:32" hidden="true">
+    <row r="407" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="6">
         <v>45033</v>
       </c>
@@ -41644,7 +41637,7 @@
       <c r="X407" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y407" s="7" t="s">
+      <c r="Y407" s="5" t="s">
         <v>1591</v>
       </c>
       <c r="Z407" s="5" t="s">
@@ -41656,7 +41649,7 @@
       <c r="AB407" s="5"/>
       <c r="AC407" s="5"/>
     </row>
-    <row r="408" spans="1:32" hidden="true">
+    <row r="408" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="6">
         <v>45033</v>
       </c>
@@ -41729,7 +41722,7 @@
       <c r="X408" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y408" s="7" t="s">
+      <c r="Y408" s="5" t="s">
         <v>1594</v>
       </c>
       <c r="Z408" s="5" t="s">
@@ -41741,7 +41734,7 @@
       <c r="AB408" s="5"/>
       <c r="AC408" s="5"/>
     </row>
-    <row r="409" spans="1:32" hidden="true">
+    <row r="409" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="6">
         <v>45033</v>
       </c>
@@ -41814,7 +41807,7 @@
       <c r="X409" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y409" s="7" t="s">
+      <c r="Y409" s="5" t="s">
         <v>1597</v>
       </c>
       <c r="Z409" s="5" t="s">
@@ -41826,7 +41819,7 @@
       <c r="AB409" s="5"/>
       <c r="AC409" s="5"/>
     </row>
-    <row r="410" spans="1:32" hidden="true">
+    <row r="410" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="6">
         <v>45033</v>
       </c>
@@ -41899,7 +41892,7 @@
       <c r="X410" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y410" s="7" t="s">
+      <c r="Y410" s="5" t="s">
         <v>1600</v>
       </c>
       <c r="Z410" s="5" t="s">
@@ -41911,7 +41904,7 @@
       <c r="AB410" s="5"/>
       <c r="AC410" s="5"/>
     </row>
-    <row r="411" spans="1:32" hidden="true">
+    <row r="411" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="6">
         <v>45033</v>
       </c>
@@ -41984,7 +41977,7 @@
       <c r="X411" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y411" s="7" t="s">
+      <c r="Y411" s="5" t="s">
         <v>1604</v>
       </c>
       <c r="Z411" s="5" t="s">
@@ -41996,7 +41989,7 @@
       <c r="AB411" s="5"/>
       <c r="AC411" s="5"/>
     </row>
-    <row r="412" spans="1:32" hidden="true">
+    <row r="412" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="6">
         <v>45033</v>
       </c>
@@ -42069,7 +42062,7 @@
       <c r="X412" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y412" s="7" t="s">
+      <c r="Y412" s="5" t="s">
         <v>1607</v>
       </c>
       <c r="Z412" s="5" t="s">
@@ -42081,7 +42074,7 @@
       <c r="AB412" s="5"/>
       <c r="AC412" s="5"/>
     </row>
-    <row r="413" spans="1:32" hidden="true">
+    <row r="413" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="6">
         <v>45033</v>
       </c>
@@ -42154,7 +42147,7 @@
       <c r="X413" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y413" s="7" t="s">
+      <c r="Y413" s="5" t="s">
         <v>1610</v>
       </c>
       <c r="Z413" s="5" t="s">
@@ -42166,7 +42159,7 @@
       <c r="AB413" s="5"/>
       <c r="AC413" s="5"/>
     </row>
-    <row r="414" spans="1:32" hidden="true">
+    <row r="414" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="6">
         <v>45033</v>
       </c>
@@ -42239,7 +42232,7 @@
       <c r="X414" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y414" s="7" t="s">
+      <c r="Y414" s="5" t="s">
         <v>1614</v>
       </c>
       <c r="Z414" s="5" t="s">
@@ -42251,7 +42244,7 @@
       <c r="AB414" s="5"/>
       <c r="AC414" s="5"/>
     </row>
-    <row r="415" spans="1:32" hidden="true">
+    <row r="415" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="6">
         <v>45033</v>
       </c>
@@ -42324,7 +42317,7 @@
       <c r="X415" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y415" s="7" t="s">
+      <c r="Y415" s="5" t="s">
         <v>1616</v>
       </c>
       <c r="Z415" s="5" t="s">
@@ -42336,7 +42329,7 @@
       <c r="AB415" s="5"/>
       <c r="AC415" s="5"/>
     </row>
-    <row r="416" spans="1:32" hidden="true">
+    <row r="416" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="6">
         <v>45033</v>
       </c>
@@ -42409,7 +42402,7 @@
       <c r="X416" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y416" s="7" t="s">
+      <c r="Y416" s="5" t="s">
         <v>1620</v>
       </c>
       <c r="Z416" s="5" t="s">
@@ -42421,7 +42414,7 @@
       <c r="AB416" s="5"/>
       <c r="AC416" s="5"/>
     </row>
-    <row r="417" spans="1:32" hidden="true">
+    <row r="417" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="6">
         <v>45033</v>
       </c>
@@ -42494,13 +42487,13 @@
       <c r="X417" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y417" s="7"/>
+      <c r="Y417" s="5"/>
       <c r="Z417" s="5"/>
       <c r="AA417" s="5"/>
       <c r="AB417" s="5"/>
       <c r="AC417" s="5"/>
     </row>
-    <row r="418" spans="1:32" hidden="true">
+    <row r="418" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="6">
         <v>45033</v>
       </c>
@@ -42573,13 +42566,13 @@
       <c r="X418" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y418" s="7"/>
+      <c r="Y418" s="5"/>
       <c r="Z418" s="5"/>
       <c r="AA418" s="5"/>
       <c r="AB418" s="5"/>
       <c r="AC418" s="5"/>
     </row>
-    <row r="419" spans="1:32" hidden="true">
+    <row r="419" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="6">
         <v>45033</v>
       </c>
@@ -42652,7 +42645,7 @@
       <c r="X419" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y419" s="7" t="s">
+      <c r="Y419" s="5" t="s">
         <v>1628</v>
       </c>
       <c r="Z419" s="5" t="s">
@@ -42664,7 +42657,7 @@
       <c r="AB419" s="5"/>
       <c r="AC419" s="5"/>
     </row>
-    <row r="420" spans="1:32" hidden="true">
+    <row r="420" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="6">
         <v>45033</v>
       </c>
@@ -42737,7 +42730,7 @@
       <c r="X420" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y420" s="7" t="s">
+      <c r="Y420" s="5" t="s">
         <v>1631</v>
       </c>
       <c r="Z420" s="5" t="s">
@@ -42749,7 +42742,7 @@
       <c r="AB420" s="5"/>
       <c r="AC420" s="5"/>
     </row>
-    <row r="421" spans="1:32" hidden="true">
+    <row r="421" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="6">
         <v>45033</v>
       </c>
@@ -42822,7 +42815,7 @@
       <c r="X421" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y421" s="7" t="s">
+      <c r="Y421" s="5" t="s">
         <v>1633</v>
       </c>
       <c r="Z421" s="5" t="s">
@@ -42834,7 +42827,7 @@
       <c r="AB421" s="5"/>
       <c r="AC421" s="5"/>
     </row>
-    <row r="422" spans="1:32" hidden="true">
+    <row r="422" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="6">
         <v>45033</v>
       </c>
@@ -42907,7 +42900,7 @@
       <c r="X422" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y422" s="7" t="s">
+      <c r="Y422" s="5" t="s">
         <v>1635</v>
       </c>
       <c r="Z422" s="5" t="s">
@@ -42919,7 +42912,7 @@
       <c r="AB422" s="5"/>
       <c r="AC422" s="5"/>
     </row>
-    <row r="423" spans="1:32" hidden="true">
+    <row r="423" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="6">
         <v>45033</v>
       </c>
@@ -42992,7 +42985,7 @@
       <c r="X423" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y423" s="7" t="s">
+      <c r="Y423" s="5" t="s">
         <v>1639</v>
       </c>
       <c r="Z423" s="5" t="s">
@@ -43004,7 +42997,7 @@
       <c r="AB423" s="5"/>
       <c r="AC423" s="5"/>
     </row>
-    <row r="424" spans="1:32" hidden="true">
+    <row r="424" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="6">
         <v>45033</v>
       </c>
@@ -43077,7 +43070,7 @@
       <c r="X424" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y424" s="7" t="s">
+      <c r="Y424" s="5" t="s">
         <v>1641</v>
       </c>
       <c r="Z424" s="5" t="s">
@@ -43089,7 +43082,7 @@
       <c r="AB424" s="5"/>
       <c r="AC424" s="5"/>
     </row>
-    <row r="425" spans="1:32" hidden="true">
+    <row r="425" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="6">
         <v>45033</v>
       </c>
@@ -43162,7 +43155,7 @@
       <c r="X425" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y425" s="7" t="s">
+      <c r="Y425" s="5" t="s">
         <v>1644</v>
       </c>
       <c r="Z425" s="5" t="s">
@@ -43174,7 +43167,7 @@
       <c r="AB425" s="5"/>
       <c r="AC425" s="5"/>
     </row>
-    <row r="426" spans="1:32" hidden="true">
+    <row r="426" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="6">
         <v>45033</v>
       </c>
@@ -43247,7 +43240,7 @@
       <c r="X426" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y426" s="7" t="s">
+      <c r="Y426" s="5" t="s">
         <v>1648</v>
       </c>
       <c r="Z426" s="5" t="s">
@@ -43259,7 +43252,7 @@
       <c r="AB426" s="5"/>
       <c r="AC426" s="5"/>
     </row>
-    <row r="427" spans="1:32" hidden="true">
+    <row r="427" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="6">
         <v>45033</v>
       </c>
@@ -43332,7 +43325,7 @@
       <c r="X427" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y427" s="7" t="s">
+      <c r="Y427" s="5" t="s">
         <v>1650</v>
       </c>
       <c r="Z427" s="5" t="s">
@@ -43344,7 +43337,7 @@
       <c r="AB427" s="5"/>
       <c r="AC427" s="5"/>
     </row>
-    <row r="428" spans="1:32" hidden="true">
+    <row r="428" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="6">
         <v>45033</v>
       </c>
@@ -43417,7 +43410,7 @@
       <c r="X428" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y428" s="7" t="s">
+      <c r="Y428" s="5" t="s">
         <v>1653</v>
       </c>
       <c r="Z428" s="5" t="s">
@@ -43429,7 +43422,7 @@
       <c r="AB428" s="5"/>
       <c r="AC428" s="5"/>
     </row>
-    <row r="429" spans="1:32" hidden="true">
+    <row r="429" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6">
         <v>45033</v>
       </c>
@@ -43502,7 +43495,7 @@
       <c r="X429" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y429" s="7" t="s">
+      <c r="Y429" s="5" t="s">
         <v>1656</v>
       </c>
       <c r="Z429" s="5" t="s">
@@ -43514,7 +43507,7 @@
       <c r="AB429" s="5"/>
       <c r="AC429" s="5"/>
     </row>
-    <row r="430" spans="1:32" hidden="true">
+    <row r="430" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="6">
         <v>45033</v>
       </c>
@@ -43587,7 +43580,7 @@
       <c r="X430" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y430" s="7" t="s">
+      <c r="Y430" s="5" t="s">
         <v>1660</v>
       </c>
       <c r="Z430" s="5" t="s">
@@ -43599,7 +43592,7 @@
       <c r="AB430" s="5"/>
       <c r="AC430" s="5"/>
     </row>
-    <row r="431" spans="1:32" hidden="true">
+    <row r="431" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="6">
         <v>45033</v>
       </c>
@@ -43672,7 +43665,7 @@
       <c r="X431" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y431" s="7" t="s">
+      <c r="Y431" s="5" t="s">
         <v>1664</v>
       </c>
       <c r="Z431" s="5" t="s">
@@ -43684,7 +43677,7 @@
       <c r="AB431" s="5"/>
       <c r="AC431" s="5"/>
     </row>
-    <row r="432" spans="1:32" hidden="true">
+    <row r="432" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="6">
         <v>45033</v>
       </c>
@@ -43757,7 +43750,7 @@
       <c r="X432" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y432" s="7" t="s">
+      <c r="Y432" s="5" t="s">
         <v>1667</v>
       </c>
       <c r="Z432" s="5"/>
@@ -43767,7 +43760,7 @@
       <c r="AB432" s="5"/>
       <c r="AC432" s="5"/>
     </row>
-    <row r="433" spans="1:32" hidden="true">
+    <row r="433" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="6">
         <v>45033</v>
       </c>
@@ -43840,7 +43833,7 @@
       <c r="X433" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y433" s="7" t="s">
+      <c r="Y433" s="5" t="s">
         <v>1669</v>
       </c>
       <c r="Z433" s="5" t="s">
@@ -43852,7 +43845,7 @@
       <c r="AB433" s="5"/>
       <c r="AC433" s="5"/>
     </row>
-    <row r="434" spans="1:32" hidden="true">
+    <row r="434" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="6">
         <v>45033</v>
       </c>
@@ -43925,7 +43918,7 @@
       <c r="X434" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y434" s="7" t="s">
+      <c r="Y434" s="5" t="s">
         <v>1672</v>
       </c>
       <c r="Z434" s="5" t="s">
@@ -43937,7 +43930,7 @@
       <c r="AB434" s="5"/>
       <c r="AC434" s="5"/>
     </row>
-    <row r="435" spans="1:32" hidden="true">
+    <row r="435" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="6">
         <v>45033</v>
       </c>
@@ -44010,13 +44003,13 @@
       <c r="X435" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y435" s="7"/>
+      <c r="Y435" s="5"/>
       <c r="Z435" s="5"/>
       <c r="AA435" s="5"/>
       <c r="AB435" s="5"/>
       <c r="AC435" s="5"/>
     </row>
-    <row r="436" spans="1:32" hidden="true">
+    <row r="436" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="6">
         <v>45033</v>
       </c>
@@ -44089,13 +44082,13 @@
       <c r="X436" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y436" s="7"/>
+      <c r="Y436" s="5"/>
       <c r="Z436" s="5"/>
       <c r="AA436" s="5"/>
       <c r="AB436" s="5"/>
       <c r="AC436" s="5"/>
     </row>
-    <row r="437" spans="1:32" hidden="true">
+    <row r="437" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="6">
         <v>45033</v>
       </c>
@@ -44168,7 +44161,7 @@
       <c r="X437" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y437" s="7" t="s">
+      <c r="Y437" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="Z437" s="5" t="s">
@@ -44180,7 +44173,7 @@
       <c r="AB437" s="5"/>
       <c r="AC437" s="5"/>
     </row>
-    <row r="438" spans="1:32" hidden="true">
+    <row r="438" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="6">
         <v>45033</v>
       </c>
@@ -44253,7 +44246,7 @@
       <c r="X438" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y438" s="7" t="s">
+      <c r="Y438" s="5" t="s">
         <v>1680</v>
       </c>
       <c r="Z438" s="5" t="s">
@@ -44265,7 +44258,7 @@
       <c r="AB438" s="5"/>
       <c r="AC438" s="5"/>
     </row>
-    <row r="439" spans="1:32" hidden="true">
+    <row r="439" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>45033</v>
       </c>
@@ -44338,7 +44331,7 @@
       <c r="X439" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y439" s="7" t="s">
+      <c r="Y439" s="5" t="s">
         <v>1685</v>
       </c>
       <c r="Z439" s="5" t="s">
@@ -44350,7 +44343,7 @@
       <c r="AB439" s="5"/>
       <c r="AC439" s="5"/>
     </row>
-    <row r="440" spans="1:32" hidden="true">
+    <row r="440" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="6">
         <v>45033</v>
       </c>
@@ -44423,13 +44416,13 @@
       <c r="X440" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y440" s="7"/>
+      <c r="Y440" s="5"/>
       <c r="Z440" s="5"/>
       <c r="AA440" s="5"/>
       <c r="AB440" s="5"/>
       <c r="AC440" s="5"/>
     </row>
-    <row r="441" spans="1:32" hidden="true">
+    <row r="441" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="6">
         <v>45033</v>
       </c>
@@ -44502,13 +44495,13 @@
       <c r="X441" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y441" s="7"/>
+      <c r="Y441" s="5"/>
       <c r="Z441" s="5"/>
       <c r="AA441" s="5"/>
       <c r="AB441" s="5"/>
       <c r="AC441" s="5"/>
     </row>
-    <row r="442" spans="1:32" hidden="true">
+    <row r="442" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="6">
         <v>45033</v>
       </c>
@@ -44581,7 +44574,7 @@
       <c r="X442" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y442" s="7" t="s">
+      <c r="Y442" s="5" t="s">
         <v>1690</v>
       </c>
       <c r="Z442" s="5" t="s">
@@ -44593,7 +44586,7 @@
       <c r="AB442" s="5"/>
       <c r="AC442" s="5"/>
     </row>
-    <row r="443" spans="1:32" hidden="true">
+    <row r="443" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="6">
         <v>45033</v>
       </c>
@@ -44666,13 +44659,13 @@
       <c r="X443" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y443" s="7"/>
+      <c r="Y443" s="5"/>
       <c r="Z443" s="5"/>
       <c r="AA443" s="5"/>
       <c r="AB443" s="5"/>
       <c r="AC443" s="5"/>
     </row>
-    <row r="444" spans="1:32" hidden="true">
+    <row r="444" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="6">
         <v>45033</v>
       </c>
@@ -44745,7 +44738,7 @@
       <c r="X444" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y444" s="7" t="s">
+      <c r="Y444" s="5" t="s">
         <v>1695</v>
       </c>
       <c r="Z444" s="5" t="s">
@@ -44757,7 +44750,7 @@
       <c r="AB444" s="5"/>
       <c r="AC444" s="5"/>
     </row>
-    <row r="445" spans="1:32" hidden="true">
+    <row r="445" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="6">
         <v>45033</v>
       </c>
@@ -44830,7 +44823,7 @@
       <c r="X445" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y445" s="7" t="s">
+      <c r="Y445" s="5" t="s">
         <v>1698</v>
       </c>
       <c r="Z445" s="5" t="s">
@@ -44842,7 +44835,7 @@
       <c r="AB445" s="5"/>
       <c r="AC445" s="5"/>
     </row>
-    <row r="446" spans="1:32" hidden="true">
+    <row r="446" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="6">
         <v>45033</v>
       </c>
@@ -44915,7 +44908,7 @@
       <c r="X446" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y446" s="7" t="s">
+      <c r="Y446" s="5" t="s">
         <v>1701</v>
       </c>
       <c r="Z446" s="5" t="s">
@@ -44927,7 +44920,7 @@
       <c r="AB446" s="5"/>
       <c r="AC446" s="5"/>
     </row>
-    <row r="447" spans="1:32" hidden="true">
+    <row r="447" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="6">
         <v>45033</v>
       </c>
@@ -45000,7 +44993,7 @@
       <c r="X447" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y447" s="7" t="s">
+      <c r="Y447" s="5" t="s">
         <v>1704</v>
       </c>
       <c r="Z447" s="5" t="s">
@@ -45012,7 +45005,7 @@
       <c r="AB447" s="5"/>
       <c r="AC447" s="5"/>
     </row>
-    <row r="448" spans="1:32" hidden="true">
+    <row r="448" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="6">
         <v>45033</v>
       </c>
@@ -45085,7 +45078,7 @@
       <c r="X448" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y448" s="7" t="s">
+      <c r="Y448" s="5" t="s">
         <v>1708</v>
       </c>
       <c r="Z448" s="5" t="s">
@@ -45097,7 +45090,7 @@
       <c r="AB448" s="5"/>
       <c r="AC448" s="5"/>
     </row>
-    <row r="449" spans="1:32" hidden="true">
+    <row r="449" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="6">
         <v>45033</v>
       </c>
@@ -45170,7 +45163,7 @@
       <c r="X449" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y449" s="7" t="s">
+      <c r="Y449" s="5" t="s">
         <v>1711</v>
       </c>
       <c r="Z449" s="5" t="s">
@@ -45182,7 +45175,7 @@
       <c r="AB449" s="5"/>
       <c r="AC449" s="5"/>
     </row>
-    <row r="450" spans="1:32" hidden="true">
+    <row r="450" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
         <v>45033</v>
       </c>
@@ -45255,7 +45248,7 @@
       <c r="X450" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y450" s="7" t="s">
+      <c r="Y450" s="5" t="s">
         <v>1713</v>
       </c>
       <c r="Z450" s="5" t="s">
@@ -45267,7 +45260,7 @@
       <c r="AB450" s="5"/>
       <c r="AC450" s="5"/>
     </row>
-    <row r="451" spans="1:32" hidden="true">
+    <row r="451" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="6">
         <v>45033</v>
       </c>
@@ -45340,7 +45333,7 @@
       <c r="X451" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y451" s="7" t="s">
+      <c r="Y451" s="5" t="s">
         <v>1715</v>
       </c>
       <c r="Z451" s="5" t="s">
@@ -45352,7 +45345,7 @@
       <c r="AB451" s="5"/>
       <c r="AC451" s="5"/>
     </row>
-    <row r="452" spans="1:32" hidden="true">
+    <row r="452" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="6">
         <v>45033</v>
       </c>
@@ -45425,7 +45418,7 @@
       <c r="X452" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y452" s="7" t="s">
+      <c r="Y452" s="5" t="s">
         <v>1719</v>
       </c>
       <c r="Z452" s="5" t="s">
@@ -45437,7 +45430,7 @@
       <c r="AB452" s="5"/>
       <c r="AC452" s="5"/>
     </row>
-    <row r="453" spans="1:32" hidden="true">
+    <row r="453" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="6">
         <v>45033</v>
       </c>
@@ -45510,7 +45503,7 @@
       <c r="X453" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y453" s="7" t="s">
+      <c r="Y453" s="5" t="s">
         <v>1724</v>
       </c>
       <c r="Z453" s="5" t="s">
@@ -45522,7 +45515,7 @@
       <c r="AB453" s="5"/>
       <c r="AC453" s="5"/>
     </row>
-    <row r="454" spans="1:32" hidden="true">
+    <row r="454" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="6">
         <v>45033</v>
       </c>
@@ -45595,7 +45588,7 @@
       <c r="X454" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y454" s="7" t="s">
+      <c r="Y454" s="5" t="s">
         <v>1728</v>
       </c>
       <c r="Z454" s="5" t="s">
@@ -45607,7 +45600,7 @@
       <c r="AB454" s="5"/>
       <c r="AC454" s="5"/>
     </row>
-    <row r="455" spans="1:32" hidden="true">
+    <row r="455" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="6">
         <v>45033</v>
       </c>
@@ -45680,7 +45673,7 @@
       <c r="X455" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y455" s="7" t="s">
+      <c r="Y455" s="5" t="s">
         <v>1731</v>
       </c>
       <c r="Z455" s="5" t="s">
@@ -45692,7 +45685,7 @@
       <c r="AB455" s="5"/>
       <c r="AC455" s="5"/>
     </row>
-    <row r="456" spans="1:32" hidden="true">
+    <row r="456" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
         <v>45033</v>
       </c>
@@ -45765,7 +45758,7 @@
       <c r="X456" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y456" s="7" t="s">
+      <c r="Y456" s="5" t="s">
         <v>1733</v>
       </c>
       <c r="Z456" s="5" t="s">
@@ -45777,7 +45770,7 @@
       <c r="AB456" s="5"/>
       <c r="AC456" s="5"/>
     </row>
-    <row r="457" spans="1:32" hidden="true">
+    <row r="457" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="6">
         <v>45033</v>
       </c>
@@ -45850,7 +45843,7 @@
       <c r="X457" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y457" s="7" t="s">
+      <c r="Y457" s="5" t="s">
         <v>1735</v>
       </c>
       <c r="Z457" s="5" t="s">
@@ -45862,7 +45855,7 @@
       <c r="AB457" s="5"/>
       <c r="AC457" s="5"/>
     </row>
-    <row r="458" spans="1:32" hidden="true">
+    <row r="458" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="6">
         <v>45033</v>
       </c>
@@ -45935,7 +45928,7 @@
       <c r="X458" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y458" s="7" t="s">
+      <c r="Y458" s="5" t="s">
         <v>1737</v>
       </c>
       <c r="Z458" s="5" t="s">
@@ -45947,7 +45940,7 @@
       <c r="AB458" s="5"/>
       <c r="AC458" s="5"/>
     </row>
-    <row r="459" spans="1:32" hidden="true">
+    <row r="459" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="6">
         <v>45033</v>
       </c>
@@ -46020,13 +46013,13 @@
       <c r="X459" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y459" s="7"/>
+      <c r="Y459" s="5"/>
       <c r="Z459" s="5"/>
       <c r="AA459" s="5"/>
       <c r="AB459" s="5"/>
       <c r="AC459" s="5"/>
     </row>
-    <row r="460" spans="1:32" hidden="true">
+    <row r="460" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6">
         <v>45033</v>
       </c>
@@ -46099,7 +46092,7 @@
       <c r="X460" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y460" s="7" t="s">
+      <c r="Y460" s="5" t="s">
         <v>1740</v>
       </c>
       <c r="Z460" s="5" t="s">
@@ -46111,7 +46104,7 @@
       <c r="AB460" s="5"/>
       <c r="AC460" s="5"/>
     </row>
-    <row r="461" spans="1:32" hidden="true">
+    <row r="461" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6">
         <v>45033</v>
       </c>
@@ -46184,7 +46177,7 @@
       <c r="X461" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y461" s="7" t="s">
+      <c r="Y461" s="5" t="s">
         <v>1742</v>
       </c>
       <c r="Z461" s="5" t="s">
@@ -46196,7 +46189,7 @@
       <c r="AB461" s="5"/>
       <c r="AC461" s="5"/>
     </row>
-    <row r="462" spans="1:32" hidden="true">
+    <row r="462" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="6">
         <v>45033</v>
       </c>
@@ -46269,7 +46262,7 @@
       <c r="X462" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y462" s="7" t="s">
+      <c r="Y462" s="5" t="s">
         <v>1746</v>
       </c>
       <c r="Z462" s="5" t="s">
@@ -46281,7 +46274,7 @@
       <c r="AB462" s="5"/>
       <c r="AC462" s="5"/>
     </row>
-    <row r="463" spans="1:32" hidden="true">
+    <row r="463" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="6">
         <v>45033</v>
       </c>
@@ -46354,7 +46347,7 @@
       <c r="X463" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y463" s="7" t="s">
+      <c r="Y463" s="5" t="s">
         <v>1748</v>
       </c>
       <c r="Z463" s="5" t="s">
@@ -46366,7 +46359,7 @@
       <c r="AB463" s="5"/>
       <c r="AC463" s="5"/>
     </row>
-    <row r="464" spans="1:32" hidden="true">
+    <row r="464" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="6">
         <v>45033</v>
       </c>
@@ -46439,13 +46432,13 @@
       <c r="X464" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y464" s="7"/>
+      <c r="Y464" s="5"/>
       <c r="Z464" s="5"/>
       <c r="AA464" s="5"/>
       <c r="AB464" s="5"/>
       <c r="AC464" s="5"/>
     </row>
-    <row r="465" spans="1:32" hidden="true">
+    <row r="465" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="6">
         <v>45033</v>
       </c>
@@ -46518,7 +46511,7 @@
       <c r="X465" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y465" s="7" t="s">
+      <c r="Y465" s="5" t="s">
         <v>1752</v>
       </c>
       <c r="Z465" s="5" t="s">
@@ -46530,7 +46523,7 @@
       <c r="AB465" s="5"/>
       <c r="AC465" s="5"/>
     </row>
-    <row r="466" spans="1:32" hidden="true">
+    <row r="466" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="6">
         <v>45033</v>
       </c>
@@ -46603,7 +46596,7 @@
       <c r="X466" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y466" s="7" t="s">
+      <c r="Y466" s="5" t="s">
         <v>1754</v>
       </c>
       <c r="Z466" s="5" t="s">
@@ -46615,7 +46608,7 @@
       <c r="AB466" s="5"/>
       <c r="AC466" s="5"/>
     </row>
-    <row r="467" spans="1:32" hidden="true">
+    <row r="467" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="6">
         <v>45033</v>
       </c>
@@ -46688,7 +46681,7 @@
       <c r="X467" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y467" s="7" t="s">
+      <c r="Y467" s="5" t="s">
         <v>1756</v>
       </c>
       <c r="Z467" s="5" t="s">
@@ -46700,7 +46693,7 @@
       <c r="AB467" s="5"/>
       <c r="AC467" s="5"/>
     </row>
-    <row r="468" spans="1:32" hidden="true">
+    <row r="468" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
         <v>45033</v>
       </c>
@@ -46773,7 +46766,7 @@
       <c r="X468" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y468" s="7" t="s">
+      <c r="Y468" s="5" t="s">
         <v>1758</v>
       </c>
       <c r="Z468" s="5" t="s">
@@ -46785,7 +46778,7 @@
       <c r="AB468" s="5"/>
       <c r="AC468" s="5"/>
     </row>
-    <row r="469" spans="1:32" hidden="true">
+    <row r="469" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="6">
         <v>45033</v>
       </c>
@@ -46858,13 +46851,13 @@
       <c r="X469" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y469" s="7"/>
+      <c r="Y469" s="5"/>
       <c r="Z469" s="5"/>
       <c r="AA469" s="5"/>
       <c r="AB469" s="5"/>
       <c r="AC469" s="5"/>
     </row>
-    <row r="470" spans="1:32" hidden="true">
+    <row r="470" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="6">
         <v>45033</v>
       </c>
@@ -46937,7 +46930,7 @@
       <c r="X470" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y470" s="7" t="s">
+      <c r="Y470" s="5" t="s">
         <v>1760</v>
       </c>
       <c r="Z470" s="5" t="s">
@@ -46949,7 +46942,7 @@
       <c r="AB470" s="5"/>
       <c r="AC470" s="5"/>
     </row>
-    <row r="471" spans="1:32" hidden="true">
+    <row r="471" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="6">
         <v>45033</v>
       </c>
@@ -47022,7 +47015,7 @@
       <c r="X471" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y471" s="7" t="s">
+      <c r="Y471" s="5" t="s">
         <v>1764</v>
       </c>
       <c r="Z471" s="5" t="s">
@@ -47034,7 +47027,7 @@
       <c r="AB471" s="5"/>
       <c r="AC471" s="5"/>
     </row>
-    <row r="472" spans="1:32" hidden="true">
+    <row r="472" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="6">
         <v>45033</v>
       </c>
@@ -47107,7 +47100,7 @@
       <c r="X472" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y472" s="7" t="s">
+      <c r="Y472" s="5" t="s">
         <v>1766</v>
       </c>
       <c r="Z472" s="5" t="s">
@@ -47119,7 +47112,7 @@
       <c r="AB472" s="5"/>
       <c r="AC472" s="5"/>
     </row>
-    <row r="473" spans="1:32" hidden="true">
+    <row r="473" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="6">
         <v>45033</v>
       </c>
@@ -47192,7 +47185,7 @@
       <c r="X473" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y473" s="7" t="s">
+      <c r="Y473" s="5" t="s">
         <v>1768</v>
       </c>
       <c r="Z473" s="5" t="s">
@@ -47204,7 +47197,7 @@
       <c r="AB473" s="5"/>
       <c r="AC473" s="5"/>
     </row>
-    <row r="474" spans="1:32" hidden="true">
+    <row r="474" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="6">
         <v>45033</v>
       </c>
@@ -47277,7 +47270,7 @@
       <c r="X474" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y474" s="7" t="s">
+      <c r="Y474" s="5" t="s">
         <v>1771</v>
       </c>
       <c r="Z474" s="5" t="s">
@@ -47289,7 +47282,7 @@
       <c r="AB474" s="5"/>
       <c r="AC474" s="5"/>
     </row>
-    <row r="475" spans="1:32" hidden="true">
+    <row r="475" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="6">
         <v>45033</v>
       </c>
@@ -47362,7 +47355,7 @@
       <c r="X475" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y475" s="7" t="s">
+      <c r="Y475" s="5" t="s">
         <v>1774</v>
       </c>
       <c r="Z475" s="5" t="s">
@@ -47374,7 +47367,7 @@
       <c r="AB475" s="5"/>
       <c r="AC475" s="5"/>
     </row>
-    <row r="476" spans="1:32" hidden="true">
+    <row r="476" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="6">
         <v>45033</v>
       </c>
@@ -47447,7 +47440,7 @@
       <c r="X476" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y476" s="7" t="s">
+      <c r="Y476" s="5" t="s">
         <v>1777</v>
       </c>
       <c r="Z476" s="5" t="s">
@@ -47459,7 +47452,7 @@
       <c r="AB476" s="5"/>
       <c r="AC476" s="5"/>
     </row>
-    <row r="477" spans="1:32" hidden="true">
+    <row r="477" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="6">
         <v>45033</v>
       </c>
@@ -47532,7 +47525,7 @@
       <c r="X477" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y477" s="7" t="s">
+      <c r="Y477" s="5" t="s">
         <v>1779</v>
       </c>
       <c r="Z477" s="5" t="s">
@@ -47544,7 +47537,7 @@
       <c r="AB477" s="5"/>
       <c r="AC477" s="5"/>
     </row>
-    <row r="478" spans="1:32" hidden="true">
+    <row r="478" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="6">
         <v>45033</v>
       </c>
@@ -47617,7 +47610,7 @@
       <c r="X478" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y478" s="7" t="s">
+      <c r="Y478" s="5" t="s">
         <v>1782</v>
       </c>
       <c r="Z478" s="5" t="s">
@@ -47629,7 +47622,7 @@
       <c r="AB478" s="5"/>
       <c r="AC478" s="5"/>
     </row>
-    <row r="479" spans="1:32" hidden="true">
+    <row r="479" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="6">
         <v>45033</v>
       </c>
@@ -47702,7 +47695,7 @@
       <c r="X479" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y479" s="7" t="s">
+      <c r="Y479" s="5" t="s">
         <v>1785</v>
       </c>
       <c r="Z479" s="5" t="s">
@@ -47714,7 +47707,7 @@
       <c r="AB479" s="5"/>
       <c r="AC479" s="5"/>
     </row>
-    <row r="480" spans="1:32" hidden="true">
+    <row r="480" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="6">
         <v>45033</v>
       </c>
@@ -47787,13 +47780,13 @@
       <c r="X480" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y480" s="7"/>
+      <c r="Y480" s="5"/>
       <c r="Z480" s="5"/>
       <c r="AA480" s="5"/>
       <c r="AB480" s="5"/>
       <c r="AC480" s="5"/>
     </row>
-    <row r="481" spans="1:32" hidden="true">
+    <row r="481" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="6">
         <v>45033</v>
       </c>
@@ -47866,7 +47859,7 @@
       <c r="X481" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y481" s="7" t="s">
+      <c r="Y481" s="5" t="s">
         <v>1788</v>
       </c>
       <c r="Z481" s="5" t="s">
@@ -47878,7 +47871,7 @@
       <c r="AB481" s="5"/>
       <c r="AC481" s="5"/>
     </row>
-    <row r="482" spans="1:32" hidden="true">
+    <row r="482" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="6">
         <v>45033</v>
       </c>
@@ -47951,7 +47944,7 @@
       <c r="X482" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y482" s="7" t="s">
+      <c r="Y482" s="5" t="s">
         <v>1791</v>
       </c>
       <c r="Z482" s="5" t="s">
@@ -47963,7 +47956,7 @@
       <c r="AB482" s="5"/>
       <c r="AC482" s="5"/>
     </row>
-    <row r="483" spans="1:32" hidden="true">
+    <row r="483" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="6">
         <v>45033</v>
       </c>
@@ -48036,7 +48029,7 @@
       <c r="X483" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y483" s="7" t="s">
+      <c r="Y483" s="5" t="s">
         <v>1794</v>
       </c>
       <c r="Z483" s="5" t="s">
@@ -48048,7 +48041,7 @@
       <c r="AB483" s="5"/>
       <c r="AC483" s="5"/>
     </row>
-    <row r="484" spans="1:32" hidden="true">
+    <row r="484" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="6">
         <v>45033</v>
       </c>
@@ -48121,13 +48114,13 @@
       <c r="X484" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y484" s="7"/>
+      <c r="Y484" s="5"/>
       <c r="Z484" s="5"/>
       <c r="AA484" s="5"/>
       <c r="AB484" s="5"/>
       <c r="AC484" s="5"/>
     </row>
-    <row r="485" spans="1:32" hidden="true">
+    <row r="485" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="6">
         <v>45033</v>
       </c>
@@ -48200,7 +48193,7 @@
       <c r="X485" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y485" s="7" t="s">
+      <c r="Y485" s="5" t="s">
         <v>1799</v>
       </c>
       <c r="Z485" s="5" t="s">
@@ -48212,7 +48205,7 @@
       <c r="AB485" s="5"/>
       <c r="AC485" s="5"/>
     </row>
-    <row r="486" spans="1:32" hidden="true">
+    <row r="486" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="6">
         <v>45033</v>
       </c>
@@ -48285,7 +48278,7 @@
       <c r="X486" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y486" s="7" t="s">
+      <c r="Y486" s="5" t="s">
         <v>1801</v>
       </c>
       <c r="Z486" s="5" t="s">
@@ -48297,7 +48290,7 @@
       <c r="AB486" s="5"/>
       <c r="AC486" s="5"/>
     </row>
-    <row r="487" spans="1:32" hidden="true">
+    <row r="487" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="6">
         <v>45033</v>
       </c>
@@ -48370,7 +48363,7 @@
       <c r="X487" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y487" s="7" t="s">
+      <c r="Y487" s="5" t="s">
         <v>1806</v>
       </c>
       <c r="Z487" s="5" t="s">
@@ -48382,7 +48375,7 @@
       <c r="AB487" s="5"/>
       <c r="AC487" s="5"/>
     </row>
-    <row r="488" spans="1:32" hidden="true">
+    <row r="488" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="6">
         <v>45033</v>
       </c>
@@ -48455,7 +48448,7 @@
       <c r="X488" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y488" s="7" t="s">
+      <c r="Y488" s="5" t="s">
         <v>1810</v>
       </c>
       <c r="Z488" s="5" t="s">
@@ -48467,7 +48460,7 @@
       <c r="AB488" s="5"/>
       <c r="AC488" s="5"/>
     </row>
-    <row r="489" spans="1:32" hidden="true">
+    <row r="489" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="6">
         <v>45033</v>
       </c>
@@ -48540,7 +48533,7 @@
       <c r="X489" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y489" s="7" t="s">
+      <c r="Y489" s="5" t="s">
         <v>1813</v>
       </c>
       <c r="Z489" s="5" t="s">
@@ -48552,7 +48545,7 @@
       <c r="AB489" s="5"/>
       <c r="AC489" s="5"/>
     </row>
-    <row r="490" spans="1:32" hidden="true">
+    <row r="490" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="6">
         <v>45033</v>
       </c>
@@ -48625,7 +48618,7 @@
       <c r="X490" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y490" s="7" t="s">
+      <c r="Y490" s="5" t="s">
         <v>1817</v>
       </c>
       <c r="Z490" s="5" t="s">
@@ -48637,7 +48630,7 @@
       <c r="AB490" s="5"/>
       <c r="AC490" s="5"/>
     </row>
-    <row r="491" spans="1:32" hidden="true">
+    <row r="491" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="6">
         <v>45033</v>
       </c>
@@ -48710,13 +48703,13 @@
       <c r="X491" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y491" s="7"/>
+      <c r="Y491" s="5"/>
       <c r="Z491" s="5"/>
       <c r="AA491" s="5"/>
       <c r="AB491" s="5"/>
       <c r="AC491" s="5"/>
     </row>
-    <row r="492" spans="1:32" hidden="true">
+    <row r="492" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="6">
         <v>45033</v>
       </c>
@@ -48789,7 +48782,7 @@
       <c r="X492" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y492" s="7" t="s">
+      <c r="Y492" s="5" t="s">
         <v>1820</v>
       </c>
       <c r="Z492" s="5" t="s">
@@ -48801,7 +48794,7 @@
       <c r="AB492" s="5"/>
       <c r="AC492" s="5"/>
     </row>
-    <row r="493" spans="1:32" hidden="true">
+    <row r="493" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="6">
         <v>45033</v>
       </c>
@@ -48874,7 +48867,7 @@
       <c r="X493" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y493" s="7" t="s">
+      <c r="Y493" s="5" t="s">
         <v>1823</v>
       </c>
       <c r="Z493" s="5" t="s">
@@ -48886,7 +48879,7 @@
       <c r="AB493" s="5"/>
       <c r="AC493" s="5"/>
     </row>
-    <row r="494" spans="1:32" hidden="true">
+    <row r="494" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="6">
         <v>45033</v>
       </c>
@@ -48959,7 +48952,7 @@
       <c r="X494" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y494" s="7" t="s">
+      <c r="Y494" s="5" t="s">
         <v>1825</v>
       </c>
       <c r="Z494" s="5" t="s">
@@ -48971,7 +48964,7 @@
       <c r="AB494" s="5"/>
       <c r="AC494" s="5"/>
     </row>
-    <row r="495" spans="1:32" hidden="true">
+    <row r="495" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="6">
         <v>45033</v>
       </c>
@@ -49044,7 +49037,7 @@
       <c r="X495" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y495" s="7" t="s">
+      <c r="Y495" s="5" t="s">
         <v>1827</v>
       </c>
       <c r="Z495" s="5" t="s">
@@ -49056,7 +49049,7 @@
       <c r="AB495" s="5"/>
       <c r="AC495" s="5"/>
     </row>
-    <row r="496" spans="1:32" hidden="true">
+    <row r="496" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="6">
         <v>45033</v>
       </c>
@@ -49129,7 +49122,7 @@
       <c r="X496" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y496" s="7" t="s">
+      <c r="Y496" s="5" t="s">
         <v>1829</v>
       </c>
       <c r="Z496" s="5" t="s">
@@ -49141,7 +49134,7 @@
       <c r="AB496" s="5"/>
       <c r="AC496" s="5"/>
     </row>
-    <row r="497" spans="1:32" hidden="true">
+    <row r="497" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="6">
         <v>45033</v>
       </c>
@@ -49214,7 +49207,7 @@
       <c r="X497" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y497" s="7" t="s">
+      <c r="Y497" s="5" t="s">
         <v>1833</v>
       </c>
       <c r="Z497" s="5" t="s">
@@ -49226,7 +49219,7 @@
       <c r="AB497" s="5"/>
       <c r="AC497" s="5"/>
     </row>
-    <row r="498" spans="1:32" hidden="true">
+    <row r="498" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
         <v>45033</v>
       </c>
@@ -49299,7 +49292,7 @@
       <c r="X498" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y498" s="7" t="s">
+      <c r="Y498" s="5" t="s">
         <v>1836</v>
       </c>
       <c r="Z498" s="5" t="s">
@@ -49311,7 +49304,7 @@
       <c r="AB498" s="5"/>
       <c r="AC498" s="5"/>
     </row>
-    <row r="499" spans="1:32" hidden="true">
+    <row r="499" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
         <v>45033</v>
       </c>
@@ -49384,7 +49377,7 @@
       <c r="X499" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y499" s="7" t="s">
+      <c r="Y499" s="5" t="s">
         <v>1839</v>
       </c>
       <c r="Z499" s="5" t="s">
@@ -49396,7 +49389,7 @@
       <c r="AB499" s="5"/>
       <c r="AC499" s="5"/>
     </row>
-    <row r="500" spans="1:32" hidden="true">
+    <row r="500" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="6">
         <v>45033</v>
       </c>
@@ -49469,13 +49462,13 @@
       <c r="X500" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y500" s="7"/>
+      <c r="Y500" s="5"/>
       <c r="Z500" s="5"/>
       <c r="AA500" s="5"/>
       <c r="AB500" s="5"/>
       <c r="AC500" s="5"/>
     </row>
-    <row r="501" spans="1:32" hidden="true">
+    <row r="501" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="6">
         <v>45033</v>
       </c>
@@ -49548,7 +49541,7 @@
       <c r="X501" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y501" s="7" t="s">
+      <c r="Y501" s="5" t="s">
         <v>1841</v>
       </c>
       <c r="Z501" s="5" t="s">
@@ -49560,7 +49553,7 @@
       <c r="AB501" s="5"/>
       <c r="AC501" s="5"/>
     </row>
-    <row r="502" spans="1:32" hidden="true">
+    <row r="502" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="6">
         <v>45033</v>
       </c>
@@ -49633,7 +49626,7 @@
       <c r="X502" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y502" s="7" t="s">
+      <c r="Y502" s="5" t="s">
         <v>1844</v>
       </c>
       <c r="Z502" s="5"/>
@@ -49643,7 +49636,7 @@
       <c r="AB502" s="5"/>
       <c r="AC502" s="5"/>
     </row>
-    <row r="503" spans="1:32" hidden="true">
+    <row r="503" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="6">
         <v>45033</v>
       </c>
@@ -49716,13 +49709,13 @@
       <c r="X503" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y503" s="7"/>
+      <c r="Y503" s="5"/>
       <c r="Z503" s="5"/>
       <c r="AA503" s="5"/>
       <c r="AB503" s="5"/>
       <c r="AC503" s="5"/>
     </row>
-    <row r="504" spans="1:32" hidden="true">
+    <row r="504" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="6">
         <v>45033</v>
       </c>
@@ -49791,7 +49784,7 @@
       <c r="X504" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y504" s="7" t="s">
+      <c r="Y504" s="5" t="s">
         <v>1849</v>
       </c>
       <c r="Z504" s="5" t="s">
@@ -49803,7 +49796,7 @@
       <c r="AB504" s="5"/>
       <c r="AC504" s="5"/>
     </row>
-    <row r="505" spans="1:32" hidden="true">
+    <row r="505" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="6">
         <v>45033</v>
       </c>
@@ -49876,7 +49869,7 @@
       <c r="X505" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y505" s="7" t="s">
+      <c r="Y505" s="5" t="s">
         <v>1854</v>
       </c>
       <c r="Z505" s="5" t="s">
@@ -49888,7 +49881,7 @@
       <c r="AB505" s="5"/>
       <c r="AC505" s="5"/>
     </row>
-    <row r="506" spans="1:32" hidden="true">
+    <row r="506" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="6">
         <v>45033</v>
       </c>
@@ -49961,7 +49954,7 @@
       <c r="X506" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y506" s="7" t="s">
+      <c r="Y506" s="5" t="s">
         <v>1859</v>
       </c>
       <c r="Z506" s="5"/>
@@ -49971,7 +49964,7 @@
       <c r="AB506" s="5"/>
       <c r="AC506" s="5"/>
     </row>
-    <row r="507" spans="1:32" hidden="true">
+    <row r="507" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="6">
         <v>45033</v>
       </c>
@@ -50044,7 +50037,7 @@
       <c r="X507" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Y507" s="7" t="s">
+      <c r="Y507" s="5" t="s">
         <v>1861</v>
       </c>
       <c r="Z507" s="5" t="s">
@@ -50056,7 +50049,7 @@
       <c r="AB507" s="5"/>
       <c r="AC507" s="5"/>
     </row>
-    <row r="508" spans="1:32">
+    <row r="508" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A508" s="6">
         <v>45033</v>
       </c>
@@ -50069,7 +50062,7 @@
       <c r="D508" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E508" s="8" t="s">
+      <c r="E508" s="7" t="s">
         <v>1863</v>
       </c>
       <c r="F508" s="5" t="s">
@@ -50152,7 +50145,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="509" spans="1:32">
+    <row r="509" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A509" s="6">
         <v>45033</v>
       </c>
@@ -50165,7 +50158,7 @@
       <c r="D509" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E509" s="8" t="s">
+      <c r="E509" s="7" t="s">
         <v>1863</v>
       </c>
       <c r="F509" s="5" t="s">
@@ -50244,7 +50237,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="510" spans="1:32">
+    <row r="510" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A510" s="6">
         <v>45033</v>
       </c>
@@ -50257,7 +50250,7 @@
       <c r="D510" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E510" s="8" t="s">
+      <c r="E510" s="7" t="s">
         <v>1863</v>
       </c>
       <c r="F510" s="5" t="s">
@@ -50340,7 +50333,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="511" spans="1:32">
+    <row r="511" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A511" s="6">
         <v>45033</v>
       </c>
@@ -50353,7 +50346,7 @@
       <c r="D511" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E511" s="8" t="s">
+      <c r="E511" s="7" t="s">
         <v>1863</v>
       </c>
       <c r="F511" s="5" t="s">
@@ -50436,7 +50429,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="512" spans="1:32">
+    <row r="512" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A512" s="6">
         <v>45033</v>
       </c>
@@ -50449,7 +50442,7 @@
       <c r="D512" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E512" s="8" t="s">
+      <c r="E512" s="7" t="s">
         <v>1863</v>
       </c>
       <c r="F512" s="5" t="s">
@@ -50532,7 +50525,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="513" spans="1:32" hidden="true">
+    <row r="513" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="6">
         <v>45033</v>
       </c>
@@ -50545,7 +50538,7 @@
       <c r="D513" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E513" s="8" t="s">
+      <c r="E513" s="7" t="s">
         <v>1880</v>
       </c>
       <c r="F513" s="5" t="s">
@@ -50615,7 +50608,7 @@
       <c r="AB513" s="5"/>
       <c r="AC513" s="5"/>
     </row>
-    <row r="514" spans="1:32" hidden="true">
+    <row r="514" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="6">
         <v>45033</v>
       </c>
@@ -50628,7 +50621,7 @@
       <c r="D514" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E514" s="8" t="s">
+      <c r="E514" s="7" t="s">
         <v>1886</v>
       </c>
       <c r="F514" s="5" t="s">
@@ -50696,7 +50689,7 @@
       <c r="AB514" s="5"/>
       <c r="AC514" s="5"/>
     </row>
-    <row r="515" spans="1:32" hidden="true">
+    <row r="515" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="6">
         <v>45033</v>
       </c>
@@ -50709,7 +50702,7 @@
       <c r="D515" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E515" s="8" t="s">
+      <c r="E515" s="7" t="s">
         <v>1891</v>
       </c>
       <c r="F515" s="5" t="s">
@@ -50775,7 +50768,7 @@
       <c r="AB515" s="5"/>
       <c r="AC515" s="5"/>
     </row>
-    <row r="516" spans="1:32" hidden="true">
+    <row r="516" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="6">
         <v>45033</v>
       </c>
@@ -50788,7 +50781,7 @@
       <c r="D516" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E516" s="8" t="s">
+      <c r="E516" s="7" t="s">
         <v>1897</v>
       </c>
       <c r="F516" s="5" t="s">
@@ -50858,7 +50851,7 @@
       <c r="AB516" s="5"/>
       <c r="AC516" s="5"/>
     </row>
-    <row r="517" spans="1:32" hidden="true">
+    <row r="517" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="6">
         <v>45033</v>
       </c>
@@ -50871,7 +50864,7 @@
       <c r="D517" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E517" s="8" t="s">
+      <c r="E517" s="7" t="s">
         <v>1901</v>
       </c>
       <c r="F517" s="5" t="s">
@@ -50937,7 +50930,7 @@
       <c r="AB517" s="5"/>
       <c r="AC517" s="5"/>
     </row>
-    <row r="518" spans="1:32" hidden="true">
+    <row r="518" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="6">
         <v>45033</v>
       </c>
@@ -50950,7 +50943,7 @@
       <c r="D518" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E518" s="8" t="s">
+      <c r="E518" s="7" t="s">
         <v>1904</v>
       </c>
       <c r="F518" s="5" t="s">
@@ -51018,7 +51011,7 @@
       <c r="AB518" s="5"/>
       <c r="AC518" s="5"/>
     </row>
-    <row r="519" spans="1:32" hidden="true">
+    <row r="519" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="6">
         <v>45033</v>
       </c>
@@ -51031,7 +51024,7 @@
       <c r="D519" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E519" s="8" t="s">
+      <c r="E519" s="7" t="s">
         <v>1908</v>
       </c>
       <c r="F519" s="5" t="s">
@@ -51101,7 +51094,7 @@
       <c r="AB519" s="5"/>
       <c r="AC519" s="5"/>
     </row>
-    <row r="520" spans="1:32" hidden="true">
+    <row r="520" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="6">
         <v>45033</v>
       </c>
@@ -51114,7 +51107,7 @@
       <c r="D520" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E520" s="8" t="s">
+      <c r="E520" s="7" t="s">
         <v>1908</v>
       </c>
       <c r="F520" s="5" t="s">
@@ -51184,7 +51177,7 @@
       <c r="AB520" s="5"/>
       <c r="AC520" s="5"/>
     </row>
-    <row r="521" spans="1:32" hidden="true">
+    <row r="521" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="6">
         <v>45033</v>
       </c>
@@ -51197,7 +51190,7 @@
       <c r="D521" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E521" s="8" t="s">
+      <c r="E521" s="7" t="s">
         <v>1916</v>
       </c>
       <c r="F521" s="5" t="s">
@@ -51267,7 +51260,7 @@
       <c r="AB521" s="5"/>
       <c r="AC521" s="5"/>
     </row>
-    <row r="522" spans="1:32" hidden="true">
+    <row r="522" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="6">
         <v>45033</v>
       </c>
@@ -51280,7 +51273,7 @@
       <c r="D522" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E522" s="8" t="s">
+      <c r="E522" s="7" t="s">
         <v>1924</v>
       </c>
       <c r="F522" s="5" t="s">
@@ -51350,7 +51343,7 @@
       <c r="AB522" s="5"/>
       <c r="AC522" s="5"/>
     </row>
-    <row r="523" spans="1:32" hidden="true">
+    <row r="523" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="6">
         <v>45033</v>
       </c>
@@ -51363,7 +51356,7 @@
       <c r="D523" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E523" s="8" t="s">
+      <c r="E523" s="7" t="s">
         <v>1929</v>
       </c>
       <c r="F523" s="5" t="s">
@@ -51431,7 +51424,7 @@
       <c r="AB523" s="5"/>
       <c r="AC523" s="5"/>
     </row>
-    <row r="524" spans="1:32" hidden="true">
+    <row r="524" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="6">
         <v>45033</v>
       </c>
@@ -51444,7 +51437,7 @@
       <c r="D524" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E524" s="8" t="s">
+      <c r="E524" s="7" t="s">
         <v>1934</v>
       </c>
       <c r="F524" s="5" t="s">
@@ -51514,7 +51507,7 @@
       <c r="AB524" s="5"/>
       <c r="AC524" s="5"/>
     </row>
-    <row r="525" spans="1:32" hidden="true">
+    <row r="525" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="6">
         <v>45033</v>
       </c>
@@ -51527,7 +51520,7 @@
       <c r="D525" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E525" s="8" t="s">
+      <c r="E525" s="7" t="s">
         <v>1940</v>
       </c>
       <c r="F525" s="5" t="s">
@@ -51597,7 +51590,7 @@
       <c r="AB525" s="5"/>
       <c r="AC525" s="5"/>
     </row>
-    <row r="526" spans="1:32" hidden="true">
+    <row r="526" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="6">
         <v>45033</v>
       </c>
@@ -51610,7 +51603,7 @@
       <c r="D526" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E526" s="8" t="s">
+      <c r="E526" s="7" t="s">
         <v>1943</v>
       </c>
       <c r="F526" s="5" t="s">
@@ -51676,7 +51669,7 @@
       <c r="AB526" s="5"/>
       <c r="AC526" s="5"/>
     </row>
-    <row r="527" spans="1:32" hidden="true">
+    <row r="527" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="6">
         <v>45033</v>
       </c>
@@ -51689,7 +51682,7 @@
       <c r="D527" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E527" s="8" t="s">
+      <c r="E527" s="7" t="s">
         <v>1949</v>
       </c>
       <c r="F527" s="5" t="s">
@@ -51759,7 +51752,7 @@
       <c r="AB527" s="5"/>
       <c r="AC527" s="5"/>
     </row>
-    <row r="528" spans="1:32" hidden="true">
+    <row r="528" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="6">
         <v>45033</v>
       </c>
@@ -51772,7 +51765,7 @@
       <c r="D528" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E528" s="8" t="s">
+      <c r="E528" s="7" t="s">
         <v>1953</v>
       </c>
       <c r="F528" s="5" t="s">
@@ -51840,7 +51833,7 @@
       <c r="AB528" s="5"/>
       <c r="AC528" s="5"/>
     </row>
-    <row r="529" spans="1:32" hidden="true">
+    <row r="529" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="6">
         <v>45033</v>
       </c>
@@ -51853,7 +51846,7 @@
       <c r="D529" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E529" s="8" t="s">
+      <c r="E529" s="7" t="s">
         <v>1953</v>
       </c>
       <c r="F529" s="5" t="s">
@@ -51923,7 +51916,7 @@
       <c r="AB529" s="5"/>
       <c r="AC529" s="5"/>
     </row>
-    <row r="530" spans="1:32" hidden="true">
+    <row r="530" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="6">
         <v>45033</v>
       </c>
@@ -51936,7 +51929,7 @@
       <c r="D530" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E530" s="8" t="s">
+      <c r="E530" s="7" t="s">
         <v>1961</v>
       </c>
       <c r="F530" s="5" t="s">
@@ -52006,7 +51999,7 @@
       <c r="AB530" s="5"/>
       <c r="AC530" s="5"/>
     </row>
-    <row r="531" spans="1:32" hidden="true">
+    <row r="531" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="6">
         <v>45033</v>
       </c>
@@ -52019,7 +52012,7 @@
       <c r="D531" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E531" s="8" t="s">
+      <c r="E531" s="7" t="s">
         <v>1961</v>
       </c>
       <c r="F531" s="5" t="s">
@@ -52085,7 +52078,7 @@
       <c r="AB531" s="5"/>
       <c r="AC531" s="5"/>
     </row>
-    <row r="532" spans="1:32" hidden="true">
+    <row r="532" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="6">
         <v>45033</v>
       </c>
@@ -52098,7 +52091,7 @@
       <c r="D532" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E532" s="8" t="s">
+      <c r="E532" s="7" t="s">
         <v>1961</v>
       </c>
       <c r="F532" s="5" t="s">
@@ -52168,28 +52161,15 @@
       <c r="AB532" s="5"/>
       <c r="AC532" s="5"/>
     </row>
-    <row r="533" spans="1:32">
-      <c r="K533"/>
-    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <autoFilter ref="A1:AA532">
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:AA532" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="10391"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>